--- a/GATEWAY/A1#111#PIAFONDAZIONEPANICOXX/AZ-PANICO/FSE-PANICO/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#PIAFONDAZIONEPANICOXX/AZ-PANICO/FSE-PANICO/1.0/report-checklist.xlsx
@@ -497,7 +497,7 @@
     <t xml:space="preserve">Il servizio FSE non è attualmente disponibile, non è possibile validare e pubblicare il referto sul Fascicolo Elettronico del paziente al momento. Verrà tentato in automatico di pubblicarlo in un momento successivo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene segnalato al medico che il servizio di FSE per validare il referto non è raggiungibile. Viene consentito di consegnare il referto al paziente. Un processo in background ritenterà l'invio in un momento successivo; nel caso in cui il CDA non risultasse valido, non verrà alimentato il FSE con questo referto.</t>
+    <t xml:space="preserve">Viene segnalato al medico che il servizio di FSE per validare il referto non è raggiungibile. Viene consentito di consegnare il referto al paziente. Un processo in background ritenterà l'invio in un momento successivo.</t>
   </si>
   <si>
     <t>VALIDAZIONE_PSS_TIMEOUT</t>
@@ -5312,10 +5312,10 @@
         <v>61</v>
       </c>
       <c r="Q28" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="R28" s="49" t="s">
         <v>61</v>
-      </c>
-      <c r="R28" s="49" t="s">
-        <v>60</v>
       </c>
       <c r="S28" s="50" t="s">
         <v>100</v>
@@ -5447,10 +5447,10 @@
         <v>61</v>
       </c>
       <c r="Q31" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="R31" s="49" t="s">
         <v>61</v>
-      </c>
-      <c r="R31" s="49" t="s">
-        <v>60</v>
       </c>
       <c r="S31" s="50" t="s">
         <v>100</v>
@@ -5582,10 +5582,10 @@
         <v>61</v>
       </c>
       <c r="Q34" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="R34" s="49" t="s">
         <v>61</v>
-      </c>
-      <c r="R34" s="49" t="s">
-        <v>60</v>
       </c>
       <c r="S34" s="50" t="s">
         <v>100</v>

--- a/GATEWAY/A1#111#PIAFONDAZIONEPANICOXX/AZ-PANICO/FSE-PANICO/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#PIAFONDAZIONEPANICOXX/AZ-PANICO/FSE-PANICO/1.0/report-checklist.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="517">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -269,6 +269,18 @@
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 </t>
+  </si>
+  <si>
+    <t>2025-11-06T12:23:36Z</t>
+  </si>
+  <si>
+    <t>f81f46a99ce6a9b67408fb50fc74b8e6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.5.160080.1eaf4260f8ca6ac99dfd1548387be4b3e118f70d652b93c4b20a1e7a002726c3.a787fdc547^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
   <si>
     <t>OK</t>
@@ -319,6 +331,24 @@
     </r>
   </si>
   <si>
+    <t>2025-11-06T12:11:43Z</t>
+  </si>
+  <si>
+    <t>5249f0b6b80c1333a53c8d2afbf5613b</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si è verificato un errore durante la comunicazione con FSE. Dettaglio Errore: "Campo token JWT non valido. - Il campo purpose_of_use non è valorizzato". Contattare il CED.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore segnalato all'utente.</t>
+  </si>
+  <si>
     <t>KO</t>
   </si>
   <si>
@@ -334,21 +364,6 @@
     <t>dd8affc82e434027cbf1204ca13a467a</t>
   </si>
   <si>
-    <t>UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si è verificato un errore durante la comunicazione con FSE. Dettaglio Errore: "Campo token JWT non valido. - Il campo purpose_of_use non è valorizzato". Contattare il CED.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Errore segnalato all'utente.</t>
-  </si>
-  <si>
     <t>PSS</t>
   </si>
   <si>
@@ -359,6 +374,12 @@
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
+  </si>
+  <si>
+    <t>2025-11-10T14:00:35Z</t>
+  </si>
+  <si>
+    <t>a706845d7523a262ebd54c3a085945f2</t>
   </si>
   <si>
     <t>RSA</t>
@@ -442,6 +463,12 @@
     </r>
   </si>
   <si>
+    <t>2025-11-06T12:14:02Z</t>
+  </si>
+  <si>
+    <t>2287df13b9c36c38779d1faef9f7b58b</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
   </si>
   <si>
@@ -458,6 +485,12 @@
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
+  </si>
+  <si>
+    <t>2025-11-10T13:51:17Z</t>
+  </si>
+  <si>
+    <t>adc7445c47c61f1fbf06547afa135913</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
@@ -491,13 +524,13 @@
 "ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE SERVIZIO DI VALIDAZIONE DEL GATEWAY A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
   </si>
   <si>
+    <t xml:space="preserve">Il servizio FSE non è attualmente disponibile, non è possibile validare e pubblicare il referto sul Fascicolo Elettronico del paziente al momento. Verrà tentato in automatico di pubblicarlo in un momento successivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene segnalato al medico che il servizio di FSE per validare il referto non è raggiungibile. Viene consentito di consegnare il referto al paziente. Un processo in background ritenterà l'invio in un momento successivo.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_LDO_TIMEOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il servizio FSE non è attualmente disponibile, non è possibile validare e pubblicare il referto sul Fascicolo Elettronico del paziente al momento. Verrà tentato in automatico di pubblicarlo in un momento successivo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene segnalato al medico che il servizio di FSE per validare il referto non è raggiungibile. Viene consentito di consegnare il referto al paziente. Un processo in background ritenterà l'invio in un momento successivo.</t>
   </si>
   <si>
     <t>VALIDAZIONE_PSS_TIMEOUT</t>
@@ -525,6 +558,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">L’applicativo effettua controlli preventivi sul dato inserito</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LAB_CT9_KO</t>
   </si>
   <si>
@@ -579,9 +615,6 @@
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’applicativo effettua controlli preventivi sul dato inserito</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT8_KO</t>
@@ -1309,6 +1342,15 @@
 </t>
   </si>
   <si>
+    <t>2025-11-06T13:18:42Z</t>
+  </si>
+  <si>
+    <t>e86e02efaee628a76caad91e35bccb5a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.5.160080.cc3eae2de3a4cf35c5b38f6b6860b24da3355a15bca31447f09dce4926e0bee1.146cd3068f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LAB_TRASF_CT2</t>
   </si>
   <si>
@@ -1317,6 +1359,12 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Altro (specificare)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipologia di esame non eseguita nel nostro istituto, pertanto referto mai prodotto</t>
+  </si>
+  <si>
     <t>RAP</t>
   </si>
   <si>
@@ -1325,6 +1373,15 @@
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2025-11-10T16:40:21Z</t>
+  </si>
+  <si>
+    <t>12a771ca9851709e2dc230d99ac1abb1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.5.160080.948150d21f1a67f9b278f035a4773a632eae4497bba666297b9a754e74350cd1.b34b116fac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAP_CT2</t>
@@ -1335,6 +1392,15 @@
 </t>
   </si>
   <si>
+    <t>2025-11-10T16:57:51Z</t>
+  </si>
+  <si>
+    <t>b7ed7544015d0e1ab590a5a4253d00de</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.5.160080.a1d63e30131cc5e417e4d2c75893508b4a5f7b2cab26547f9aeab6fc587a07a5.66e41d313e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RAP_CT3</t>
   </si>
   <si>
@@ -1343,10 +1409,31 @@
 </t>
   </si>
   <si>
+    <t>2025-11-10T18:03:05Z</t>
+  </si>
+  <si>
+    <t>efccb79268ca3fffe9f7d2d5db99a48f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.5.160080.45230b63a6d7a873327bc4b6ba1e82dead4b956a881f01defa21bca86dad4087.2c0ebe63a3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_TOKEN_JWT_RAP_KO</t>
   </si>
   <si>
+    <t>2025-11-10T18:26:01Z</t>
+  </si>
+  <si>
+    <t>c59cd07b1f6b00f7271faf2bf793edb8</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAP_KO</t>
+  </si>
+  <si>
+    <t>2025-11-10T18:24:55Z</t>
+  </si>
+  <si>
+    <t>fbf4f787414648a843fbd037ea94cbeb</t>
   </si>
   <si>
     <t>VALIDAZIONE_RAP_TIMEOUT</t>
@@ -1514,6 +1601,15 @@
 </t>
   </si>
   <si>
+    <t>2025-11-06T12:57:20Z</t>
+  </si>
+  <si>
+    <t>13ba1e6162f7d4f8e713f2589be186b7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.5.160080.857566ddcd900d9f9ec048a7c624e57f045d1e0277b2f56197868d135c4fc3bb.43a8baa538^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT30</t>
   </si>
   <si>
@@ -1581,6 +1677,15 @@
 Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>2025-11-10T18:23:09Z</t>
+  </si>
+  <si>
+    <t>075dedf1dd26731fbd0f33c0c0c133d1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.5.160080.44dfa896eeca92795eb6a4ce6424ac3d3bbac7e95dd64f8cce9d23f704f6e980.cafc4795a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT26_KO</t>
   </si>
   <si>
@@ -1658,6 +1763,15 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>2025-11-06T13:59:54Z</t>
+  </si>
+  <si>
+    <t>862a89996aab0ce718567f7447669053</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.5.160080.cc3eae2de3a4cf35c5b38f6b6860b24da3355a15bca31447f09dce4926e0bee1.27f3ddbe1d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT26</t>
   </si>
   <si>
@@ -1665,6 +1779,15 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>2025-11-06T14:16:08Z</t>
+  </si>
+  <si>
+    <t>1c83339bf2310f691aa7c4701cecda73</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.5.160080.cc3eae2de3a4cf35c5b38f6b6860b24da3355a15bca31447f09dce4926e0bee1.c503125bf3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LAB_CT19_KO</t>
   </si>
   <si>
@@ -1699,9 +1822,6 @@
   </si>
   <si>
     <t xml:space="preserve">Campo valorizzabile tramite selezione da un set di valori ammessi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altro (specificare)</t>
   </si>
   <si>
     <t xml:space="preserve">TIPO DOCUMENTO</t>
@@ -1886,7 +2006,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -2190,6 +2310,19 @@
       <diagonal style="none"/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -2219,12 +2352,38 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="none"/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -2261,7 +2420,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2367,46 +2526,55 @@
     <xf fontId="2" fillId="0" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="22" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="2" fillId="0" borderId="23" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="3" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="24" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="22" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="25" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="24" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="25" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="26" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="27" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="29" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="27" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="30" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="7" fillId="3" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="3" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="3" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="8" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2415,17 +2583,17 @@
     <xf fontId="9" fillId="0" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
@@ -4460,7 +4628,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" ht="11" hidden="1" customHeight="1">
+    <row r="10" ht="128.25">
       <c r="A10" s="33">
         <v>4</v>
       </c>
@@ -4476,11 +4644,21 @@
       <c r="E10" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
+      <c r="F10" s="37">
+        <v>45967</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
@@ -4494,10 +4672,10 @@
       <c r="U10" s="40"/>
       <c r="V10" s="41"/>
       <c r="W10" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" ht="11" hidden="1" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" ht="11" customHeight="1">
       <c r="A11" s="35">
         <v>28</v>
       </c>
@@ -4508,33 +4686,57 @@
         <v>48</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="39"/>
+        <v>57</v>
+      </c>
+      <c r="F11" s="43">
+        <v>45967</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
+      <c r="M11" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="S11" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="T11" s="39"/>
       <c r="U11" s="40"/>
       <c r="V11" s="41"/>
       <c r="W11" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" ht="40.5" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" hidden="1" customHeight="1">
       <c r="A12" s="35">
         <v>29</v>
       </c>
@@ -4542,33 +4744,33 @@
         <v>47</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="44">
+        <v>57</v>
+      </c>
+      <c r="F12" s="43">
         <v>45918</v>
       </c>
-      <c r="G12" s="45" t="s">
-        <v>57</v>
+      <c r="G12" s="46" t="s">
+        <v>67</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>60</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
       <c r="M12" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N12" s="39" t="s">
         <v>61</v>
@@ -4577,7 +4779,7 @@
         <v>62</v>
       </c>
       <c r="P12" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="39" t="s">
         <v>61</v>
@@ -4592,7 +4794,7 @@
       <c r="U12" s="40"/>
       <c r="V12" s="41"/>
       <c r="W12" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" ht="11" hidden="1" customHeight="1">
@@ -4603,18 +4805,18 @@
         <v>47</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="46"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="38"/>
-      <c r="I13" s="43"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
       <c r="L13" s="39"/>
@@ -4629,10 +4831,10 @@
       <c r="U13" s="40"/>
       <c r="V13" s="41"/>
       <c r="W13" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" ht="11" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" ht="11" customHeight="1">
       <c r="A14" s="35">
         <v>31</v>
       </c>
@@ -4640,19 +4842,29 @@
         <v>47</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="39"/>
+        <v>57</v>
+      </c>
+      <c r="F14" s="38">
+        <v>45971</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="K14" s="39"/>
       <c r="L14" s="39"/>
       <c r="M14" s="39"/>
@@ -4666,10 +4878,10 @@
       <c r="U14" s="40"/>
       <c r="V14" s="41"/>
       <c r="W14" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" ht="74.25" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" ht="74.25" hidden="1" customHeight="1">
       <c r="A15" s="35">
         <v>32</v>
       </c>
@@ -4677,33 +4889,33 @@
         <v>47</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="44">
+        <v>57</v>
+      </c>
+      <c r="F15" s="43">
         <v>45918</v>
       </c>
-      <c r="G15" s="47" t="s">
-        <v>70</v>
+      <c r="G15" s="48" t="s">
+        <v>77</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>59</v>
+        <v>78</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>60</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K15" s="39"/>
       <c r="L15" s="39"/>
       <c r="M15" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N15" s="39" t="s">
         <v>61</v>
@@ -4712,7 +4924,7 @@
         <v>62</v>
       </c>
       <c r="P15" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="39" t="s">
         <v>61</v>
@@ -4727,7 +4939,7 @@
       <c r="U15" s="40"/>
       <c r="V15" s="41"/>
       <c r="W15" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" ht="39" hidden="1" customHeight="1">
@@ -4738,18 +4950,18 @@
         <v>47</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F16" s="38"/>
-      <c r="G16" s="46"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="43"/>
+      <c r="I16" s="45"/>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
       <c r="L16" s="39"/>
@@ -4764,7 +4976,7 @@
       <c r="U16" s="40"/>
       <c r="V16" s="41"/>
       <c r="W16" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" ht="39" hidden="1" customHeight="1">
@@ -4775,18 +4987,18 @@
         <v>47</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
-      <c r="I17" s="43"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="39"/>
       <c r="K17" s="39"/>
       <c r="L17" s="39"/>
@@ -4801,10 +5013,10 @@
       <c r="U17" s="40"/>
       <c r="V17" s="41"/>
       <c r="W17" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" ht="39" hidden="1" customHeight="1">
       <c r="A18" s="35">
         <v>35</v>
       </c>
@@ -4812,33 +5024,33 @@
         <v>47</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="44">
+        <v>57</v>
+      </c>
+      <c r="F18" s="43">
         <v>45918</v>
       </c>
-      <c r="G18" s="45" t="s">
-        <v>78</v>
+      <c r="G18" s="49" t="s">
+        <v>85</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>59</v>
+        <v>86</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>60</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K18" s="39"/>
       <c r="L18" s="39"/>
       <c r="M18" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N18" s="39" t="s">
         <v>61</v>
@@ -4847,7 +5059,7 @@
         <v>62</v>
       </c>
       <c r="P18" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Q18" s="39" t="s">
         <v>61</v>
@@ -4862,10 +5074,10 @@
       <c r="U18" s="40"/>
       <c r="V18" s="41"/>
       <c r="W18" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" ht="39" customHeight="1">
       <c r="A19" s="35">
         <v>36</v>
       </c>
@@ -4876,33 +5088,57 @@
         <v>48</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="39"/>
+        <v>88</v>
+      </c>
+      <c r="F19" s="43">
+        <v>45967</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="K19" s="39"/>
       <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
+      <c r="M19" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="R19" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="S19" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="T19" s="39"/>
       <c r="U19" s="40"/>
       <c r="V19" s="41"/>
       <c r="W19" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" ht="39" hidden="1" customHeight="1">
       <c r="A20" s="35">
         <v>37</v>
       </c>
@@ -4910,42 +5146,42 @@
         <v>47</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="44">
+        <v>88</v>
+      </c>
+      <c r="F20" s="43">
         <v>45918</v>
       </c>
-      <c r="G20" s="45" t="s">
-        <v>83</v>
+      <c r="G20" s="46" t="s">
+        <v>92</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>59</v>
+        <v>93</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>60</v>
       </c>
       <c r="J20" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
       <c r="M20" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N20" s="39" t="s">
         <v>61</v>
       </c>
       <c r="O20" s="39" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="P20" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="39" t="s">
         <v>61</v>
@@ -4960,7 +5196,7 @@
       <c r="U20" s="40"/>
       <c r="V20" s="41"/>
       <c r="W20" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" ht="88.5" hidden="1" customHeight="1">
@@ -4971,18 +5207,18 @@
         <v>47</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F21" s="38"/>
-      <c r="G21" s="46"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="38"/>
-      <c r="I21" s="43"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="39"/>
       <c r="K21" s="39"/>
       <c r="L21" s="39"/>
@@ -4997,10 +5233,10 @@
       <c r="U21" s="40"/>
       <c r="V21" s="41"/>
       <c r="W21" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" ht="35.25" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" ht="35.25" customHeight="1">
       <c r="A22" s="35">
         <v>39</v>
       </c>
@@ -5008,19 +5244,29 @@
         <v>47</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="39"/>
+        <v>88</v>
+      </c>
+      <c r="F22" s="38">
+        <v>45971</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="K22" s="39"/>
       <c r="L22" s="39"/>
       <c r="M22" s="39"/>
@@ -5034,10 +5280,10 @@
       <c r="U22" s="40"/>
       <c r="V22" s="41"/>
       <c r="W22" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" ht="39" hidden="1" customHeight="1">
       <c r="A23" s="35">
         <v>40</v>
       </c>
@@ -5045,42 +5291,42 @@
         <v>47</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D23" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="44">
+      <c r="F23" s="43">
         <v>45918</v>
       </c>
-      <c r="G23" s="45" t="s">
-        <v>89</v>
+      <c r="G23" s="44" t="s">
+        <v>100</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23" s="43" t="s">
-        <v>59</v>
+        <v>101</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>60</v>
       </c>
       <c r="J23" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
       <c r="M23" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N23" s="39" t="s">
         <v>61</v>
       </c>
       <c r="O23" s="39" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="P23" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Q23" s="39" t="s">
         <v>61</v>
@@ -5095,7 +5341,7 @@
       <c r="U23" s="40"/>
       <c r="V23" s="41"/>
       <c r="W23" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" ht="39" hidden="1" customHeight="1">
@@ -5106,18 +5352,18 @@
         <v>47</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F24" s="38"/>
-      <c r="G24" s="46"/>
+      <c r="G24" s="47"/>
       <c r="H24" s="38"/>
-      <c r="I24" s="43"/>
+      <c r="I24" s="45"/>
       <c r="J24" s="39"/>
       <c r="K24" s="39"/>
       <c r="L24" s="39"/>
@@ -5132,7 +5378,7 @@
       <c r="U24" s="40"/>
       <c r="V24" s="41"/>
       <c r="W24" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" ht="39" hidden="1" customHeight="1">
@@ -5143,18 +5389,18 @@
         <v>47</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
-      <c r="I25" s="43"/>
+      <c r="I25" s="45"/>
       <c r="J25" s="39"/>
       <c r="K25" s="39"/>
       <c r="L25" s="39"/>
@@ -5169,10 +5415,10 @@
       <c r="U25" s="40"/>
       <c r="V25" s="41"/>
       <c r="W25" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" ht="39" hidden="1" customHeight="1">
       <c r="A26" s="35">
         <v>43</v>
       </c>
@@ -5180,42 +5426,42 @@
         <v>47</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="44">
+        <v>88</v>
+      </c>
+      <c r="F26" s="43">
         <v>45918</v>
       </c>
-      <c r="G26" s="45" t="s">
-        <v>94</v>
+      <c r="G26" s="44" t="s">
+        <v>105</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="I26" s="43" t="s">
-        <v>59</v>
+        <v>106</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>60</v>
       </c>
       <c r="J26" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K26" s="39"/>
       <c r="L26" s="39"/>
       <c r="M26" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N26" s="39" t="s">
         <v>61</v>
       </c>
       <c r="O26" s="39" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="P26" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="39" t="s">
         <v>61</v>
@@ -5230,10 +5476,10 @@
       <c r="U26" s="40"/>
       <c r="V26" s="41"/>
       <c r="W26" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" ht="39" customHeight="1">
       <c r="A27" s="35">
         <v>44</v>
       </c>
@@ -5244,35 +5490,53 @@
         <v>48</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="46"/>
+        <v>108</v>
+      </c>
+      <c r="F27" s="38">
+        <v>45967</v>
+      </c>
+      <c r="G27" s="47"/>
       <c r="H27" s="38"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="39"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="N27" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="O27" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="P27" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="R27" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="S27" s="52" t="s">
+        <v>110</v>
+      </c>
       <c r="T27" s="39"/>
       <c r="U27" s="40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V27" s="41"/>
       <c r="W27" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" s="0" customFormat="1" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" s="0" customFormat="1" ht="39" hidden="1" customHeight="1">
       <c r="A28" s="35">
         <v>45</v>
       </c>
@@ -5280,53 +5544,53 @@
         <v>47</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F28" s="38">
         <v>45915</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
-      <c r="I28" s="43"/>
+      <c r="I28" s="45"/>
       <c r="J28" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K28" s="39"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="N28" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="O28" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="P28" s="49" t="s">
+      <c r="L28" s="50"/>
+      <c r="M28" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="N28" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="O28" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="P28" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="Q28" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="R28" s="49" t="s">
+      <c r="Q28" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="R28" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="S28" s="50" t="s">
-        <v>100</v>
+      <c r="S28" s="54" t="s">
+        <v>110</v>
       </c>
       <c r="T28" s="39"/>
       <c r="U28" s="40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V28" s="41"/>
       <c r="W28" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" ht="39" hidden="1" customHeight="1">
@@ -5337,38 +5601,38 @@
         <v>47</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
-      <c r="I29" s="43"/>
+      <c r="I29" s="45"/>
       <c r="J29" s="39"/>
       <c r="K29" s="39"/>
       <c r="L29" s="39"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
       <c r="T29" s="39"/>
       <c r="U29" s="40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V29" s="41"/>
       <c r="W29" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" ht="39" customHeight="1">
       <c r="A30" s="35">
         <v>47</v>
       </c>
@@ -5376,38 +5640,56 @@
         <v>47</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="38"/>
+        <v>108</v>
+      </c>
+      <c r="F30" s="38">
+        <v>45971</v>
+      </c>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="39"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="N30" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="O30" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="P30" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q30" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="R30" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="S30" s="52" t="s">
+        <v>110</v>
+      </c>
       <c r="T30" s="39"/>
       <c r="U30" s="40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V30" s="41"/>
       <c r="W30" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" s="0" customFormat="1" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" s="0" customFormat="1" ht="39" hidden="1" customHeight="1">
       <c r="A31" s="35">
         <v>48</v>
       </c>
@@ -5415,53 +5697,53 @@
         <v>47</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F31" s="38">
         <v>45915</v>
       </c>
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
-      <c r="I31" s="43"/>
+      <c r="I31" s="45"/>
       <c r="J31" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K31" s="39"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="N31" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="O31" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="P31" s="49" t="s">
+      <c r="L31" s="50"/>
+      <c r="M31" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="N31" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="O31" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="P31" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="Q31" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="R31" s="49" t="s">
+      <c r="Q31" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="R31" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="S31" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="T31" s="53"/>
+      <c r="S31" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="T31" s="56"/>
       <c r="U31" s="40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V31" s="41"/>
       <c r="W31" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" ht="39" hidden="1" customHeight="1">
@@ -5472,35 +5754,35 @@
         <v>47</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
-      <c r="I32" s="43"/>
+      <c r="I32" s="45"/>
       <c r="J32" s="39"/>
       <c r="K32" s="39"/>
       <c r="L32" s="39"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
       <c r="T32" s="39"/>
       <c r="U32" s="40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V32" s="41"/>
       <c r="W32" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" ht="39" hidden="1" customHeight="1">
@@ -5511,18 +5793,18 @@
         <v>47</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
-      <c r="I33" s="43"/>
+      <c r="I33" s="45"/>
       <c r="J33" s="39"/>
       <c r="K33" s="39"/>
       <c r="L33" s="39"/>
@@ -5535,14 +5817,14 @@
       <c r="S33" s="39"/>
       <c r="T33" s="39"/>
       <c r="U33" s="40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V33" s="41"/>
       <c r="W33" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" s="0" customFormat="1" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" s="0" customFormat="1" ht="39" hidden="1" customHeight="1">
       <c r="A34" s="35">
         <v>51</v>
       </c>
@@ -5550,56 +5832,56 @@
         <v>47</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F34" s="38">
         <v>45915</v>
       </c>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
-      <c r="I34" s="43"/>
+      <c r="I34" s="45"/>
       <c r="J34" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K34" s="39"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="N34" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="O34" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="P34" s="49" t="s">
+      <c r="L34" s="50"/>
+      <c r="M34" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="N34" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="O34" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="P34" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="Q34" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="R34" s="49" t="s">
+      <c r="Q34" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="R34" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="S34" s="50" t="s">
-        <v>100</v>
+      <c r="S34" s="52" t="s">
+        <v>110</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V34" s="41"/>
       <c r="W34" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" ht="39" customHeight="1">
       <c r="A35" s="35">
         <v>53</v>
       </c>
@@ -5610,33 +5892,37 @@
         <v>48</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K35" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L35" s="39"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
       <c r="T35" s="39"/>
       <c r="U35" s="40"/>
       <c r="V35" s="41"/>
       <c r="W35" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" ht="39" customHeight="1">
       <c r="A36" s="35">
         <v>55</v>
       </c>
@@ -5647,17 +5933,21 @@
         <v>48</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K36" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L36" s="39"/>
       <c r="M36" s="39"/>
       <c r="N36" s="39"/>
@@ -5670,10 +5960,10 @@
       <c r="U36" s="40"/>
       <c r="V36" s="41"/>
       <c r="W36" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" ht="39" customHeight="1">
       <c r="A37" s="35">
         <v>56</v>
       </c>
@@ -5684,17 +5974,21 @@
         <v>48</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K37" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L37" s="39"/>
       <c r="M37" s="39"/>
       <c r="N37" s="39"/>
@@ -5707,10 +6001,10 @@
       <c r="U37" s="40"/>
       <c r="V37" s="41"/>
       <c r="W37" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" ht="39" customHeight="1">
       <c r="A38" s="35">
         <v>57</v>
       </c>
@@ -5721,17 +6015,21 @@
         <v>48</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L38" s="39"/>
       <c r="M38" s="39"/>
       <c r="N38" s="39"/>
@@ -5744,10 +6042,10 @@
       <c r="U38" s="40"/>
       <c r="V38" s="41"/>
       <c r="W38" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" ht="39" customHeight="1">
       <c r="A39" s="35">
         <v>59</v>
       </c>
@@ -5758,17 +6056,21 @@
         <v>48</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K39" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L39" s="39"/>
       <c r="M39" s="39"/>
       <c r="N39" s="39"/>
@@ -5781,10 +6083,10 @@
       <c r="U39" s="40"/>
       <c r="V39" s="41"/>
       <c r="W39" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" ht="39" customHeight="1">
       <c r="A40" s="35">
         <v>60</v>
       </c>
@@ -5795,17 +6097,21 @@
         <v>48</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K40" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L40" s="39"/>
       <c r="M40" s="39"/>
       <c r="N40" s="39"/>
@@ -5818,10 +6124,10 @@
       <c r="U40" s="40"/>
       <c r="V40" s="41"/>
       <c r="W40" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" ht="39" customHeight="1">
       <c r="A41" s="35">
         <v>61</v>
       </c>
@@ -5832,17 +6138,21 @@
         <v>48</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
       <c r="H41" s="38"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K41" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L41" s="39"/>
       <c r="M41" s="39"/>
       <c r="N41" s="39"/>
@@ -5855,10 +6165,10 @@
       <c r="U41" s="40"/>
       <c r="V41" s="41"/>
       <c r="W41" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" ht="39" customHeight="1">
       <c r="A42" s="35">
         <v>62</v>
       </c>
@@ -5869,17 +6179,21 @@
         <v>48</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F42" s="38"/>
       <c r="G42" s="38"/>
       <c r="H42" s="38"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K42" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L42" s="39"/>
       <c r="M42" s="39"/>
       <c r="N42" s="39"/>
@@ -5892,10 +6206,10 @@
       <c r="U42" s="40"/>
       <c r="V42" s="41"/>
       <c r="W42" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" ht="39" hidden="1" customHeight="1">
       <c r="A43" s="35">
         <v>64</v>
       </c>
@@ -5903,23 +6217,23 @@
         <v>47</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
       <c r="H43" s="38"/>
-      <c r="I43" s="43"/>
+      <c r="I43" s="45"/>
       <c r="J43" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K43" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L43" s="39"/>
       <c r="M43" s="39"/>
@@ -5933,10 +6247,10 @@
       <c r="U43" s="40"/>
       <c r="V43" s="41"/>
       <c r="W43" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" ht="39" hidden="1" customHeight="1">
       <c r="A44" s="35">
         <v>66</v>
       </c>
@@ -5944,23 +6258,23 @@
         <v>47</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
       <c r="H44" s="38"/>
-      <c r="I44" s="43"/>
+      <c r="I44" s="45"/>
       <c r="J44" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K44" s="39" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L44" s="39"/>
       <c r="M44" s="39"/>
@@ -5974,10 +6288,10 @@
       <c r="U44" s="40"/>
       <c r="V44" s="41"/>
       <c r="W44" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" ht="39" hidden="1" customHeight="1">
       <c r="A45" s="35">
         <v>67</v>
       </c>
@@ -5985,23 +6299,23 @@
         <v>47</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
-      <c r="I45" s="43"/>
+      <c r="I45" s="45"/>
       <c r="J45" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K45" s="39" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L45" s="39"/>
       <c r="M45" s="39"/>
@@ -6015,10 +6329,10 @@
       <c r="U45" s="40"/>
       <c r="V45" s="41"/>
       <c r="W45" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" ht="39" hidden="1" customHeight="1">
       <c r="A46" s="35">
         <v>68</v>
       </c>
@@ -6026,23 +6340,23 @@
         <v>47</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
-      <c r="I46" s="43"/>
+      <c r="I46" s="45"/>
       <c r="J46" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K46" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L46" s="39"/>
       <c r="M46" s="39"/>
@@ -6056,10 +6370,10 @@
       <c r="U46" s="40"/>
       <c r="V46" s="41"/>
       <c r="W46" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" ht="39" hidden="1" customHeight="1">
       <c r="A47" s="35">
         <v>69</v>
       </c>
@@ -6067,23 +6381,23 @@
         <v>47</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
       <c r="H47" s="38"/>
-      <c r="I47" s="43"/>
+      <c r="I47" s="45"/>
       <c r="J47" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K47" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L47" s="39"/>
       <c r="M47" s="39"/>
@@ -6097,10 +6411,10 @@
       <c r="U47" s="40"/>
       <c r="V47" s="41"/>
       <c r="W47" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" ht="39" hidden="1" customHeight="1">
       <c r="A48" s="35">
         <v>70</v>
       </c>
@@ -6108,23 +6422,23 @@
         <v>47</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E48" s="36" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
       <c r="H48" s="38"/>
-      <c r="I48" s="43"/>
+      <c r="I48" s="45"/>
       <c r="J48" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K48" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L48" s="39"/>
       <c r="M48" s="39"/>
@@ -6138,10 +6452,10 @@
       <c r="U48" s="40"/>
       <c r="V48" s="41"/>
       <c r="W48" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" ht="39" hidden="1" customHeight="1">
       <c r="A49" s="35">
         <v>71</v>
       </c>
@@ -6149,23 +6463,23 @@
         <v>47</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E49" s="36" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
       <c r="H49" s="38"/>
-      <c r="I49" s="43"/>
+      <c r="I49" s="45"/>
       <c r="J49" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K49" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L49" s="39"/>
       <c r="M49" s="39"/>
@@ -6179,10 +6493,10 @@
       <c r="U49" s="40"/>
       <c r="V49" s="41"/>
       <c r="W49" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" ht="39" hidden="1" customHeight="1">
       <c r="A50" s="35">
         <v>72</v>
       </c>
@@ -6190,23 +6504,23 @@
         <v>47</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
       <c r="H50" s="38"/>
-      <c r="I50" s="43"/>
+      <c r="I50" s="45"/>
       <c r="J50" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K50" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L50" s="39"/>
       <c r="M50" s="39"/>
@@ -6220,10 +6534,10 @@
       <c r="U50" s="40"/>
       <c r="V50" s="41"/>
       <c r="W50" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" ht="39" hidden="1" customHeight="1">
       <c r="A51" s="35">
         <v>73</v>
       </c>
@@ -6231,23 +6545,23 @@
         <v>47</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
-      <c r="I51" s="43"/>
+      <c r="I51" s="45"/>
       <c r="J51" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K51" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L51" s="39"/>
       <c r="M51" s="39"/>
@@ -6261,10 +6575,10 @@
       <c r="U51" s="40"/>
       <c r="V51" s="41"/>
       <c r="W51" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" ht="39" hidden="1" customHeight="1">
       <c r="A52" s="35">
         <v>74</v>
       </c>
@@ -6272,23 +6586,23 @@
         <v>47</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
-      <c r="I52" s="43"/>
+      <c r="I52" s="45"/>
       <c r="J52" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K52" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L52" s="39"/>
       <c r="M52" s="39"/>
@@ -6302,10 +6616,10 @@
       <c r="U52" s="40"/>
       <c r="V52" s="41"/>
       <c r="W52" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" ht="39" customHeight="1">
       <c r="A53" s="35">
         <v>76</v>
       </c>
@@ -6313,23 +6627,23 @@
         <v>47</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
       <c r="H53" s="38"/>
-      <c r="I53" s="43"/>
+      <c r="I53" s="45"/>
       <c r="J53" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K53" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L53" s="39"/>
       <c r="M53" s="39"/>
@@ -6343,10 +6657,10 @@
       <c r="U53" s="40"/>
       <c r="V53" s="41"/>
       <c r="W53" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" ht="39" customHeight="1">
       <c r="A54" s="35">
         <v>78</v>
       </c>
@@ -6354,20 +6668,24 @@
         <v>47</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E54" s="36" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K54" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L54" s="39"/>
       <c r="M54" s="39"/>
       <c r="N54" s="39"/>
@@ -6380,10 +6698,10 @@
       <c r="U54" s="40"/>
       <c r="V54" s="41"/>
       <c r="W54" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" ht="39" customHeight="1">
       <c r="A55" s="35">
         <v>79</v>
       </c>
@@ -6391,20 +6709,24 @@
         <v>47</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="E55" s="36" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K55" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L55" s="39"/>
       <c r="M55" s="39"/>
       <c r="N55" s="39"/>
@@ -6417,10 +6739,10 @@
       <c r="U55" s="40"/>
       <c r="V55" s="41"/>
       <c r="W55" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" ht="39" customHeight="1">
       <c r="A56" s="35">
         <v>80</v>
       </c>
@@ -6428,20 +6750,24 @@
         <v>47</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E56" s="36" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
       <c r="H56" s="38"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K56" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L56" s="39"/>
       <c r="M56" s="39"/>
       <c r="N56" s="39"/>
@@ -6454,10 +6780,10 @@
       <c r="U56" s="40"/>
       <c r="V56" s="41"/>
       <c r="W56" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" ht="39" customHeight="1">
       <c r="A57" s="35">
         <v>81</v>
       </c>
@@ -6465,20 +6791,24 @@
         <v>47</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E57" s="36" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
       <c r="H57" s="38"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K57" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L57" s="39"/>
       <c r="M57" s="39"/>
       <c r="N57" s="39"/>
@@ -6491,10 +6821,10 @@
       <c r="U57" s="40"/>
       <c r="V57" s="41"/>
       <c r="W57" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" ht="39" customHeight="1">
       <c r="A58" s="35">
         <v>83</v>
       </c>
@@ -6502,20 +6832,24 @@
         <v>47</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E58" s="36" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F58" s="38"/>
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K58" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L58" s="39"/>
       <c r="M58" s="39"/>
       <c r="N58" s="39"/>
@@ -6528,10 +6862,10 @@
       <c r="U58" s="40"/>
       <c r="V58" s="41"/>
       <c r="W58" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" ht="39" customHeight="1">
       <c r="A59" s="35">
         <v>84</v>
       </c>
@@ -6539,20 +6873,24 @@
         <v>47</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E59" s="36" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
       <c r="H59" s="38"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K59" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L59" s="39"/>
       <c r="M59" s="39"/>
       <c r="N59" s="39"/>
@@ -6565,10 +6903,10 @@
       <c r="U59" s="40"/>
       <c r="V59" s="41"/>
       <c r="W59" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" ht="39" customHeight="1">
       <c r="A60" s="35">
         <v>85</v>
       </c>
@@ -6576,20 +6914,24 @@
         <v>47</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E60" s="36" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="F60" s="38"/>
       <c r="G60" s="38"/>
       <c r="H60" s="38"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K60" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L60" s="39"/>
       <c r="M60" s="39"/>
       <c r="N60" s="39"/>
@@ -6602,10 +6944,10 @@
       <c r="U60" s="40"/>
       <c r="V60" s="41"/>
       <c r="W60" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="61" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" ht="39" customHeight="1">
       <c r="A61" s="35">
         <v>86</v>
       </c>
@@ -6613,20 +6955,24 @@
         <v>47</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E61" s="36" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
       <c r="H61" s="38"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K61" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L61" s="39"/>
       <c r="M61" s="39"/>
       <c r="N61" s="39"/>
@@ -6639,10 +6985,10 @@
       <c r="U61" s="40"/>
       <c r="V61" s="41"/>
       <c r="W61" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" ht="39" customHeight="1">
       <c r="A62" s="35">
         <v>87</v>
       </c>
@@ -6650,20 +6996,24 @@
         <v>47</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E62" s="36" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="F62" s="38"/>
       <c r="G62" s="38"/>
       <c r="H62" s="38"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K62" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L62" s="39"/>
       <c r="M62" s="39"/>
       <c r="N62" s="39"/>
@@ -6676,10 +7026,10 @@
       <c r="U62" s="40"/>
       <c r="V62" s="41"/>
       <c r="W62" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" ht="39" customHeight="1">
       <c r="A63" s="35">
         <v>88</v>
       </c>
@@ -6687,20 +7037,24 @@
         <v>47</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E63" s="36" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
       <c r="H63" s="38"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="39"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K63" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L63" s="39"/>
       <c r="M63" s="39"/>
       <c r="N63" s="39"/>
@@ -6713,10 +7067,10 @@
       <c r="U63" s="40"/>
       <c r="V63" s="41"/>
       <c r="W63" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="64" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" ht="39" customHeight="1">
       <c r="A64" s="35">
         <v>89</v>
       </c>
@@ -6724,20 +7078,24 @@
         <v>47</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E64" s="36" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="38"/>
       <c r="H64" s="38"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K64" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L64" s="39"/>
       <c r="M64" s="39"/>
       <c r="N64" s="39"/>
@@ -6750,10 +7108,10 @@
       <c r="U64" s="40"/>
       <c r="V64" s="41"/>
       <c r="W64" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" ht="39" customHeight="1">
       <c r="A65" s="35">
         <v>90</v>
       </c>
@@ -6761,20 +7119,24 @@
         <v>47</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="F65" s="38"/>
       <c r="G65" s="38"/>
       <c r="H65" s="38"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="39"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K65" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L65" s="39"/>
       <c r="M65" s="39"/>
       <c r="N65" s="39"/>
@@ -6787,10 +7149,10 @@
       <c r="U65" s="40"/>
       <c r="V65" s="41"/>
       <c r="W65" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" ht="39" customHeight="1">
       <c r="A66" s="35">
         <v>91</v>
       </c>
@@ -6798,20 +7160,24 @@
         <v>47</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E66" s="36" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="F66" s="38"/>
       <c r="G66" s="38"/>
       <c r="H66" s="38"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K66" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L66" s="39"/>
       <c r="M66" s="39"/>
       <c r="N66" s="39"/>
@@ -6824,10 +7190,10 @@
       <c r="U66" s="40"/>
       <c r="V66" s="41"/>
       <c r="W66" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" ht="39" customHeight="1">
       <c r="A67" s="35">
         <v>92</v>
       </c>
@@ -6835,20 +7201,24 @@
         <v>47</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E67" s="36" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F67" s="38"/>
       <c r="G67" s="38"/>
       <c r="H67" s="38"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K67" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L67" s="39"/>
       <c r="M67" s="39"/>
       <c r="N67" s="39"/>
@@ -6861,10 +7231,10 @@
       <c r="U67" s="40"/>
       <c r="V67" s="41"/>
       <c r="W67" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" ht="39" customHeight="1">
       <c r="A68" s="35">
         <v>93</v>
       </c>
@@ -6872,20 +7242,24 @@
         <v>47</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="F68" s="38"/>
       <c r="G68" s="38"/>
       <c r="H68" s="38"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K68" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L68" s="39"/>
       <c r="M68" s="39"/>
       <c r="N68" s="39"/>
@@ -6898,7 +7272,7 @@
       <c r="U68" s="40"/>
       <c r="V68" s="41"/>
       <c r="W68" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" ht="39" hidden="1" customHeight="1">
@@ -6909,18 +7283,18 @@
         <v>47</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E69" s="36" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
       <c r="H69" s="38"/>
-      <c r="I69" s="43"/>
+      <c r="I69" s="45"/>
       <c r="J69" s="39"/>
       <c r="K69" s="39"/>
       <c r="L69" s="39"/>
@@ -6935,7 +7309,7 @@
       <c r="U69" s="40"/>
       <c r="V69" s="41"/>
       <c r="W69" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" ht="39" hidden="1" customHeight="1">
@@ -6946,18 +7320,18 @@
         <v>47</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="F70" s="38"/>
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
-      <c r="I70" s="43"/>
+      <c r="I70" s="45"/>
       <c r="J70" s="39"/>
       <c r="K70" s="39"/>
       <c r="L70" s="39"/>
@@ -6972,7 +7346,7 @@
       <c r="U70" s="40"/>
       <c r="V70" s="41"/>
       <c r="W70" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" ht="39" hidden="1" customHeight="1">
@@ -6983,18 +7357,18 @@
         <v>47</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
       <c r="H71" s="38"/>
-      <c r="I71" s="43"/>
+      <c r="I71" s="45"/>
       <c r="J71" s="39"/>
       <c r="K71" s="39"/>
       <c r="L71" s="39"/>
@@ -7009,7 +7383,7 @@
       <c r="U71" s="40"/>
       <c r="V71" s="41"/>
       <c r="W71" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" ht="39" hidden="1" customHeight="1">
@@ -7020,18 +7394,18 @@
         <v>47</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="E72" s="36" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
       <c r="H72" s="38"/>
-      <c r="I72" s="43"/>
+      <c r="I72" s="45"/>
       <c r="J72" s="39"/>
       <c r="K72" s="39"/>
       <c r="L72" s="39"/>
@@ -7046,7 +7420,7 @@
       <c r="U72" s="40"/>
       <c r="V72" s="41"/>
       <c r="W72" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" ht="39" hidden="1" customHeight="1">
@@ -7057,18 +7431,18 @@
         <v>47</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E73" s="36" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
       <c r="H73" s="38"/>
-      <c r="I73" s="43"/>
+      <c r="I73" s="45"/>
       <c r="J73" s="39"/>
       <c r="K73" s="39"/>
       <c r="L73" s="39"/>
@@ -7083,7 +7457,7 @@
       <c r="U73" s="40"/>
       <c r="V73" s="41"/>
       <c r="W73" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" ht="39" hidden="1" customHeight="1">
@@ -7094,18 +7468,18 @@
         <v>47</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="E74" s="36" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
       <c r="H74" s="38"/>
-      <c r="I74" s="43"/>
+      <c r="I74" s="45"/>
       <c r="J74" s="39"/>
       <c r="K74" s="39"/>
       <c r="L74" s="39"/>
@@ -7120,7 +7494,7 @@
       <c r="U74" s="40"/>
       <c r="V74" s="41"/>
       <c r="W74" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" ht="39" hidden="1" customHeight="1">
@@ -7131,18 +7505,18 @@
         <v>47</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E75" s="36" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F75" s="38"/>
       <c r="G75" s="38"/>
       <c r="H75" s="38"/>
-      <c r="I75" s="43"/>
+      <c r="I75" s="45"/>
       <c r="J75" s="39"/>
       <c r="K75" s="39"/>
       <c r="L75" s="39"/>
@@ -7157,7 +7531,7 @@
       <c r="U75" s="40"/>
       <c r="V75" s="41"/>
       <c r="W75" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" ht="39" hidden="1" customHeight="1">
@@ -7168,18 +7542,18 @@
         <v>47</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="E76" s="36" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
       <c r="H76" s="38"/>
-      <c r="I76" s="43"/>
+      <c r="I76" s="45"/>
       <c r="J76" s="39"/>
       <c r="K76" s="39"/>
       <c r="L76" s="39"/>
@@ -7194,7 +7568,7 @@
       <c r="U76" s="40"/>
       <c r="V76" s="41"/>
       <c r="W76" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" ht="39" hidden="1" customHeight="1">
@@ -7205,18 +7579,18 @@
         <v>47</v>
       </c>
       <c r="C77" s="42" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="E77" s="36" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F77" s="38"/>
       <c r="G77" s="38"/>
       <c r="H77" s="38"/>
-      <c r="I77" s="43"/>
+      <c r="I77" s="45"/>
       <c r="J77" s="39"/>
       <c r="K77" s="39"/>
       <c r="L77" s="39"/>
@@ -7231,7 +7605,7 @@
       <c r="U77" s="40"/>
       <c r="V77" s="41"/>
       <c r="W77" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" ht="39" hidden="1" customHeight="1">
@@ -7242,18 +7616,18 @@
         <v>47</v>
       </c>
       <c r="C78" s="42" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E78" s="36" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
       <c r="H78" s="38"/>
-      <c r="I78" s="43"/>
+      <c r="I78" s="45"/>
       <c r="J78" s="39"/>
       <c r="K78" s="39"/>
       <c r="L78" s="39"/>
@@ -7268,7 +7642,7 @@
       <c r="U78" s="40"/>
       <c r="V78" s="41"/>
       <c r="W78" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" ht="39" hidden="1" customHeight="1">
@@ -7279,18 +7653,18 @@
         <v>47</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E79" s="36" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="F79" s="38"/>
       <c r="G79" s="38"/>
       <c r="H79" s="38"/>
-      <c r="I79" s="43"/>
+      <c r="I79" s="45"/>
       <c r="J79" s="39"/>
       <c r="K79" s="39"/>
       <c r="L79" s="39"/>
@@ -7305,7 +7679,7 @@
       <c r="U79" s="40"/>
       <c r="V79" s="41"/>
       <c r="W79" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" ht="39" hidden="1" customHeight="1">
@@ -7316,18 +7690,18 @@
         <v>47</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E80" s="36" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
       <c r="H80" s="38"/>
-      <c r="I80" s="43"/>
+      <c r="I80" s="45"/>
       <c r="J80" s="39"/>
       <c r="K80" s="39"/>
       <c r="L80" s="39"/>
@@ -7342,7 +7716,7 @@
       <c r="U80" s="40"/>
       <c r="V80" s="41"/>
       <c r="W80" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" ht="39" hidden="1" customHeight="1">
@@ -7353,18 +7727,18 @@
         <v>47</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E81" s="36" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
       <c r="H81" s="38"/>
-      <c r="I81" s="43"/>
+      <c r="I81" s="45"/>
       <c r="J81" s="39"/>
       <c r="K81" s="39"/>
       <c r="L81" s="39"/>
@@ -7379,7 +7753,7 @@
       <c r="U81" s="40"/>
       <c r="V81" s="41"/>
       <c r="W81" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" ht="39" hidden="1" customHeight="1">
@@ -7390,18 +7764,18 @@
         <v>47</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E82" s="36" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
       <c r="H82" s="38"/>
-      <c r="I82" s="43"/>
+      <c r="I82" s="45"/>
       <c r="J82" s="39"/>
       <c r="K82" s="39"/>
       <c r="L82" s="39"/>
@@ -7416,7 +7790,7 @@
       <c r="U82" s="40"/>
       <c r="V82" s="41"/>
       <c r="W82" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" ht="39" hidden="1" customHeight="1">
@@ -7427,18 +7801,18 @@
         <v>47</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E83" s="36" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F83" s="38"/>
       <c r="G83" s="38"/>
       <c r="H83" s="38"/>
-      <c r="I83" s="43"/>
+      <c r="I83" s="45"/>
       <c r="J83" s="39"/>
       <c r="K83" s="39"/>
       <c r="L83" s="39"/>
@@ -7453,7 +7827,7 @@
       <c r="U83" s="40"/>
       <c r="V83" s="41"/>
       <c r="W83" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" ht="39" hidden="1" customHeight="1">
@@ -7464,18 +7838,18 @@
         <v>47</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E84" s="36" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
       <c r="H84" s="38"/>
-      <c r="I84" s="43"/>
+      <c r="I84" s="45"/>
       <c r="J84" s="39"/>
       <c r="K84" s="39"/>
       <c r="L84" s="39"/>
@@ -7490,7 +7864,7 @@
       <c r="U84" s="40"/>
       <c r="V84" s="41"/>
       <c r="W84" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" ht="39" hidden="1" customHeight="1">
@@ -7501,18 +7875,18 @@
         <v>47</v>
       </c>
       <c r="C85" s="42" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E85" s="36" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
       <c r="H85" s="38"/>
-      <c r="I85" s="43"/>
+      <c r="I85" s="45"/>
       <c r="J85" s="39"/>
       <c r="K85" s="39"/>
       <c r="L85" s="39"/>
@@ -7527,7 +7901,7 @@
       <c r="U85" s="40"/>
       <c r="V85" s="41"/>
       <c r="W85" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" ht="39" hidden="1" customHeight="1">
@@ -7538,18 +7912,18 @@
         <v>47</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="E86" s="36" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
       <c r="H86" s="38"/>
-      <c r="I86" s="43"/>
+      <c r="I86" s="45"/>
       <c r="J86" s="39"/>
       <c r="K86" s="39"/>
       <c r="L86" s="39"/>
@@ -7564,7 +7938,7 @@
       <c r="U86" s="40"/>
       <c r="V86" s="41"/>
       <c r="W86" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" ht="39" hidden="1" customHeight="1">
@@ -7575,18 +7949,18 @@
         <v>47</v>
       </c>
       <c r="C87" s="42" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E87" s="36" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
       <c r="H87" s="38"/>
-      <c r="I87" s="43"/>
+      <c r="I87" s="45"/>
       <c r="J87" s="39"/>
       <c r="K87" s="39"/>
       <c r="L87" s="39"/>
@@ -7601,7 +7975,7 @@
       <c r="U87" s="40"/>
       <c r="V87" s="41"/>
       <c r="W87" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" ht="39" hidden="1" customHeight="1">
@@ -7612,18 +7986,18 @@
         <v>47</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E88" s="36" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
       <c r="H88" s="38"/>
-      <c r="I88" s="43"/>
+      <c r="I88" s="45"/>
       <c r="J88" s="39"/>
       <c r="K88" s="39"/>
       <c r="L88" s="39"/>
@@ -7638,7 +8012,7 @@
       <c r="U88" s="40"/>
       <c r="V88" s="41"/>
       <c r="W88" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" ht="39" hidden="1" customHeight="1">
@@ -7649,18 +8023,18 @@
         <v>47</v>
       </c>
       <c r="C89" s="42" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E89" s="36" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="F89" s="38"/>
       <c r="G89" s="38"/>
       <c r="H89" s="38"/>
-      <c r="I89" s="43"/>
+      <c r="I89" s="45"/>
       <c r="J89" s="39"/>
       <c r="K89" s="39"/>
       <c r="L89" s="39"/>
@@ -7675,7 +8049,7 @@
       <c r="U89" s="40"/>
       <c r="V89" s="41"/>
       <c r="W89" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" ht="39" hidden="1" customHeight="1">
@@ -7686,18 +8060,18 @@
         <v>47</v>
       </c>
       <c r="C90" s="42" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="E90" s="36" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
       <c r="H90" s="38"/>
-      <c r="I90" s="43"/>
+      <c r="I90" s="45"/>
       <c r="J90" s="39"/>
       <c r="K90" s="39"/>
       <c r="L90" s="39"/>
@@ -7712,7 +8086,7 @@
       <c r="U90" s="40"/>
       <c r="V90" s="41"/>
       <c r="W90" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" ht="39" hidden="1" customHeight="1">
@@ -7723,18 +8097,18 @@
         <v>47</v>
       </c>
       <c r="C91" s="42" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E91" s="36" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F91" s="38"/>
       <c r="G91" s="38"/>
       <c r="H91" s="38"/>
-      <c r="I91" s="43"/>
+      <c r="I91" s="45"/>
       <c r="J91" s="39"/>
       <c r="K91" s="39"/>
       <c r="L91" s="39"/>
@@ -7749,7 +8123,7 @@
       <c r="U91" s="40"/>
       <c r="V91" s="41"/>
       <c r="W91" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" ht="39" hidden="1" customHeight="1">
@@ -7760,18 +8134,18 @@
         <v>47</v>
       </c>
       <c r="C92" s="42" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E92" s="36" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
       <c r="H92" s="38"/>
-      <c r="I92" s="43"/>
+      <c r="I92" s="45"/>
       <c r="J92" s="39"/>
       <c r="K92" s="39"/>
       <c r="L92" s="39"/>
@@ -7786,10 +8160,10 @@
       <c r="U92" s="40"/>
       <c r="V92" s="41"/>
       <c r="W92" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="93" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" ht="39" hidden="1" customHeight="1">
       <c r="A93" s="35">
         <v>123</v>
       </c>
@@ -7797,23 +8171,23 @@
         <v>47</v>
       </c>
       <c r="C93" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E93" s="36" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="38"/>
       <c r="H93" s="38"/>
-      <c r="I93" s="43"/>
+      <c r="I93" s="45"/>
       <c r="J93" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K93" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L93" s="39"/>
       <c r="M93" s="39"/>
@@ -7827,10 +8201,10 @@
       <c r="U93" s="40"/>
       <c r="V93" s="41"/>
       <c r="W93" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="94" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" ht="39" hidden="1" customHeight="1">
       <c r="A94" s="35">
         <v>125</v>
       </c>
@@ -7838,23 +8212,23 @@
         <v>47</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E94" s="36" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
       <c r="H94" s="38"/>
-      <c r="I94" s="43"/>
+      <c r="I94" s="45"/>
       <c r="J94" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K94" s="39" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L94" s="39"/>
       <c r="M94" s="39"/>
@@ -7868,10 +8242,10 @@
       <c r="U94" s="40"/>
       <c r="V94" s="41"/>
       <c r="W94" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="95" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" ht="39" hidden="1" customHeight="1">
       <c r="A95" s="35">
         <v>126</v>
       </c>
@@ -7879,23 +8253,23 @@
         <v>47</v>
       </c>
       <c r="C95" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="E95" s="36" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="F95" s="38"/>
       <c r="G95" s="38"/>
       <c r="H95" s="38"/>
-      <c r="I95" s="43"/>
+      <c r="I95" s="45"/>
       <c r="J95" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K95" s="39" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L95" s="39"/>
       <c r="M95" s="39"/>
@@ -7909,10 +8283,10 @@
       <c r="U95" s="40"/>
       <c r="V95" s="41"/>
       <c r="W95" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="96" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" ht="39" hidden="1" customHeight="1">
       <c r="A96" s="35">
         <v>127</v>
       </c>
@@ -7920,23 +8294,23 @@
         <v>47</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E96" s="36" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
       <c r="H96" s="38"/>
-      <c r="I96" s="43"/>
+      <c r="I96" s="45"/>
       <c r="J96" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K96" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L96" s="39"/>
       <c r="M96" s="39"/>
@@ -7950,10 +8324,10 @@
       <c r="U96" s="40"/>
       <c r="V96" s="41"/>
       <c r="W96" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="97" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" ht="39" hidden="1" customHeight="1">
       <c r="A97" s="35">
         <v>128</v>
       </c>
@@ -7961,23 +8335,23 @@
         <v>47</v>
       </c>
       <c r="C97" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E97" s="36" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
       <c r="H97" s="38"/>
-      <c r="I97" s="43"/>
+      <c r="I97" s="45"/>
       <c r="J97" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K97" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L97" s="39"/>
       <c r="M97" s="39"/>
@@ -7991,10 +8365,10 @@
       <c r="U97" s="40"/>
       <c r="V97" s="41"/>
       <c r="W97" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="98" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" ht="39" hidden="1" customHeight="1">
       <c r="A98" s="35">
         <v>129</v>
       </c>
@@ -8002,23 +8376,23 @@
         <v>47</v>
       </c>
       <c r="C98" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E98" s="36" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
       <c r="H98" s="38"/>
-      <c r="I98" s="43"/>
+      <c r="I98" s="45"/>
       <c r="J98" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K98" s="39" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L98" s="39"/>
       <c r="M98" s="39"/>
@@ -8032,10 +8406,10 @@
       <c r="U98" s="40"/>
       <c r="V98" s="41"/>
       <c r="W98" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="99" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" ht="39" hidden="1" customHeight="1">
       <c r="A99" s="35">
         <v>130</v>
       </c>
@@ -8043,23 +8417,23 @@
         <v>47</v>
       </c>
       <c r="C99" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="E99" s="36" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
       <c r="H99" s="38"/>
-      <c r="I99" s="43"/>
+      <c r="I99" s="45"/>
       <c r="J99" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K99" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L99" s="39"/>
       <c r="M99" s="39"/>
@@ -8073,10 +8447,10 @@
       <c r="U99" s="40"/>
       <c r="V99" s="41"/>
       <c r="W99" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="100" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100" ht="39" hidden="1" customHeight="1">
       <c r="A100" s="35">
         <v>131</v>
       </c>
@@ -8084,23 +8458,23 @@
         <v>47</v>
       </c>
       <c r="C100" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="E100" s="36" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
       <c r="H100" s="38"/>
-      <c r="I100" s="43"/>
+      <c r="I100" s="45"/>
       <c r="J100" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K100" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L100" s="39"/>
       <c r="M100" s="39"/>
@@ -8114,10 +8488,10 @@
       <c r="U100" s="40"/>
       <c r="V100" s="41"/>
       <c r="W100" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="101" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" ht="39" hidden="1" customHeight="1">
       <c r="A101" s="35">
         <v>132</v>
       </c>
@@ -8125,23 +8499,23 @@
         <v>47</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="E101" s="36" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="F101" s="38"/>
       <c r="G101" s="38"/>
       <c r="H101" s="38"/>
-      <c r="I101" s="43"/>
+      <c r="I101" s="45"/>
       <c r="J101" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K101" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L101" s="39"/>
       <c r="M101" s="39"/>
@@ -8155,10 +8529,10 @@
       <c r="U101" s="40"/>
       <c r="V101" s="41"/>
       <c r="W101" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="102" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" ht="39" hidden="1" customHeight="1">
       <c r="A102" s="35">
         <v>133</v>
       </c>
@@ -8166,23 +8540,23 @@
         <v>47</v>
       </c>
       <c r="C102" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="E102" s="36" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
       <c r="H102" s="38"/>
-      <c r="I102" s="43"/>
+      <c r="I102" s="45"/>
       <c r="J102" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K102" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L102" s="39"/>
       <c r="M102" s="39"/>
@@ -8196,10 +8570,10 @@
       <c r="U102" s="40"/>
       <c r="V102" s="41"/>
       <c r="W102" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="103" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" ht="39" hidden="1" customHeight="1">
       <c r="A103" s="35">
         <v>134</v>
       </c>
@@ -8207,23 +8581,23 @@
         <v>47</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D103" s="35" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E103" s="36" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="F103" s="38"/>
       <c r="G103" s="38"/>
       <c r="H103" s="38"/>
-      <c r="I103" s="43"/>
+      <c r="I103" s="45"/>
       <c r="J103" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K103" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L103" s="39"/>
       <c r="M103" s="39"/>
@@ -8237,10 +8611,10 @@
       <c r="U103" s="40"/>
       <c r="V103" s="41"/>
       <c r="W103" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="104" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" ht="39" hidden="1" customHeight="1">
       <c r="A104" s="35">
         <v>135</v>
       </c>
@@ -8248,23 +8622,23 @@
         <v>47</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="E104" s="36" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
       <c r="H104" s="38"/>
-      <c r="I104" s="43"/>
+      <c r="I104" s="45"/>
       <c r="J104" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K104" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L104" s="39"/>
       <c r="M104" s="39"/>
@@ -8278,10 +8652,10 @@
       <c r="U104" s="40"/>
       <c r="V104" s="41"/>
       <c r="W104" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="105" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" ht="39" hidden="1" customHeight="1">
       <c r="A105" s="35">
         <v>136</v>
       </c>
@@ -8289,23 +8663,23 @@
         <v>47</v>
       </c>
       <c r="C105" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="E105" s="36" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
       <c r="H105" s="38"/>
-      <c r="I105" s="43"/>
+      <c r="I105" s="45"/>
       <c r="J105" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K105" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L105" s="39"/>
       <c r="M105" s="39"/>
@@ -8319,10 +8693,10 @@
       <c r="U105" s="40"/>
       <c r="V105" s="41"/>
       <c r="W105" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="106" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" ht="39" hidden="1" customHeight="1">
       <c r="A106" s="35">
         <v>137</v>
       </c>
@@ -8330,23 +8704,23 @@
         <v>47</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="E106" s="36" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
       <c r="H106" s="38"/>
-      <c r="I106" s="43"/>
+      <c r="I106" s="45"/>
       <c r="J106" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K106" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L106" s="39"/>
       <c r="M106" s="39"/>
@@ -8360,10 +8734,10 @@
       <c r="U106" s="40"/>
       <c r="V106" s="41"/>
       <c r="W106" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="107" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" ht="39" hidden="1" customHeight="1">
       <c r="A107" s="35">
         <v>138</v>
       </c>
@@ -8371,23 +8745,23 @@
         <v>47</v>
       </c>
       <c r="C107" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D107" s="35" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="E107" s="36" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
       <c r="H107" s="38"/>
-      <c r="I107" s="43"/>
+      <c r="I107" s="45"/>
       <c r="J107" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K107" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L107" s="39"/>
       <c r="M107" s="39"/>
@@ -8401,10 +8775,10 @@
       <c r="U107" s="40"/>
       <c r="V107" s="41"/>
       <c r="W107" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="108" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" ht="39" hidden="1" customHeight="1">
       <c r="A108" s="35">
         <v>139</v>
       </c>
@@ -8412,23 +8786,23 @@
         <v>47</v>
       </c>
       <c r="C108" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D108" s="35" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="E108" s="36" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
       <c r="H108" s="38"/>
-      <c r="I108" s="43"/>
+      <c r="I108" s="45"/>
       <c r="J108" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K108" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L108" s="39"/>
       <c r="M108" s="39"/>
@@ -8442,10 +8816,10 @@
       <c r="U108" s="40"/>
       <c r="V108" s="41"/>
       <c r="W108" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="109" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" ht="39" hidden="1" customHeight="1">
       <c r="A109" s="35">
         <v>140</v>
       </c>
@@ -8453,23 +8827,23 @@
         <v>47</v>
       </c>
       <c r="C109" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D109" s="35" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="E109" s="36" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
       <c r="H109" s="38"/>
-      <c r="I109" s="43"/>
+      <c r="I109" s="45"/>
       <c r="J109" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K109" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L109" s="39"/>
       <c r="M109" s="39"/>
@@ -8483,10 +8857,10 @@
       <c r="U109" s="40"/>
       <c r="V109" s="41"/>
       <c r="W109" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="110" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" ht="39" hidden="1" customHeight="1">
       <c r="A110" s="35">
         <v>141</v>
       </c>
@@ -8494,23 +8868,23 @@
         <v>47</v>
       </c>
       <c r="C110" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D110" s="35" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E110" s="36" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
       <c r="H110" s="38"/>
-      <c r="I110" s="43"/>
+      <c r="I110" s="45"/>
       <c r="J110" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K110" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L110" s="39"/>
       <c r="M110" s="39"/>
@@ -8524,10 +8898,10 @@
       <c r="U110" s="40"/>
       <c r="V110" s="41"/>
       <c r="W110" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="111" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111" ht="39" hidden="1" customHeight="1">
       <c r="A111" s="35">
         <v>142</v>
       </c>
@@ -8535,23 +8909,23 @@
         <v>47</v>
       </c>
       <c r="C111" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="E111" s="36" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
       <c r="H111" s="38"/>
-      <c r="I111" s="43"/>
+      <c r="I111" s="45"/>
       <c r="J111" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K111" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L111" s="39"/>
       <c r="M111" s="39"/>
@@ -8565,10 +8939,10 @@
       <c r="U111" s="40"/>
       <c r="V111" s="41"/>
       <c r="W111" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="112" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" ht="39" hidden="1" customHeight="1">
       <c r="A112" s="35">
         <v>143</v>
       </c>
@@ -8576,23 +8950,23 @@
         <v>47</v>
       </c>
       <c r="C112" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="E112" s="36" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
       <c r="H112" s="38"/>
-      <c r="I112" s="43"/>
+      <c r="I112" s="45"/>
       <c r="J112" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K112" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L112" s="39"/>
       <c r="M112" s="39"/>
@@ -8606,10 +8980,10 @@
       <c r="U112" s="40"/>
       <c r="V112" s="41"/>
       <c r="W112" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="113" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" ht="39" hidden="1" customHeight="1">
       <c r="A113" s="35">
         <v>144</v>
       </c>
@@ -8617,23 +8991,23 @@
         <v>47</v>
       </c>
       <c r="C113" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="E113" s="36" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
       <c r="H113" s="38"/>
-      <c r="I113" s="43"/>
+      <c r="I113" s="45"/>
       <c r="J113" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K113" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L113" s="39"/>
       <c r="M113" s="39"/>
@@ -8647,10 +9021,10 @@
       <c r="U113" s="40"/>
       <c r="V113" s="41"/>
       <c r="W113" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="114" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="114" ht="39" hidden="1" customHeight="1">
       <c r="A114" s="35">
         <v>145</v>
       </c>
@@ -8658,23 +9032,23 @@
         <v>47</v>
       </c>
       <c r="C114" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="E114" s="36" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
       <c r="H114" s="38"/>
-      <c r="I114" s="43"/>
+      <c r="I114" s="45"/>
       <c r="J114" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K114" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L114" s="39"/>
       <c r="M114" s="39"/>
@@ -8688,10 +9062,10 @@
       <c r="U114" s="40"/>
       <c r="V114" s="41"/>
       <c r="W114" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="115" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" ht="39" hidden="1" customHeight="1">
       <c r="A115" s="35">
         <v>146</v>
       </c>
@@ -8699,23 +9073,23 @@
         <v>47</v>
       </c>
       <c r="C115" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="E115" s="36" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="F115" s="38"/>
       <c r="G115" s="38"/>
       <c r="H115" s="38"/>
-      <c r="I115" s="43"/>
+      <c r="I115" s="45"/>
       <c r="J115" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K115" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L115" s="39"/>
       <c r="M115" s="39"/>
@@ -8729,10 +9103,10 @@
       <c r="U115" s="40"/>
       <c r="V115" s="41"/>
       <c r="W115" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="116" ht="78" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" ht="78" hidden="1" customHeight="1">
       <c r="A116" s="35">
         <v>152</v>
       </c>
@@ -8740,23 +9114,23 @@
         <v>47</v>
       </c>
       <c r="C116" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="E116" s="36" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
       <c r="H116" s="38"/>
-      <c r="I116" s="43"/>
+      <c r="I116" s="45"/>
       <c r="J116" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K116" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L116" s="39"/>
       <c r="M116" s="39"/>
@@ -8770,10 +9144,10 @@
       <c r="U116" s="40"/>
       <c r="V116" s="41"/>
       <c r="W116" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="117" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" ht="39" hidden="1" customHeight="1">
       <c r="A117" s="35">
         <v>154</v>
       </c>
@@ -8781,23 +9155,23 @@
         <v>47</v>
       </c>
       <c r="C117" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E117" s="36" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F117" s="38"/>
       <c r="G117" s="38"/>
       <c r="H117" s="38"/>
-      <c r="I117" s="43"/>
+      <c r="I117" s="45"/>
       <c r="J117" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K117" s="39" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L117" s="39"/>
       <c r="M117" s="39"/>
@@ -8811,10 +9185,10 @@
       <c r="U117" s="40"/>
       <c r="V117" s="41"/>
       <c r="W117" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="118" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="118" ht="39" hidden="1" customHeight="1">
       <c r="A118" s="35">
         <v>155</v>
       </c>
@@ -8822,23 +9196,23 @@
         <v>47</v>
       </c>
       <c r="C118" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="E118" s="36" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="F118" s="38"/>
       <c r="G118" s="38"/>
       <c r="H118" s="38"/>
-      <c r="I118" s="43"/>
+      <c r="I118" s="45"/>
       <c r="J118" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K118" s="39" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L118" s="39"/>
       <c r="M118" s="39"/>
@@ -8852,10 +9226,10 @@
       <c r="U118" s="40"/>
       <c r="V118" s="41"/>
       <c r="W118" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="119" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" ht="39" hidden="1" customHeight="1">
       <c r="A119" s="35">
         <v>156</v>
       </c>
@@ -8863,23 +9237,23 @@
         <v>47</v>
       </c>
       <c r="C119" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E119" s="36" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="F119" s="38"/>
       <c r="G119" s="38"/>
       <c r="H119" s="38"/>
-      <c r="I119" s="43"/>
+      <c r="I119" s="45"/>
       <c r="J119" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K119" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L119" s="39"/>
       <c r="M119" s="39"/>
@@ -8893,10 +9267,10 @@
       <c r="U119" s="40"/>
       <c r="V119" s="41"/>
       <c r="W119" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="120" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120" ht="39" hidden="1" customHeight="1">
       <c r="A120" s="35">
         <v>159</v>
       </c>
@@ -8904,23 +9278,23 @@
         <v>47</v>
       </c>
       <c r="C120" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="E120" s="36" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="F120" s="38"/>
       <c r="G120" s="38"/>
       <c r="H120" s="38"/>
-      <c r="I120" s="43"/>
+      <c r="I120" s="45"/>
       <c r="J120" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K120" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L120" s="39"/>
       <c r="M120" s="39"/>
@@ -8934,10 +9308,10 @@
       <c r="U120" s="40"/>
       <c r="V120" s="41"/>
       <c r="W120" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="121" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="121" ht="39" hidden="1" customHeight="1">
       <c r="A121" s="35">
         <v>160</v>
       </c>
@@ -8945,23 +9319,23 @@
         <v>47</v>
       </c>
       <c r="C121" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="E121" s="36" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="F121" s="38"/>
       <c r="G121" s="38"/>
       <c r="H121" s="38"/>
-      <c r="I121" s="43"/>
+      <c r="I121" s="45"/>
       <c r="J121" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K121" s="39" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L121" s="39"/>
       <c r="M121" s="39"/>
@@ -8975,10 +9349,10 @@
       <c r="U121" s="40"/>
       <c r="V121" s="41"/>
       <c r="W121" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="122" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="122" ht="39" hidden="1" customHeight="1">
       <c r="A122" s="35">
         <v>161</v>
       </c>
@@ -8986,23 +9360,23 @@
         <v>47</v>
       </c>
       <c r="C122" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="E122" s="36" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="F122" s="38"/>
       <c r="G122" s="38"/>
       <c r="H122" s="38"/>
-      <c r="I122" s="43"/>
+      <c r="I122" s="45"/>
       <c r="J122" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K122" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L122" s="39"/>
       <c r="M122" s="39"/>
@@ -9016,10 +9390,10 @@
       <c r="U122" s="40"/>
       <c r="V122" s="41"/>
       <c r="W122" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="123" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="123" ht="39" hidden="1" customHeight="1">
       <c r="A123" s="35">
         <v>162</v>
       </c>
@@ -9027,23 +9401,23 @@
         <v>47</v>
       </c>
       <c r="C123" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="E123" s="36" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
       <c r="H123" s="38"/>
-      <c r="I123" s="43"/>
+      <c r="I123" s="45"/>
       <c r="J123" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K123" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L123" s="39"/>
       <c r="M123" s="39"/>
@@ -9057,10 +9431,10 @@
       <c r="U123" s="40"/>
       <c r="V123" s="41"/>
       <c r="W123" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="124" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" ht="39" hidden="1" customHeight="1">
       <c r="A124" s="35">
         <v>163</v>
       </c>
@@ -9068,23 +9442,23 @@
         <v>47</v>
       </c>
       <c r="C124" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="E124" s="36" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F124" s="38"/>
       <c r="G124" s="38"/>
       <c r="H124" s="38"/>
-      <c r="I124" s="43"/>
+      <c r="I124" s="45"/>
       <c r="J124" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K124" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L124" s="39"/>
       <c r="M124" s="39"/>
@@ -9098,10 +9472,10 @@
       <c r="U124" s="40"/>
       <c r="V124" s="41"/>
       <c r="W124" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="125" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" ht="39" hidden="1" customHeight="1">
       <c r="A125" s="35">
         <v>164</v>
       </c>
@@ -9109,23 +9483,23 @@
         <v>47</v>
       </c>
       <c r="C125" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="E125" s="36" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="F125" s="38"/>
       <c r="G125" s="38"/>
       <c r="H125" s="38"/>
-      <c r="I125" s="43"/>
+      <c r="I125" s="45"/>
       <c r="J125" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K125" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L125" s="39"/>
       <c r="M125" s="39"/>
@@ -9139,10 +9513,10 @@
       <c r="U125" s="40"/>
       <c r="V125" s="41"/>
       <c r="W125" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="126" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" ht="39" hidden="1" customHeight="1">
       <c r="A126" s="35">
         <v>165</v>
       </c>
@@ -9150,23 +9524,23 @@
         <v>47</v>
       </c>
       <c r="C126" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="E126" s="36" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
       <c r="H126" s="38"/>
-      <c r="I126" s="43"/>
+      <c r="I126" s="45"/>
       <c r="J126" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K126" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L126" s="39"/>
       <c r="M126" s="39"/>
@@ -9180,10 +9554,10 @@
       <c r="U126" s="40"/>
       <c r="V126" s="41"/>
       <c r="W126" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="127" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" ht="39" hidden="1" customHeight="1">
       <c r="A127" s="35">
         <v>166</v>
       </c>
@@ -9191,23 +9565,23 @@
         <v>47</v>
       </c>
       <c r="C127" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="E127" s="36" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="F127" s="38"/>
       <c r="G127" s="38"/>
       <c r="H127" s="38"/>
-      <c r="I127" s="43"/>
+      <c r="I127" s="45"/>
       <c r="J127" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K127" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L127" s="39"/>
       <c r="M127" s="39"/>
@@ -9221,10 +9595,10 @@
       <c r="U127" s="40"/>
       <c r="V127" s="41"/>
       <c r="W127" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="128" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="128" ht="39" hidden="1" customHeight="1">
       <c r="A128" s="35">
         <v>167</v>
       </c>
@@ -9232,23 +9606,23 @@
         <v>47</v>
       </c>
       <c r="C128" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="E128" s="36" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="F128" s="38"/>
       <c r="G128" s="38"/>
       <c r="H128" s="38"/>
-      <c r="I128" s="43"/>
+      <c r="I128" s="45"/>
       <c r="J128" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K128" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L128" s="39"/>
       <c r="M128" s="39"/>
@@ -9262,10 +9636,10 @@
       <c r="U128" s="40"/>
       <c r="V128" s="41"/>
       <c r="W128" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="129" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" ht="39" hidden="1" customHeight="1">
       <c r="A129" s="35">
         <v>168</v>
       </c>
@@ -9273,23 +9647,23 @@
         <v>47</v>
       </c>
       <c r="C129" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="E129" s="36" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="F129" s="38"/>
       <c r="G129" s="38"/>
       <c r="H129" s="38"/>
-      <c r="I129" s="43"/>
+      <c r="I129" s="45"/>
       <c r="J129" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K129" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L129" s="39"/>
       <c r="M129" s="39"/>
@@ -9303,10 +9677,10 @@
       <c r="U129" s="40"/>
       <c r="V129" s="41"/>
       <c r="W129" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="130" ht="39" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="130" ht="39" hidden="1" customHeight="1">
       <c r="A130" s="35">
         <v>169</v>
       </c>
@@ -9314,23 +9688,23 @@
         <v>47</v>
       </c>
       <c r="C130" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="E130" s="36" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="F130" s="38"/>
       <c r="G130" s="38"/>
       <c r="H130" s="38"/>
-      <c r="I130" s="43"/>
+      <c r="I130" s="45"/>
       <c r="J130" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K130" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L130" s="39"/>
       <c r="M130" s="39"/>
@@ -9344,7 +9718,7 @@
       <c r="U130" s="40"/>
       <c r="V130" s="41"/>
       <c r="W130" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="131" ht="39" hidden="1" customHeight="1">
@@ -9355,18 +9729,18 @@
         <v>47</v>
       </c>
       <c r="C131" s="42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="E131" s="36" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="F131" s="38"/>
       <c r="G131" s="38"/>
       <c r="H131" s="38"/>
-      <c r="I131" s="43"/>
+      <c r="I131" s="45"/>
       <c r="J131" s="39"/>
       <c r="K131" s="39"/>
       <c r="L131" s="39"/>
@@ -9381,7 +9755,7 @@
       <c r="U131" s="40"/>
       <c r="V131" s="41"/>
       <c r="W131" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="132" ht="39" hidden="1" customHeight="1">
@@ -9392,18 +9766,18 @@
         <v>47</v>
       </c>
       <c r="C132" s="42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="E132" s="36" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="F132" s="38"/>
       <c r="G132" s="38"/>
       <c r="H132" s="38"/>
-      <c r="I132" s="43"/>
+      <c r="I132" s="45"/>
       <c r="J132" s="39"/>
       <c r="K132" s="39"/>
       <c r="L132" s="39"/>
@@ -9418,7 +9792,7 @@
       <c r="U132" s="40"/>
       <c r="V132" s="41"/>
       <c r="W132" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="133" ht="39" hidden="1" customHeight="1">
@@ -9429,18 +9803,18 @@
         <v>47</v>
       </c>
       <c r="C133" s="42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="E133" s="36" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="F133" s="38"/>
       <c r="G133" s="38"/>
       <c r="H133" s="38"/>
-      <c r="I133" s="43"/>
+      <c r="I133" s="45"/>
       <c r="J133" s="39"/>
       <c r="K133" s="39"/>
       <c r="L133" s="39"/>
@@ -9455,7 +9829,7 @@
       <c r="U133" s="40"/>
       <c r="V133" s="41"/>
       <c r="W133" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" ht="39" hidden="1" customHeight="1">
@@ -9466,18 +9840,18 @@
         <v>47</v>
       </c>
       <c r="C134" s="42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="E134" s="36" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="F134" s="38"/>
       <c r="G134" s="38"/>
       <c r="H134" s="38"/>
-      <c r="I134" s="43"/>
+      <c r="I134" s="45"/>
       <c r="J134" s="39"/>
       <c r="K134" s="39"/>
       <c r="L134" s="39"/>
@@ -9492,7 +9866,7 @@
       <c r="U134" s="40"/>
       <c r="V134" s="41"/>
       <c r="W134" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="135" ht="39" hidden="1" customHeight="1">
@@ -9503,18 +9877,18 @@
         <v>47</v>
       </c>
       <c r="C135" s="42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="E135" s="36" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="F135" s="38"/>
       <c r="G135" s="38"/>
       <c r="H135" s="38"/>
-      <c r="I135" s="43"/>
+      <c r="I135" s="45"/>
       <c r="J135" s="39"/>
       <c r="K135" s="39"/>
       <c r="L135" s="39"/>
@@ -9529,7 +9903,7 @@
       <c r="U135" s="40"/>
       <c r="V135" s="41"/>
       <c r="W135" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="136" ht="39" hidden="1" customHeight="1">
@@ -9540,18 +9914,18 @@
         <v>47</v>
       </c>
       <c r="C136" s="42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="E136" s="36" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="F136" s="38"/>
       <c r="G136" s="38"/>
       <c r="H136" s="38"/>
-      <c r="I136" s="43"/>
+      <c r="I136" s="45"/>
       <c r="J136" s="39"/>
       <c r="K136" s="39"/>
       <c r="L136" s="39"/>
@@ -9566,7 +9940,7 @@
       <c r="U136" s="40"/>
       <c r="V136" s="41"/>
       <c r="W136" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="137" ht="39" hidden="1" customHeight="1">
@@ -9577,18 +9951,18 @@
         <v>47</v>
       </c>
       <c r="C137" s="42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="E137" s="36" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="F137" s="38"/>
       <c r="G137" s="38"/>
       <c r="H137" s="38"/>
-      <c r="I137" s="43"/>
+      <c r="I137" s="45"/>
       <c r="J137" s="39"/>
       <c r="K137" s="39"/>
       <c r="L137" s="39"/>
@@ -9603,7 +9977,7 @@
       <c r="U137" s="40"/>
       <c r="V137" s="41"/>
       <c r="W137" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="138" ht="39" hidden="1" customHeight="1">
@@ -9614,18 +9988,18 @@
         <v>47</v>
       </c>
       <c r="C138" s="42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="E138" s="36" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="F138" s="38"/>
       <c r="G138" s="38"/>
       <c r="H138" s="38"/>
-      <c r="I138" s="43"/>
+      <c r="I138" s="45"/>
       <c r="J138" s="39"/>
       <c r="K138" s="39"/>
       <c r="L138" s="39"/>
@@ -9640,7 +10014,7 @@
       <c r="U138" s="40"/>
       <c r="V138" s="41"/>
       <c r="W138" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="139" ht="39" hidden="1" customHeight="1">
@@ -9651,18 +10025,18 @@
         <v>47</v>
       </c>
       <c r="C139" s="42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="E139" s="36" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="F139" s="38"/>
       <c r="G139" s="38"/>
       <c r="H139" s="38"/>
-      <c r="I139" s="43"/>
+      <c r="I139" s="45"/>
       <c r="J139" s="39"/>
       <c r="K139" s="39"/>
       <c r="L139" s="39"/>
@@ -9677,7 +10051,7 @@
       <c r="U139" s="40"/>
       <c r="V139" s="41"/>
       <c r="W139" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="140" ht="39" hidden="1" customHeight="1">
@@ -9688,18 +10062,18 @@
         <v>47</v>
       </c>
       <c r="C140" s="42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="E140" s="36" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="F140" s="38"/>
       <c r="G140" s="38"/>
       <c r="H140" s="38"/>
-      <c r="I140" s="43"/>
+      <c r="I140" s="45"/>
       <c r="J140" s="39"/>
       <c r="K140" s="39"/>
       <c r="L140" s="39"/>
@@ -9714,7 +10088,7 @@
       <c r="U140" s="40"/>
       <c r="V140" s="41"/>
       <c r="W140" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="141" ht="39" hidden="1" customHeight="1">
@@ -9725,18 +10099,18 @@
         <v>47</v>
       </c>
       <c r="C141" s="42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="E141" s="36" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="F141" s="38"/>
       <c r="G141" s="38"/>
       <c r="H141" s="38"/>
-      <c r="I141" s="43"/>
+      <c r="I141" s="45"/>
       <c r="J141" s="39"/>
       <c r="K141" s="39"/>
       <c r="L141" s="39"/>
@@ -9751,7 +10125,7 @@
       <c r="U141" s="40"/>
       <c r="V141" s="41"/>
       <c r="W141" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="142" ht="39" hidden="1" customHeight="1">
@@ -9762,18 +10136,18 @@
         <v>47</v>
       </c>
       <c r="C142" s="42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E142" s="36" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="F142" s="38"/>
       <c r="G142" s="38"/>
       <c r="H142" s="38"/>
-      <c r="I142" s="43"/>
+      <c r="I142" s="45"/>
       <c r="J142" s="39"/>
       <c r="K142" s="39"/>
       <c r="L142" s="39"/>
@@ -9788,7 +10162,7 @@
       <c r="U142" s="40"/>
       <c r="V142" s="41"/>
       <c r="W142" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="143" ht="39" hidden="1" customHeight="1">
@@ -9799,18 +10173,18 @@
         <v>47</v>
       </c>
       <c r="C143" s="42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="E143" s="36" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F143" s="38"/>
       <c r="G143" s="38"/>
       <c r="H143" s="38"/>
-      <c r="I143" s="43"/>
+      <c r="I143" s="45"/>
       <c r="J143" s="39"/>
       <c r="K143" s="39"/>
       <c r="L143" s="39"/>
@@ -9825,7 +10199,7 @@
       <c r="U143" s="40"/>
       <c r="V143" s="41"/>
       <c r="W143" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="144" ht="39" hidden="1" customHeight="1">
@@ -9836,18 +10210,18 @@
         <v>47</v>
       </c>
       <c r="C144" s="42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="E144" s="36" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="F144" s="38"/>
       <c r="G144" s="38"/>
       <c r="H144" s="38"/>
-      <c r="I144" s="43"/>
+      <c r="I144" s="45"/>
       <c r="J144" s="39"/>
       <c r="K144" s="39"/>
       <c r="L144" s="39"/>
@@ -9862,7 +10236,7 @@
       <c r="U144" s="40"/>
       <c r="V144" s="41"/>
       <c r="W144" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="145" ht="39" hidden="1" customHeight="1">
@@ -9873,18 +10247,18 @@
         <v>47</v>
       </c>
       <c r="C145" s="42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="E145" s="36" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="F145" s="38"/>
       <c r="G145" s="38"/>
       <c r="H145" s="38"/>
-      <c r="I145" s="43"/>
+      <c r="I145" s="45"/>
       <c r="J145" s="39"/>
       <c r="K145" s="39"/>
       <c r="L145" s="39"/>
@@ -9899,10 +10273,10 @@
       <c r="U145" s="40"/>
       <c r="V145" s="41"/>
       <c r="W145" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="146" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="146" ht="15">
       <c r="A146" s="35">
         <v>191</v>
       </c>
@@ -9913,16 +10287,26 @@
         <v>48</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="E146" s="36" t="s">
-        <v>332</v>
-      </c>
-      <c r="F146" s="38"/>
-      <c r="G146" s="38"/>
-      <c r="H146" s="38"/>
-      <c r="I146" s="43"/>
-      <c r="J146" s="39"/>
+        <v>343</v>
+      </c>
+      <c r="F146" s="38">
+        <v>45967</v>
+      </c>
+      <c r="G146" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="H146" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="I146" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="J146" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="K146" s="39"/>
       <c r="L146" s="39"/>
       <c r="M146" s="39"/>
@@ -9936,10 +10320,10 @@
       <c r="U146" s="40"/>
       <c r="V146" s="41"/>
       <c r="W146" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="147" ht="39" hidden="1" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="147" ht="39" customHeight="1">
       <c r="A147" s="35">
         <v>376</v>
       </c>
@@ -9950,18 +10334,24 @@
         <v>48</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="E147" s="36" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="F147" s="38"/>
       <c r="G147" s="38"/>
       <c r="H147" s="38"/>
-      <c r="I147" s="43"/>
-      <c r="J147" s="39"/>
-      <c r="K147" s="39"/>
-      <c r="L147" s="39"/>
+      <c r="I147" s="45"/>
+      <c r="J147" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K147" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="L147" s="39" t="s">
+        <v>350</v>
+      </c>
       <c r="M147" s="39"/>
       <c r="N147" s="39"/>
       <c r="O147" s="39"/>
@@ -9973,10 +10363,10 @@
       <c r="U147" s="40"/>
       <c r="V147" s="41"/>
       <c r="W147" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="148" ht="39" hidden="1" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" ht="39" customHeight="1">
       <c r="A148" s="35">
         <v>417</v>
       </c>
@@ -9984,19 +10374,29 @@
         <v>47</v>
       </c>
       <c r="C148" s="42" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="E148" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="F148" s="38"/>
-      <c r="G148" s="38"/>
-      <c r="H148" s="38"/>
-      <c r="I148" s="43"/>
-      <c r="J148" s="39"/>
+        <v>353</v>
+      </c>
+      <c r="F148" s="38">
+        <v>45971</v>
+      </c>
+      <c r="G148" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="H148" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="I148" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="J148" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="K148" s="39"/>
       <c r="L148" s="39"/>
       <c r="M148" s="39"/>
@@ -10010,10 +10410,10 @@
       <c r="U148" s="40"/>
       <c r="V148" s="41"/>
       <c r="W148" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="149" ht="39" hidden="1" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" ht="39" customHeight="1">
       <c r="A149" s="35">
         <v>418</v>
       </c>
@@ -10021,19 +10421,29 @@
         <v>47</v>
       </c>
       <c r="C149" s="42" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="E149" s="36" t="s">
-        <v>339</v>
-      </c>
-      <c r="F149" s="38"/>
-      <c r="G149" s="38"/>
-      <c r="H149" s="38"/>
-      <c r="I149" s="43"/>
-      <c r="J149" s="39"/>
+        <v>358</v>
+      </c>
+      <c r="F149" s="38">
+        <v>45971</v>
+      </c>
+      <c r="G149" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="H149" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="I149" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="J149" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="K149" s="39"/>
       <c r="L149" s="39"/>
       <c r="M149" s="39"/>
@@ -10047,10 +10457,10 @@
       <c r="U149" s="40"/>
       <c r="V149" s="41"/>
       <c r="W149" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="150" ht="39" hidden="1" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="150" ht="39" customHeight="1">
       <c r="A150" s="35">
         <v>419</v>
       </c>
@@ -10058,19 +10468,29 @@
         <v>47</v>
       </c>
       <c r="C150" s="42" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="E150" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="F150" s="38"/>
-      <c r="G150" s="38"/>
-      <c r="H150" s="38"/>
-      <c r="I150" s="43"/>
-      <c r="J150" s="39"/>
+        <v>363</v>
+      </c>
+      <c r="F150" s="38">
+        <v>45971</v>
+      </c>
+      <c r="G150" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="H150" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="I150" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="J150" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="K150" s="39"/>
       <c r="L150" s="39"/>
       <c r="M150" s="39"/>
@@ -10084,10 +10504,10 @@
       <c r="U150" s="40"/>
       <c r="V150" s="41"/>
       <c r="W150" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="151" ht="39" hidden="1" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" ht="39" customHeight="1">
       <c r="A151" s="35">
         <v>423</v>
       </c>
@@ -10095,19 +10515,29 @@
         <v>47</v>
       </c>
       <c r="C151" s="42" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="E151" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F151" s="38"/>
-      <c r="G151" s="38"/>
-      <c r="H151" s="38"/>
-      <c r="I151" s="43"/>
-      <c r="J151" s="39"/>
+        <v>57</v>
+      </c>
+      <c r="F151" s="38">
+        <v>45971</v>
+      </c>
+      <c r="G151" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="H151" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="I151" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="J151" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="K151" s="39"/>
       <c r="L151" s="39"/>
       <c r="M151" s="39"/>
@@ -10121,10 +10551,10 @@
       <c r="U151" s="40"/>
       <c r="V151" s="41"/>
       <c r="W151" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="152" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="152" ht="39" customHeight="1">
       <c r="A152" s="35">
         <v>424</v>
       </c>
@@ -10132,19 +10562,29 @@
         <v>47</v>
       </c>
       <c r="C152" s="42" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="E152" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="F152" s="38"/>
-      <c r="G152" s="38"/>
-      <c r="H152" s="38"/>
-      <c r="I152" s="43"/>
-      <c r="J152" s="39"/>
+        <v>88</v>
+      </c>
+      <c r="F152" s="38">
+        <v>45971</v>
+      </c>
+      <c r="G152" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="H152" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="I152" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="J152" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="K152" s="39"/>
       <c r="L152" s="39"/>
       <c r="M152" s="39"/>
@@ -10158,10 +10598,10 @@
       <c r="U152" s="40"/>
       <c r="V152" s="41"/>
       <c r="W152" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="153" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="153" ht="39" customHeight="1">
       <c r="A153" s="35">
         <v>425</v>
       </c>
@@ -10169,36 +10609,56 @@
         <v>47</v>
       </c>
       <c r="C153" s="42" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D153" s="35" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="E153" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="F153" s="38"/>
+        <v>374</v>
+      </c>
+      <c r="F153" s="38">
+        <v>45971</v>
+      </c>
       <c r="G153" s="38"/>
       <c r="H153" s="38"/>
-      <c r="I153" s="43"/>
-      <c r="J153" s="39"/>
+      <c r="I153" s="45"/>
+      <c r="J153" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="K153" s="39"/>
-      <c r="L153" s="39"/>
-      <c r="M153" s="39"/>
-      <c r="N153" s="39"/>
-      <c r="O153" s="39"/>
-      <c r="P153" s="39"/>
-      <c r="Q153" s="39"/>
-      <c r="R153" s="39"/>
-      <c r="S153" s="39"/>
+      <c r="L153" s="50"/>
+      <c r="M153" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="N153" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="O153" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="P153" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q153" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="R153" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="S153" s="52" t="s">
+        <v>110</v>
+      </c>
       <c r="T153" s="39"/>
-      <c r="U153" s="40"/>
+      <c r="U153" s="40" t="s">
+        <v>54</v>
+      </c>
       <c r="V153" s="41"/>
       <c r="W153" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="154" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="154" ht="39" customHeight="1">
       <c r="A154" s="35">
         <v>432</v>
       </c>
@@ -10206,36 +10666,40 @@
         <v>47</v>
       </c>
       <c r="C154" s="42" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="E154" s="36" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="F154" s="38"/>
       <c r="G154" s="38"/>
       <c r="H154" s="38"/>
-      <c r="I154" s="43"/>
-      <c r="J154" s="39"/>
-      <c r="K154" s="39"/>
+      <c r="I154" s="45"/>
+      <c r="J154" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K154" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L154" s="39"/>
-      <c r="M154" s="39"/>
-      <c r="N154" s="39"/>
-      <c r="O154" s="39"/>
-      <c r="P154" s="39"/>
-      <c r="Q154" s="39"/>
-      <c r="R154" s="39"/>
-      <c r="S154" s="39"/>
+      <c r="M154" s="55"/>
+      <c r="N154" s="55"/>
+      <c r="O154" s="55"/>
+      <c r="P154" s="55"/>
+      <c r="Q154" s="55"/>
+      <c r="R154" s="55"/>
+      <c r="S154" s="55"/>
       <c r="T154" s="39"/>
       <c r="U154" s="40"/>
       <c r="V154" s="41"/>
       <c r="W154" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="155" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="155" ht="39" customHeight="1">
       <c r="A155" s="35">
         <v>433</v>
       </c>
@@ -10243,20 +10707,24 @@
         <v>47</v>
       </c>
       <c r="C155" s="42" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="E155" s="36" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="F155" s="38"/>
       <c r="G155" s="38"/>
       <c r="H155" s="38"/>
-      <c r="I155" s="43"/>
-      <c r="J155" s="39"/>
-      <c r="K155" s="39"/>
+      <c r="I155" s="45"/>
+      <c r="J155" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K155" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L155" s="39"/>
       <c r="M155" s="39"/>
       <c r="N155" s="39"/>
@@ -10269,10 +10737,10 @@
       <c r="U155" s="40"/>
       <c r="V155" s="41"/>
       <c r="W155" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="156" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="156" ht="39" customHeight="1">
       <c r="A156" s="35">
         <v>434</v>
       </c>
@@ -10280,20 +10748,24 @@
         <v>47</v>
       </c>
       <c r="C156" s="42" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="E156" s="36" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="F156" s="38"/>
       <c r="G156" s="38"/>
       <c r="H156" s="38"/>
-      <c r="I156" s="43"/>
-      <c r="J156" s="39"/>
-      <c r="K156" s="39"/>
+      <c r="I156" s="45"/>
+      <c r="J156" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K156" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L156" s="39"/>
       <c r="M156" s="39"/>
       <c r="N156" s="39"/>
@@ -10306,10 +10778,10 @@
       <c r="U156" s="40"/>
       <c r="V156" s="41"/>
       <c r="W156" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="157" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="157" ht="39" customHeight="1">
       <c r="A157" s="35">
         <v>435</v>
       </c>
@@ -10317,20 +10789,24 @@
         <v>47</v>
       </c>
       <c r="C157" s="42" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="E157" s="36" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="F157" s="38"/>
       <c r="G157" s="38"/>
       <c r="H157" s="38"/>
-      <c r="I157" s="43"/>
-      <c r="J157" s="39"/>
-      <c r="K157" s="39"/>
+      <c r="I157" s="45"/>
+      <c r="J157" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K157" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L157" s="39"/>
       <c r="M157" s="39"/>
       <c r="N157" s="39"/>
@@ -10343,10 +10819,10 @@
       <c r="U157" s="40"/>
       <c r="V157" s="41"/>
       <c r="W157" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="158" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="158" ht="39" customHeight="1">
       <c r="A158" s="35">
         <v>437</v>
       </c>
@@ -10354,20 +10830,24 @@
         <v>47</v>
       </c>
       <c r="C158" s="42" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="E158" s="36" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="F158" s="38"/>
       <c r="G158" s="38"/>
       <c r="H158" s="38"/>
-      <c r="I158" s="43"/>
-      <c r="J158" s="39"/>
-      <c r="K158" s="39"/>
+      <c r="I158" s="45"/>
+      <c r="J158" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K158" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L158" s="39"/>
       <c r="M158" s="39"/>
       <c r="N158" s="39"/>
@@ -10380,10 +10860,10 @@
       <c r="U158" s="40"/>
       <c r="V158" s="41"/>
       <c r="W158" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="159" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="159" ht="39" customHeight="1">
       <c r="A159" s="35">
         <v>438</v>
       </c>
@@ -10391,20 +10871,24 @@
         <v>47</v>
       </c>
       <c r="C159" s="42" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="E159" s="36" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="F159" s="38"/>
       <c r="G159" s="38"/>
       <c r="H159" s="38"/>
-      <c r="I159" s="43"/>
-      <c r="J159" s="39"/>
-      <c r="K159" s="39"/>
+      <c r="I159" s="45"/>
+      <c r="J159" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K159" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L159" s="39"/>
       <c r="M159" s="39"/>
       <c r="N159" s="39"/>
@@ -10417,10 +10901,10 @@
       <c r="U159" s="40"/>
       <c r="V159" s="41"/>
       <c r="W159" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="160" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="160" ht="39" customHeight="1">
       <c r="A160" s="35">
         <v>440</v>
       </c>
@@ -10428,20 +10912,24 @@
         <v>47</v>
       </c>
       <c r="C160" s="42" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="E160" s="36" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="F160" s="38"/>
       <c r="G160" s="38"/>
       <c r="H160" s="38"/>
-      <c r="I160" s="43"/>
-      <c r="J160" s="39"/>
-      <c r="K160" s="39"/>
+      <c r="I160" s="45"/>
+      <c r="J160" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K160" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L160" s="39"/>
       <c r="M160" s="39"/>
       <c r="N160" s="39"/>
@@ -10454,10 +10942,10 @@
       <c r="U160" s="40"/>
       <c r="V160" s="41"/>
       <c r="W160" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="161" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="161" ht="39" customHeight="1">
       <c r="A161" s="35">
         <v>441</v>
       </c>
@@ -10465,20 +10953,24 @@
         <v>47</v>
       </c>
       <c r="C161" s="42" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="E161" s="36" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="F161" s="38"/>
       <c r="G161" s="38"/>
       <c r="H161" s="38"/>
-      <c r="I161" s="43"/>
-      <c r="J161" s="39"/>
-      <c r="K161" s="39"/>
+      <c r="I161" s="45"/>
+      <c r="J161" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K161" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L161" s="39"/>
       <c r="M161" s="39"/>
       <c r="N161" s="39"/>
@@ -10491,10 +10983,10 @@
       <c r="U161" s="40"/>
       <c r="V161" s="41"/>
       <c r="W161" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="162" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="162" ht="39" customHeight="1">
       <c r="A162" s="35">
         <v>442</v>
       </c>
@@ -10502,20 +10994,24 @@
         <v>47</v>
       </c>
       <c r="C162" s="42" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="E162" s="36" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="F162" s="38"/>
       <c r="G162" s="38"/>
       <c r="H162" s="38"/>
-      <c r="I162" s="43"/>
-      <c r="J162" s="39"/>
-      <c r="K162" s="39"/>
+      <c r="I162" s="45"/>
+      <c r="J162" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K162" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L162" s="39"/>
       <c r="M162" s="39"/>
       <c r="N162" s="39"/>
@@ -10528,10 +11024,10 @@
       <c r="U162" s="40"/>
       <c r="V162" s="41"/>
       <c r="W162" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="163" ht="39" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="163" ht="39" customHeight="1">
       <c r="A163" s="35">
         <v>443</v>
       </c>
@@ -10539,20 +11035,24 @@
         <v>47</v>
       </c>
       <c r="C163" s="42" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="E163" s="36" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="F163" s="38"/>
       <c r="G163" s="38"/>
       <c r="H163" s="38"/>
-      <c r="I163" s="43"/>
-      <c r="J163" s="39"/>
-      <c r="K163" s="39"/>
+      <c r="I163" s="45"/>
+      <c r="J163" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K163" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L163" s="39"/>
       <c r="M163" s="39"/>
       <c r="N163" s="39"/>
@@ -10565,7 +11065,7 @@
       <c r="U163" s="40"/>
       <c r="V163" s="41"/>
       <c r="W163" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="164" ht="39" hidden="1" customHeight="1">
@@ -10576,18 +11076,18 @@
         <v>47</v>
       </c>
       <c r="C164" s="42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="E164" s="36" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="F164" s="38"/>
       <c r="G164" s="38"/>
       <c r="H164" s="38"/>
-      <c r="I164" s="43"/>
+      <c r="I164" s="45"/>
       <c r="J164" s="39"/>
       <c r="K164" s="39"/>
       <c r="L164" s="39"/>
@@ -10602,7 +11102,7 @@
       <c r="U164" s="40"/>
       <c r="V164" s="41"/>
       <c r="W164" s="39" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="165" ht="39" hidden="1" customHeight="1">
@@ -10613,18 +11113,18 @@
         <v>47</v>
       </c>
       <c r="C165" s="42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="E165" s="36" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="F165" s="38"/>
       <c r="G165" s="38"/>
       <c r="H165" s="38"/>
-      <c r="I165" s="43"/>
+      <c r="I165" s="45"/>
       <c r="J165" s="39"/>
       <c r="K165" s="39"/>
       <c r="L165" s="39"/>
@@ -10639,10 +11139,10 @@
       <c r="U165" s="40"/>
       <c r="V165" s="41"/>
       <c r="W165" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="166" ht="39" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="166" ht="39" hidden="1" customHeight="1">
       <c r="A166" s="35">
         <v>448</v>
       </c>
@@ -10650,28 +11150,28 @@
         <v>47</v>
       </c>
       <c r="C166" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="E166" s="36" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="F166" s="38">
         <v>45919</v>
       </c>
       <c r="G166" s="38" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="H166" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="I166" s="43" t="s">
-        <v>374</v>
+        <v>402</v>
+      </c>
+      <c r="I166" s="45" t="s">
+        <v>403</v>
       </c>
       <c r="J166" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K166" s="39"/>
       <c r="L166" s="39"/>
@@ -10686,10 +11186,10 @@
       <c r="U166" s="40"/>
       <c r="V166" s="41"/>
       <c r="W166" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="167" ht="33" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" ht="33" hidden="1" customHeight="1">
       <c r="A167" s="35">
         <v>449</v>
       </c>
@@ -10697,28 +11197,28 @@
         <v>47</v>
       </c>
       <c r="C167" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="E167" s="36" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="F167" s="38">
         <v>45919</v>
       </c>
       <c r="G167" s="38" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="H167" s="38" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="J167" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K167" s="39"/>
       <c r="L167" s="39"/>
@@ -10733,10 +11233,10 @@
       <c r="U167" s="40"/>
       <c r="V167" s="41"/>
       <c r="W167" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="168" ht="33.75" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="168" ht="33.75" hidden="1" customHeight="1">
       <c r="A168" s="35">
         <v>450</v>
       </c>
@@ -10744,28 +11244,28 @@
         <v>47</v>
       </c>
       <c r="C168" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="E168" s="36" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="F168" s="38">
         <v>45919</v>
       </c>
-      <c r="G168" s="54" t="s">
-        <v>382</v>
+      <c r="G168" s="57" t="s">
+        <v>411</v>
       </c>
       <c r="H168" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="I168" s="43" t="s">
-        <v>384</v>
+        <v>412</v>
+      </c>
+      <c r="I168" s="45" t="s">
+        <v>413</v>
       </c>
       <c r="J168" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K168" s="39"/>
       <c r="L168" s="39"/>
@@ -10780,10 +11280,10 @@
       <c r="U168" s="40"/>
       <c r="V168" s="41"/>
       <c r="W168" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="169" ht="20.25" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169" ht="20.25" hidden="1" customHeight="1">
       <c r="A169" s="35">
         <v>451</v>
       </c>
@@ -10791,28 +11291,28 @@
         <v>47</v>
       </c>
       <c r="C169" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D169" s="35" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="E169" s="36" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="F169" s="38">
         <v>45919</v>
       </c>
-      <c r="G169" s="43" t="s">
-        <v>387</v>
+      <c r="G169" s="45" t="s">
+        <v>416</v>
       </c>
       <c r="H169" s="38" t="s">
-        <v>388</v>
-      </c>
-      <c r="I169" s="43" t="s">
-        <v>389</v>
+        <v>417</v>
+      </c>
+      <c r="I169" s="45" t="s">
+        <v>418</v>
       </c>
       <c r="J169" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K169" s="39"/>
       <c r="L169" s="39"/>
@@ -10827,10 +11327,10 @@
       <c r="U169" s="40"/>
       <c r="V169" s="41"/>
       <c r="W169" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="170" ht="11.25" hidden="1" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="170" ht="15">
       <c r="A170" s="35">
         <v>452</v>
       </c>
@@ -10841,16 +11341,26 @@
         <v>48</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="E170" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="F170" s="38"/>
-      <c r="G170" s="38"/>
-      <c r="H170" s="38"/>
-      <c r="I170" s="43"/>
-      <c r="J170" s="39"/>
+        <v>420</v>
+      </c>
+      <c r="F170" s="38">
+        <v>45967</v>
+      </c>
+      <c r="G170" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="H170" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="I170" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="J170" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="K170" s="39"/>
       <c r="L170" s="39"/>
       <c r="M170" s="39"/>
@@ -10864,10 +11374,10 @@
       <c r="U170" s="40"/>
       <c r="V170" s="41"/>
       <c r="W170" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="171" ht="14.25" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="171" ht="14.25" hidden="1" customHeight="1">
       <c r="A171" s="35">
         <v>454</v>
       </c>
@@ -10875,28 +11385,28 @@
         <v>47</v>
       </c>
       <c r="C171" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="E171" s="36" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="F171" s="38">
         <v>45919</v>
       </c>
-      <c r="G171" s="54" t="s">
-        <v>394</v>
+      <c r="G171" s="57" t="s">
+        <v>426</v>
       </c>
       <c r="H171" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="I171" s="43" t="s">
-        <v>396</v>
+        <v>427</v>
+      </c>
+      <c r="I171" s="45" t="s">
+        <v>428</v>
       </c>
       <c r="J171" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K171" s="39"/>
       <c r="L171" s="39"/>
@@ -10911,10 +11421,10 @@
       <c r="U171" s="40"/>
       <c r="V171" s="41"/>
       <c r="W171" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="172" ht="14.25" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="172" ht="14.25" hidden="1" customHeight="1">
       <c r="A172" s="35">
         <v>455</v>
       </c>
@@ -10922,28 +11432,28 @@
         <v>47</v>
       </c>
       <c r="C172" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="E172" s="36" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="F172" s="38">
         <v>45919</v>
       </c>
       <c r="G172" s="38" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="H172" s="38" t="s">
-        <v>400</v>
-      </c>
-      <c r="I172" s="43" t="s">
-        <v>401</v>
+        <v>432</v>
+      </c>
+      <c r="I172" s="45" t="s">
+        <v>433</v>
       </c>
       <c r="J172" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K172" s="39"/>
       <c r="L172" s="39"/>
@@ -10958,7 +11468,7 @@
       <c r="U172" s="40"/>
       <c r="V172" s="41"/>
       <c r="W172" s="39" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="173" ht="14.25" hidden="1" customHeight="1">
@@ -10969,18 +11479,18 @@
         <v>47</v>
       </c>
       <c r="C173" s="42" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="E173" s="36" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="F173" s="38"/>
-      <c r="G173" s="46"/>
+      <c r="G173" s="47"/>
       <c r="H173" s="38"/>
-      <c r="I173" s="43"/>
+      <c r="I173" s="45"/>
       <c r="J173" s="39"/>
       <c r="K173" s="39"/>
       <c r="L173" s="39"/>
@@ -10995,7 +11505,7 @@
       <c r="U173" s="40"/>
       <c r="V173" s="41"/>
       <c r="W173" s="39" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174" ht="11" hidden="1" customHeight="1">
@@ -11006,18 +11516,18 @@
         <v>47</v>
       </c>
       <c r="C174" s="42" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D174" s="35" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="E174" s="36" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="F174" s="38"/>
       <c r="G174" s="38"/>
       <c r="H174" s="38"/>
-      <c r="I174" s="43"/>
+      <c r="I174" s="45"/>
       <c r="J174" s="39"/>
       <c r="K174" s="39"/>
       <c r="L174" s="39"/>
@@ -11032,7 +11542,7 @@
       <c r="U174" s="40"/>
       <c r="V174" s="41"/>
       <c r="W174" s="39" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="175" ht="11" hidden="1" customHeight="1">
@@ -11043,18 +11553,18 @@
         <v>47</v>
       </c>
       <c r="C175" s="42" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="E175" s="36" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="F175" s="38"/>
       <c r="G175" s="38"/>
       <c r="H175" s="38"/>
-      <c r="I175" s="43"/>
+      <c r="I175" s="45"/>
       <c r="J175" s="39"/>
       <c r="K175" s="39"/>
       <c r="L175" s="39"/>
@@ -11069,7 +11579,7 @@
       <c r="U175" s="40"/>
       <c r="V175" s="41"/>
       <c r="W175" s="39" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="176" ht="14.25" hidden="1" customHeight="1">
@@ -11080,18 +11590,18 @@
         <v>47</v>
       </c>
       <c r="C176" s="42" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D176" s="35" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="E176" s="36" t="s">
-        <v>409</v>
+        <v>441</v>
       </c>
       <c r="F176" s="38"/>
       <c r="G176" s="38"/>
       <c r="H176" s="38"/>
-      <c r="I176" s="43"/>
+      <c r="I176" s="45"/>
       <c r="J176" s="39"/>
       <c r="K176" s="39"/>
       <c r="L176" s="39"/>
@@ -11106,10 +11616,10 @@
       <c r="U176" s="40"/>
       <c r="V176" s="41"/>
       <c r="W176" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="177" ht="14.25" hidden="1" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177" ht="15">
       <c r="A177" s="35">
         <v>460</v>
       </c>
@@ -11117,19 +11627,29 @@
         <v>47</v>
       </c>
       <c r="C177" s="42" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D177" s="35" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="E177" s="36" t="s">
-        <v>411</v>
-      </c>
-      <c r="F177" s="38"/>
-      <c r="G177" s="38"/>
-      <c r="H177" s="38"/>
-      <c r="I177" s="43"/>
-      <c r="J177" s="39"/>
+        <v>443</v>
+      </c>
+      <c r="F177" s="38">
+        <v>45971</v>
+      </c>
+      <c r="G177" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="H177" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="I177" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="J177" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="K177" s="39"/>
       <c r="L177" s="39"/>
       <c r="M177" s="39"/>
@@ -11143,10 +11663,10 @@
       <c r="U177" s="40"/>
       <c r="V177" s="41"/>
       <c r="W177" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="178" ht="14.25" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178" ht="14.25" hidden="1" customHeight="1">
       <c r="A178" s="35">
         <v>461</v>
       </c>
@@ -11154,13 +11674,13 @@
         <v>47</v>
       </c>
       <c r="C178" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D178" s="35" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="E178" s="36" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="F178" s="35"/>
       <c r="G178" s="35"/>
@@ -11170,7 +11690,7 @@
         <v>61</v>
       </c>
       <c r="K178" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L178" s="35"/>
       <c r="M178" s="39"/>
@@ -11184,10 +11704,10 @@
       <c r="U178" s="35"/>
       <c r="V178" s="35"/>
       <c r="W178" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="179" ht="14.25" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="179" ht="15">
       <c r="A179" s="35">
         <v>462</v>
       </c>
@@ -11195,20 +11715,24 @@
         <v>47</v>
       </c>
       <c r="C179" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D179" s="35" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="E179" s="36" t="s">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="F179" s="35"/>
       <c r="G179" s="35"/>
       <c r="H179" s="35"/>
       <c r="I179" s="35"/>
-      <c r="J179" s="39"/>
-      <c r="K179" s="39"/>
+      <c r="J179" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K179" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L179" s="35"/>
       <c r="M179" s="39"/>
       <c r="N179" s="39"/>
@@ -11221,10 +11745,10 @@
       <c r="U179" s="35"/>
       <c r="V179" s="35"/>
       <c r="W179" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="180" ht="14.25" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="180" ht="14.25" hidden="1" customHeight="1">
       <c r="A180" s="35">
         <v>463</v>
       </c>
@@ -11232,13 +11756,13 @@
         <v>47</v>
       </c>
       <c r="C180" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D180" s="35" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="E180" s="36" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="F180" s="35"/>
       <c r="G180" s="35"/>
@@ -11248,7 +11772,7 @@
         <v>61</v>
       </c>
       <c r="K180" s="39" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L180" s="35"/>
       <c r="M180" s="39"/>
@@ -11262,7 +11786,7 @@
       <c r="U180" s="35"/>
       <c r="V180" s="35"/>
       <c r="W180" s="35" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" ht="14.25" hidden="1" customHeight="1">
@@ -11273,13 +11797,13 @@
         <v>47</v>
       </c>
       <c r="C181" s="42" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D181" s="35" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="E181" s="36" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="35"/>
@@ -11299,7 +11823,7 @@
       <c r="U181" s="35"/>
       <c r="V181" s="35"/>
       <c r="W181" s="35" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="182" ht="14.25" hidden="1" customHeight="1">
@@ -11310,13 +11834,13 @@
         <v>47</v>
       </c>
       <c r="C182" s="42" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D182" s="35" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="E182" s="36" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="F182" s="35"/>
       <c r="G182" s="35"/>
@@ -11336,10 +11860,10 @@
       <c r="U182" s="35"/>
       <c r="V182" s="35"/>
       <c r="W182" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="183" ht="14.25" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="183" ht="15">
       <c r="A183" s="35">
         <v>466</v>
       </c>
@@ -11350,17 +11874,21 @@
         <v>48</v>
       </c>
       <c r="D183" s="35" t="s">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="E183" s="36" t="s">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="F183" s="35"/>
       <c r="G183" s="35"/>
       <c r="H183" s="35"/>
       <c r="I183" s="35"/>
-      <c r="J183" s="39"/>
-      <c r="K183" s="39"/>
+      <c r="J183" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K183" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L183" s="35"/>
       <c r="M183" s="39"/>
       <c r="N183" s="39"/>
@@ -11373,10 +11901,10 @@
       <c r="U183" s="35"/>
       <c r="V183" s="35"/>
       <c r="W183" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="184" ht="14.25" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="184" ht="14.25" hidden="1" customHeight="1">
       <c r="A184" s="35">
         <v>467</v>
       </c>
@@ -11384,13 +11912,13 @@
         <v>47</v>
       </c>
       <c r="C184" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D184" s="35" t="s">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="E184" s="36" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="F184" s="35"/>
       <c r="G184" s="35"/>
@@ -11400,7 +11928,7 @@
         <v>61</v>
       </c>
       <c r="K184" s="39" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L184" s="35"/>
       <c r="M184" s="39"/>
@@ -11414,10 +11942,10 @@
       <c r="U184" s="35"/>
       <c r="V184" s="35"/>
       <c r="W184" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="185" ht="22.5" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="185" ht="22.5" hidden="1" customHeight="1">
       <c r="A185" s="35">
         <v>468</v>
       </c>
@@ -11425,13 +11953,13 @@
         <v>47</v>
       </c>
       <c r="C185" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D185" s="35" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="E185" s="36" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="F185" s="35"/>
       <c r="G185" s="35"/>
@@ -11441,7 +11969,7 @@
         <v>61</v>
       </c>
       <c r="K185" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L185" s="35"/>
       <c r="M185" s="39"/>
@@ -11455,7 +11983,7 @@
       <c r="U185" s="35"/>
       <c r="V185" s="35"/>
       <c r="W185" s="35" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" ht="14.25" hidden="1" customHeight="1">
@@ -11466,13 +11994,13 @@
         <v>47</v>
       </c>
       <c r="C186" s="42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D186" s="35" t="s">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="E186" s="36" t="s">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="F186" s="35"/>
       <c r="G186" s="35"/>
@@ -11492,10 +12020,10 @@
       <c r="U186" s="35"/>
       <c r="V186" s="35"/>
       <c r="W186" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="187" ht="14.25" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="187" ht="15">
       <c r="A187" s="35">
         <v>470</v>
       </c>
@@ -11503,20 +12031,24 @@
         <v>47</v>
       </c>
       <c r="C187" s="42" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D187" s="35" t="s">
-        <v>430</v>
+        <v>465</v>
       </c>
       <c r="E187" s="36" t="s">
-        <v>431</v>
+        <v>466</v>
       </c>
       <c r="F187" s="35"/>
       <c r="G187" s="35"/>
       <c r="H187" s="35"/>
       <c r="I187" s="35"/>
-      <c r="J187" s="39"/>
-      <c r="K187" s="39"/>
+      <c r="J187" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K187" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L187" s="35"/>
       <c r="M187" s="39"/>
       <c r="N187" s="39"/>
@@ -11529,10 +12061,10 @@
       <c r="U187" s="35"/>
       <c r="V187" s="35"/>
       <c r="W187" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="188" ht="14.25" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="188" ht="15">
       <c r="A188" s="35">
         <v>471</v>
       </c>
@@ -11540,19 +12072,29 @@
         <v>47</v>
       </c>
       <c r="C188" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D188" s="35" t="s">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="E188" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="F188" s="38"/>
-      <c r="G188" s="38"/>
-      <c r="H188" s="38"/>
-      <c r="I188" s="43"/>
-      <c r="J188" s="39"/>
+        <v>468</v>
+      </c>
+      <c r="F188" s="38">
+        <v>45967</v>
+      </c>
+      <c r="G188" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="H188" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="I188" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="J188" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="K188" s="39"/>
       <c r="L188" s="39"/>
       <c r="M188" s="39"/>
@@ -11566,10 +12108,10 @@
       <c r="U188" s="40"/>
       <c r="V188" s="41"/>
       <c r="W188" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="189" ht="14.25" hidden="1" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="189" ht="15">
       <c r="A189" s="35">
         <v>472</v>
       </c>
@@ -11577,19 +12119,29 @@
         <v>47</v>
       </c>
       <c r="C189" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D189" s="35" t="s">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="E189" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="F189" s="38"/>
-      <c r="G189" s="38"/>
-      <c r="H189" s="38"/>
-      <c r="I189" s="43"/>
-      <c r="J189" s="39"/>
+        <v>473</v>
+      </c>
+      <c r="F189" s="38">
+        <v>45967</v>
+      </c>
+      <c r="G189" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="H189" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="I189" s="45" t="s">
+        <v>476</v>
+      </c>
+      <c r="J189" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="K189" s="39"/>
       <c r="L189" s="39"/>
       <c r="M189" s="39"/>
@@ -11603,10 +12155,10 @@
       <c r="U189" s="40"/>
       <c r="V189" s="41"/>
       <c r="W189" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="190" ht="14.25" hidden="1" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="190" ht="15">
       <c r="A190" s="35">
         <v>473</v>
       </c>
@@ -11617,17 +12169,21 @@
         <v>48</v>
       </c>
       <c r="D190" s="42" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="E190" s="36" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="F190" s="38"/>
       <c r="G190" s="38"/>
       <c r="H190" s="38"/>
-      <c r="I190" s="43"/>
-      <c r="J190" s="39"/>
-      <c r="K190" s="39"/>
+      <c r="I190" s="45"/>
+      <c r="J190" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K190" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L190" s="39"/>
       <c r="M190" s="39"/>
       <c r="N190" s="39"/>
@@ -11640,10 +12196,10 @@
       <c r="U190" s="40"/>
       <c r="V190" s="41"/>
       <c r="W190" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="191" ht="14.25" hidden="1" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="191" ht="15">
       <c r="A191" s="35">
         <v>474</v>
       </c>
@@ -11651,20 +12207,24 @@
         <v>47</v>
       </c>
       <c r="C191" s="42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D191" s="35" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="E191" s="36" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="F191" s="38"/>
       <c r="G191" s="38"/>
       <c r="H191" s="38"/>
-      <c r="I191" s="43"/>
-      <c r="J191" s="39"/>
-      <c r="K191" s="39"/>
+      <c r="I191" s="45"/>
+      <c r="J191" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K191" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="L191" s="39"/>
       <c r="M191" s="39"/>
       <c r="N191" s="39"/>
@@ -11677,10 +12237,10 @@
       <c r="U191" s="40"/>
       <c r="V191" s="41"/>
       <c r="W191" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="192" ht="29.25" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="192" ht="29.25" hidden="1" customHeight="1">
       <c r="A192" s="35">
         <v>475</v>
       </c>
@@ -11688,23 +12248,23 @@
         <v>47</v>
       </c>
       <c r="C192" s="42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D192" s="35" t="s">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="E192" s="36" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="F192" s="38"/>
       <c r="G192" s="38"/>
       <c r="H192" s="38"/>
-      <c r="I192" s="43"/>
+      <c r="I192" s="45"/>
       <c r="J192" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K192" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L192" s="39"/>
       <c r="M192" s="39"/>
@@ -11718,7 +12278,7 @@
       <c r="U192" s="40"/>
       <c r="V192" s="41"/>
       <c r="W192" s="39" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="193" ht="14.25" customHeight="1">
@@ -15741,9 +16301,9 @@
   <autoFilter ref="A9:W192">
     <filterColumn colId="2">
       <filters>
-        <filter val="LDO"/>
-        <filter val="RSA"/>
-        <filter val="VPS"/>
+        <filter val="LAB"/>
+        <filter val="RAD"/>
+        <filter val="RAP"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -15756,14 +16316,14 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <dataValidations count="55" disablePrompts="0">
-    <dataValidation sqref="P10:R11 P13:R17 P19:R19 P21:R22 P24:R25 P27:R27 P29:R30 P32:R33 P35:R192 J10:J11 J13:J17 J19 J21:J22 J24:J25 J27 J29:J33 J35:J42 J54:J92 J116 J118:J121 J131:J165 J168 J170:J177 J179:J183 J186:J191 M10:N11 M13:N17 M19:N19 M21:N22 M24:N25 M27:N27 M29:N30 M32:N33 M35:N192" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+  <dataValidations count="85" disablePrompts="0">
+    <dataValidation sqref="P10:R10 P13:R17 P21:R22 P24:R25 P29:R29 P32:R33 P35:R152 P154:R192 J10:J11 J13:J17 J21:J22 J24:J25 J29 J31:J33 J69:J92 J116 J118:J121 J131:J148 J164:J165 J168 J170:J177 J180:J182 J186 J188:J189 M10:N10 M13:N17 M21:N22 M24:N25 M29:N29 M32:N33 M35:N152 M154:N192" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
-    <dataValidation sqref="T10:T192" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+    <dataValidation sqref="T10:T152 T154:T192" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$A$2:$A$3</formula1>
     </dataValidation>
-    <dataValidation sqref="K10:K42 K54:K92 K116:K117 K119:K121 K131:K165 K168:K177 K179:K183 K186:K191" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+    <dataValidation sqref="K10:K34 K69:K92 K116:K117 K119:K121 K131:K153 K164:K165 K168:K177 K180:K182 K186 K188:K189" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
       <formula1>'LISTA VALORI'!$A$2:$A$8</formula1>
     </dataValidation>
     <dataValidation sqref="J23" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
@@ -15922,6 +16482,96 @@
     <dataValidation sqref="K107" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
       <formula1>'LISTA VALORI'!$A$2:$A$8</formula1>
     </dataValidation>
+    <dataValidation sqref="M11:N11" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="P11" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="Q11" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="R11" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="J19" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="N19" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="M19" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="P19" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="Q19" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="R19" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="J27" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="J35" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="K35" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <formula1>'LISTA VALORI'!$A$2:$A$8</formula1>
+    </dataValidation>
+    <dataValidation sqref="J183" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="K183" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <formula1>'LISTA VALORI'!$A$2:$A$8</formula1>
+    </dataValidation>
+    <dataValidation sqref="J190" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="K190" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <formula1>'LISTA VALORI'!$A$2:$A$8</formula1>
+    </dataValidation>
+    <dataValidation sqref="J30" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="J54" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="K54" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <formula1>'LISTA VALORI'!$A$2:$A$8</formula1>
+    </dataValidation>
+    <dataValidation sqref="J149" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="J150" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="J152" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="J151" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="T153" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="J154" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="K154" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <formula1>'LISTA VALORI'!$A$2:$A$8</formula1>
+    </dataValidation>
+    <dataValidation sqref="J187" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="K187" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <formula1>'LISTA VALORI'!$A$2:$A$8</formula1>
+    </dataValidation>
+    <dataValidation sqref="J153" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -15942,42 +16592,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>445</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>446</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -16008,170 +16658,170 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="55" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="58" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="56" t="s">
-        <v>449</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>450</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>451</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>452</v>
+      <c r="C1" s="59" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>490</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>491</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>454</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>455</v>
+      <c r="B2" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>456</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>457</v>
+      <c r="A3" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>496</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>458</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>459</v>
+      <c r="A4" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>460</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>461</v>
+      <c r="A5" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>500</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>462</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>463</v>
+      <c r="A6" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>502</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="7" ht="14.5">
-      <c r="A7" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>464</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>465</v>
+      <c r="A7" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>504</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="8" ht="14.5">
-      <c r="A8" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>466</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>467</v>
+      <c r="A8" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>506</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="9" ht="14.5">
-      <c r="A9" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>468</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>469</v>
+      <c r="A9" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>508</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="10" ht="43.5">
-      <c r="A10" s="59" t="s">
-        <v>470</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>471</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>472</v>
+      <c r="A10" s="62" t="s">
+        <v>510</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>511</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="59" t="s">
-        <v>335</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>473</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>474</v>
+      <c r="A11" s="62" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>513</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="D12" s="64"/>
+      <c r="D12" s="67"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="D13" s="64"/>
+      <c r="D13" s="67"/>
     </row>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1"/>
@@ -17153,15 +17803,15 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>475</v>
+        <v>515</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>61</v>

--- a/GATEWAY/A1#111#PIAFONDAZIONEPANICOXX/AZ-PANICO/FSE-PANICO/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#PIAFONDAZIONEPANICOXX/AZ-PANICO/FSE-PANICO/1.0/report-checklist.xlsx
@@ -4867,13 +4867,27 @@
       </c>
       <c r="K14" s="39"/>
       <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
+      <c r="M14" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="T14" s="39"/>
       <c r="U14" s="40"/>
       <c r="V14" s="41"/>
@@ -5269,13 +5283,27 @@
       </c>
       <c r="K22" s="39"/>
       <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
+      <c r="M22" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q22" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="R22" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="S22" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="T22" s="39"/>
       <c r="U22" s="40"/>
       <c r="V22" s="41"/>
@@ -10540,13 +10568,27 @@
       </c>
       <c r="K151" s="39"/>
       <c r="L151" s="39"/>
-      <c r="M151" s="39"/>
-      <c r="N151" s="39"/>
-      <c r="O151" s="39"/>
-      <c r="P151" s="39"/>
-      <c r="Q151" s="39"/>
-      <c r="R151" s="39"/>
-      <c r="S151" s="39"/>
+      <c r="M151" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="N151" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="O151" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P151" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q151" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="R151" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="S151" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="T151" s="39"/>
       <c r="U151" s="40"/>
       <c r="V151" s="41"/>
@@ -10587,13 +10629,27 @@
       </c>
       <c r="K152" s="39"/>
       <c r="L152" s="39"/>
-      <c r="M152" s="39"/>
-      <c r="N152" s="39"/>
-      <c r="O152" s="39"/>
-      <c r="P152" s="39"/>
-      <c r="Q152" s="39"/>
-      <c r="R152" s="39"/>
-      <c r="S152" s="39"/>
+      <c r="M152" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="N152" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="O152" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P152" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q152" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="R152" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="S152" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="T152" s="39"/>
       <c r="U152" s="40"/>
       <c r="V152" s="41"/>
@@ -16316,8 +16372,8 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <dataValidations count="85" disablePrompts="0">
-    <dataValidation sqref="P10:R10 P13:R17 P21:R22 P24:R25 P29:R29 P32:R33 P35:R152 P154:R192 J10:J11 J13:J17 J21:J22 J24:J25 J29 J31:J33 J69:J92 J116 J118:J121 J131:J148 J164:J165 J168 J170:J177 J180:J182 J186 J188:J189 M10:N10 M13:N17 M21:N22 M24:N25 M29:N29 M32:N33 M35:N152 M154:N192" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+  <dataValidations count="97" disablePrompts="0">
+    <dataValidation sqref="P10:R10 P13:R13 P15:R17 P21:R21 P24:R25 P29:R29 P32:R33 P35:R150 P154:R192 J10:J11 J13:J17 J21:J22 J24:J25 J29 J31:J33 J69:J92 J116 J118:J121 J131:J148 J164:J165 J168 J170:J177 J180:J182 J186 J188:J189 M10:N10 M13:N17 M21:N21 M24:N25 M29:N29 M32:N33 M35:N150 M154:N192" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
     <dataValidation sqref="T10:T152 T154:T192" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
@@ -16570,6 +16626,42 @@
       <formula1>'LISTA VALORI'!$A$2:$A$8</formula1>
     </dataValidation>
     <dataValidation sqref="J153" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="P14" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="Q14" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="R14" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="N22" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="M22" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="P22" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="Q22" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="R22" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="M151:N151" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="P151:R151" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="M152:N152" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="P152:R152" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/GATEWAY/A1#111#PIAFONDAZIONEPANICOXX/AZ-PANICO/FSE-PANICO/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#PIAFONDAZIONEPANICOXX/AZ-PANICO/FSE-PANICO/1.0/report-checklist.xlsx
@@ -358,10 +358,10 @@
     <t>VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
   </si>
   <si>
-    <t>2025-09-18T07:29:33Z</t>
-  </si>
-  <si>
-    <t>dd8affc82e434027cbf1204ca13a467a</t>
+    <t>2025-11-14T14:40:59Z</t>
+  </si>
+  <si>
+    <t>2c1188de654be2a4c3b565bdc18b9463</t>
   </si>
   <si>
     <t>PSS</t>
@@ -388,10 +388,10 @@
     <t>VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
   </si>
   <si>
-    <t>2025-09-18T07:26:18Z</t>
-  </si>
-  <si>
-    <t>42386932ae83157a8ae19ccf8b362ae5</t>
+    <t>2025-11-14T14:45:04Z</t>
+  </si>
+  <si>
+    <t>9b2d9c119b11bb9dfd3fc4176a5fe14f</t>
   </si>
   <si>
     <t>CERT_VAC</t>
@@ -412,10 +412,10 @@
     <t>VALIDAZIONE_TOKEN_JWT_VPS_KO</t>
   </si>
   <si>
-    <t>2025-09-18T07:28:02Z</t>
-  </si>
-  <si>
-    <t>c44216a04b95ccef8ef0669d5b2e15ad</t>
+    <t>2025-11-14T14:46:39Z</t>
+  </si>
+  <si>
+    <t>190239189ec22cacbc2ebedd432bab69</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_LAB_KO</t>
@@ -472,10 +472,10 @@
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
   </si>
   <si>
-    <t>2025-09-18T07:31:03Z</t>
-  </si>
-  <si>
-    <t>44a675a1dc4c5a08e3f2d3ef5dd68c68</t>
+    <t>2025-11-14T14:56:18Z</t>
+  </si>
+  <si>
+    <t>e007a22273b9ac83fe16fc502ff26e17</t>
   </si>
   <si>
     <t xml:space="preserve">Si è verificato un errore durante la comunicazione con FSE. Dettaglio Errore: "Campo token JWT non valido. - Il campo action_id non è corretto". Contattare il CED.</t>
@@ -496,10 +496,10 @@
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
   </si>
   <si>
-    <t>2025-09-18T07:32:30Z</t>
-  </si>
-  <si>
-    <t>17ef7ee8fedf3900124c8cf445931eb4</t>
+    <t>2025-11-14T14:57:18Z</t>
+  </si>
+  <si>
+    <t>bf6f16d460ffa8e07a06d28cacfe7ce6</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_CERT_VAC_KO</t>
@@ -511,10 +511,10 @@
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_VPS_KO</t>
   </si>
   <si>
-    <t>2025-09-18T07:33:16Z</t>
-  </si>
-  <si>
-    <t>59e0842c730f8bda83089c0aaa87d16f</t>
+    <t>2025-11-14T14:58:09Z</t>
+  </si>
+  <si>
+    <t>4799f8707bef94e09aba0245aba025f4</t>
   </si>
   <si>
     <t>VALIDAZIONE_LAB_TIMEOUT</t>
@@ -1536,13 +1536,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-09-19T15:26:36Z</t>
-  </si>
-  <si>
-    <t>cff9156076d2cc7e3a56578a9c8263bd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.5.160080.d0f3005de28a3be0d00e357ee2f4708b0f6e7b663b9260f495f5249f54234f8a.674d593d84^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-11-14T14:59:45Z</t>
+  </si>
+  <si>
+    <t>86ff9eb37c297cb77a264303c217da60</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.5.160080.d0f3005de28a3be0d00e357ee2f4708b0f6e7b663b9260f495f5249f54234f8a.682cabbc03^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT25</t>
@@ -1552,13 +1552,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-09-19T15:28:06Z</t>
-  </si>
-  <si>
-    <t>a8115008446649f7cf63a92ecb1c7829</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.5.160080.d0f3005de28a3be0d00e357ee2f4708b0f6e7b663b9260f495f5249f54234f8a.1bddb7dbe1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-11-14T15:02:18Z</t>
+  </si>
+  <si>
+    <t>8354354791156a3502f9217cb0fac0ea</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.5.160080.d0f3005de28a3be0d00e357ee2f4708b0f6e7b663b9260f495f5249f54234f8a.e08c1f8198^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT17</t>
@@ -1568,13 +1568,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-09-19T15:29:46Z</t>
-  </si>
-  <si>
-    <t>0e8ee1e0edefd8e3486c810b44334dbc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.5.160080.2170324c8e63caac57df0df20f4086940f467875b189fefe016d1b3144cf74b8.9196587ade^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-11-14T15:03:54Z</t>
+  </si>
+  <si>
+    <t>a8982d869b71846553eb9d78ce003250</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.5.160080.2170324c8e63caac57df0df20f4086940f467875b189fefe016d1b3144cf74b8.fffcc4f0e8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT18</t>
@@ -1584,13 +1584,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-09-19T15:31:55Z</t>
-  </si>
-  <si>
-    <t>13294b9c711c7fa34857b228776e4483</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.5.160080.2170324c8e63caac57df0df20f4086940f467875b189fefe016d1b3144cf74b8.e419e6712e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-11-14T15:04:57Z</t>
+  </si>
+  <si>
+    <t>aa51e5543f944f592493505397ebbd2f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.5.160080.2170324c8e63caac57df0df20f4086940f467875b189fefe016d1b3144cf74b8.6728e29953^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_CT17</t>
@@ -1617,13 +1617,13 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 30" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-09-19T15:33:06Z</t>
-  </si>
-  <si>
-    <t>9cb2b227d92d3021fa020d49c7475825</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.5.160080.6d3954027e89b57178211a527fe93b27519999f3acd6c3b753748443ada6ebd4.117d30c9d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-11-14T15:06:06Z</t>
+  </si>
+  <si>
+    <t>d7eda121e0ee8f25d09c7c531a55c96a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.5.160080.6d3954027e89b57178211a527fe93b27519999f3acd6c3b753748443ada6ebd4.c7644bd7e5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT31</t>
@@ -1633,13 +1633,13 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 31" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-09-19T15:34:04Z</t>
-  </si>
-  <si>
-    <t>30965be35cb7a4d372d255db92de534f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.5.160080.6d3954027e89b57178211a527fe93b27519999f3acd6c3b753748443ada6ebd4.f415fd2326^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-11-14T15:07:24Z</t>
+  </si>
+  <si>
+    <t>6884b12d63bc05c8ebe2a804ab3ce241</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.5.160080.6d3954027e89b57178211a527fe93b27519999f3acd6c3b753748443ada6ebd4.3825eaf19a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_SING_VAC_CT4</t>
@@ -2006,7 +2006,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -2390,17 +2390,6 @@
       <diagonal style="none"/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -2420,7 +2409,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2568,13 +2557,10 @@
     <xf fontId="2" fillId="0" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="30" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="3" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="7" fillId="3" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="3" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="3" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="8" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2583,17 +2569,17 @@
     <xf fontId="9" fillId="0" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
@@ -4628,7 +4614,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" ht="128.25">
+    <row r="10" ht="128.25" hidden="1">
       <c r="A10" s="33">
         <v>4</v>
       </c>
@@ -4675,7 +4661,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" ht="11" customHeight="1">
+    <row r="11" ht="11" hidden="1" customHeight="1">
       <c r="A11" s="35">
         <v>28</v>
       </c>
@@ -4736,7 +4722,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" ht="40.5" hidden="1" customHeight="1">
+    <row r="12" ht="40.5" customHeight="1">
       <c r="A12" s="35">
         <v>29</v>
       </c>
@@ -4753,7 +4739,7 @@
         <v>57</v>
       </c>
       <c r="F12" s="43">
-        <v>45918</v>
+        <v>45975</v>
       </c>
       <c r="G12" s="46" t="s">
         <v>67</v>
@@ -4834,7 +4820,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" ht="11" customHeight="1">
+    <row r="14" ht="11" hidden="1" customHeight="1">
       <c r="A14" s="35">
         <v>31</v>
       </c>
@@ -4895,7 +4881,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" ht="74.25" hidden="1" customHeight="1">
+    <row r="15" ht="74.25" customHeight="1">
       <c r="A15" s="35">
         <v>32</v>
       </c>
@@ -4912,7 +4898,7 @@
         <v>57</v>
       </c>
       <c r="F15" s="43">
-        <v>45918</v>
+        <v>45975</v>
       </c>
       <c r="G15" s="48" t="s">
         <v>77</v>
@@ -5030,7 +5016,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" ht="39" hidden="1" customHeight="1">
+    <row r="18" ht="39" customHeight="1">
       <c r="A18" s="35">
         <v>35</v>
       </c>
@@ -5047,7 +5033,7 @@
         <v>57</v>
       </c>
       <c r="F18" s="43">
-        <v>45918</v>
+        <v>45975</v>
       </c>
       <c r="G18" s="49" t="s">
         <v>85</v>
@@ -5091,7 +5077,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" ht="39" customHeight="1">
+    <row r="19" ht="39" hidden="1" customHeight="1">
       <c r="A19" s="35">
         <v>36</v>
       </c>
@@ -5152,7 +5138,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" ht="39" hidden="1" customHeight="1">
+    <row r="20" ht="39" customHeight="1">
       <c r="A20" s="35">
         <v>37</v>
       </c>
@@ -5169,7 +5155,7 @@
         <v>88</v>
       </c>
       <c r="F20" s="43">
-        <v>45918</v>
+        <v>45975</v>
       </c>
       <c r="G20" s="46" t="s">
         <v>92</v>
@@ -5250,7 +5236,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" ht="35.25" customHeight="1">
+    <row r="22" ht="35.25" hidden="1" customHeight="1">
       <c r="A22" s="35">
         <v>39</v>
       </c>
@@ -5311,7 +5297,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" ht="39" hidden="1" customHeight="1">
+    <row r="23" ht="39" customHeight="1">
       <c r="A23" s="35">
         <v>40</v>
       </c>
@@ -5328,7 +5314,7 @@
         <v>88</v>
       </c>
       <c r="F23" s="43">
-        <v>45918</v>
+        <v>45975</v>
       </c>
       <c r="G23" s="44" t="s">
         <v>100</v>
@@ -5446,7 +5432,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" ht="39" hidden="1" customHeight="1">
+    <row r="26" ht="39" customHeight="1">
       <c r="A26" s="35">
         <v>43</v>
       </c>
@@ -5463,7 +5449,7 @@
         <v>88</v>
       </c>
       <c r="F26" s="43">
-        <v>45918</v>
+        <v>45975</v>
       </c>
       <c r="G26" s="44" t="s">
         <v>105</v>
@@ -5507,7 +5493,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" ht="39" customHeight="1">
+    <row r="27" ht="39" hidden="1" customHeight="1">
       <c r="A27" s="35">
         <v>44</v>
       </c>
@@ -5660,7 +5646,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" ht="39" customHeight="1">
+    <row r="30" ht="39" hidden="1" customHeight="1">
       <c r="A30" s="35">
         <v>47</v>
       </c>
@@ -5909,7 +5895,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" ht="39" customHeight="1">
+    <row r="35" ht="39" hidden="1" customHeight="1">
       <c r="A35" s="35">
         <v>53</v>
       </c>
@@ -5950,7 +5936,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" ht="39" customHeight="1">
+    <row r="36" ht="39" hidden="1" customHeight="1">
       <c r="A36" s="35">
         <v>55</v>
       </c>
@@ -5991,7 +5977,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" ht="39" customHeight="1">
+    <row r="37" ht="39" hidden="1" customHeight="1">
       <c r="A37" s="35">
         <v>56</v>
       </c>
@@ -6032,7 +6018,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" ht="39" customHeight="1">
+    <row r="38" ht="39" hidden="1" customHeight="1">
       <c r="A38" s="35">
         <v>57</v>
       </c>
@@ -6073,7 +6059,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" ht="39" customHeight="1">
+    <row r="39" ht="39" hidden="1" customHeight="1">
       <c r="A39" s="35">
         <v>59</v>
       </c>
@@ -6114,7 +6100,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" ht="39" customHeight="1">
+    <row r="40" ht="39" hidden="1" customHeight="1">
       <c r="A40" s="35">
         <v>60</v>
       </c>
@@ -6155,7 +6141,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" ht="39" customHeight="1">
+    <row r="41" ht="39" hidden="1" customHeight="1">
       <c r="A41" s="35">
         <v>61</v>
       </c>
@@ -6196,7 +6182,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" ht="39" customHeight="1">
+    <row r="42" ht="39" hidden="1" customHeight="1">
       <c r="A42" s="35">
         <v>62</v>
       </c>
@@ -6647,7 +6633,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" ht="39" customHeight="1">
+    <row r="53" ht="39" hidden="1" customHeight="1">
       <c r="A53" s="35">
         <v>76</v>
       </c>
@@ -6688,7 +6674,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" ht="39" customHeight="1">
+    <row r="54" ht="39" hidden="1" customHeight="1">
       <c r="A54" s="35">
         <v>78</v>
       </c>
@@ -6729,7 +6715,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" ht="39" customHeight="1">
+    <row r="55" ht="39" hidden="1" customHeight="1">
       <c r="A55" s="35">
         <v>79</v>
       </c>
@@ -6770,7 +6756,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" ht="39" customHeight="1">
+    <row r="56" ht="39" hidden="1" customHeight="1">
       <c r="A56" s="35">
         <v>80</v>
       </c>
@@ -6811,7 +6797,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" ht="39" customHeight="1">
+    <row r="57" ht="39" hidden="1" customHeight="1">
       <c r="A57" s="35">
         <v>81</v>
       </c>
@@ -6852,7 +6838,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" ht="39" customHeight="1">
+    <row r="58" ht="39" hidden="1" customHeight="1">
       <c r="A58" s="35">
         <v>83</v>
       </c>
@@ -6893,7 +6879,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" ht="39" customHeight="1">
+    <row r="59" ht="39" hidden="1" customHeight="1">
       <c r="A59" s="35">
         <v>84</v>
       </c>
@@ -6934,7 +6920,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" ht="39" customHeight="1">
+    <row r="60" ht="39" hidden="1" customHeight="1">
       <c r="A60" s="35">
         <v>85</v>
       </c>
@@ -6975,7 +6961,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" ht="39" customHeight="1">
+    <row r="61" ht="39" hidden="1" customHeight="1">
       <c r="A61" s="35">
         <v>86</v>
       </c>
@@ -7016,7 +7002,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" ht="39" customHeight="1">
+    <row r="62" ht="39" hidden="1" customHeight="1">
       <c r="A62" s="35">
         <v>87</v>
       </c>
@@ -7057,7 +7043,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" ht="39" customHeight="1">
+    <row r="63" ht="39" hidden="1" customHeight="1">
       <c r="A63" s="35">
         <v>88</v>
       </c>
@@ -7098,7 +7084,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" ht="39" customHeight="1">
+    <row r="64" ht="39" hidden="1" customHeight="1">
       <c r="A64" s="35">
         <v>89</v>
       </c>
@@ -7139,7 +7125,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" ht="39" customHeight="1">
+    <row r="65" ht="39" hidden="1" customHeight="1">
       <c r="A65" s="35">
         <v>90</v>
       </c>
@@ -7180,7 +7166,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" ht="39" customHeight="1">
+    <row r="66" ht="39" hidden="1" customHeight="1">
       <c r="A66" s="35">
         <v>91</v>
       </c>
@@ -7221,7 +7207,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" ht="39" customHeight="1">
+    <row r="67" ht="39" hidden="1" customHeight="1">
       <c r="A67" s="35">
         <v>92</v>
       </c>
@@ -7262,7 +7248,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" ht="39" customHeight="1">
+    <row r="68" ht="39" hidden="1" customHeight="1">
       <c r="A68" s="35">
         <v>93</v>
       </c>
@@ -10304,7 +10290,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="146" ht="15">
+    <row r="146" ht="15" hidden="1">
       <c r="A146" s="35">
         <v>191</v>
       </c>
@@ -10351,7 +10337,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="147" ht="39" customHeight="1">
+    <row r="147" ht="39" hidden="1" customHeight="1">
       <c r="A147" s="35">
         <v>376</v>
       </c>
@@ -10394,7 +10380,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="148" ht="39" customHeight="1">
+    <row r="148" ht="39" hidden="1" customHeight="1">
       <c r="A148" s="35">
         <v>417</v>
       </c>
@@ -10441,7 +10427,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="149" ht="39" customHeight="1">
+    <row r="149" ht="39" hidden="1" customHeight="1">
       <c r="A149" s="35">
         <v>418</v>
       </c>
@@ -10488,7 +10474,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" ht="39" customHeight="1">
+    <row r="150" ht="39" hidden="1" customHeight="1">
       <c r="A150" s="35">
         <v>419</v>
       </c>
@@ -10535,7 +10521,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="151" ht="39" customHeight="1">
+    <row r="151" ht="39" hidden="1" customHeight="1">
       <c r="A151" s="35">
         <v>423</v>
       </c>
@@ -10596,7 +10582,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="152" ht="39" customHeight="1">
+    <row r="152" ht="39" hidden="1" customHeight="1">
       <c r="A152" s="35">
         <v>424</v>
       </c>
@@ -10657,7 +10643,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="153" ht="39" customHeight="1">
+    <row r="153" ht="39" hidden="1" customHeight="1">
       <c r="A153" s="35">
         <v>425</v>
       </c>
@@ -10714,7 +10700,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="154" ht="39" customHeight="1">
+    <row r="154" ht="39" hidden="1" customHeight="1">
       <c r="A154" s="35">
         <v>432</v>
       </c>
@@ -10755,7 +10741,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="155" ht="39" customHeight="1">
+    <row r="155" ht="39" hidden="1" customHeight="1">
       <c r="A155" s="35">
         <v>433</v>
       </c>
@@ -10796,7 +10782,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="156" ht="39" customHeight="1">
+    <row r="156" ht="39" hidden="1" customHeight="1">
       <c r="A156" s="35">
         <v>434</v>
       </c>
@@ -10837,7 +10823,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="157" ht="39" customHeight="1">
+    <row r="157" ht="39" hidden="1" customHeight="1">
       <c r="A157" s="35">
         <v>435</v>
       </c>
@@ -10878,7 +10864,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="158" ht="39" customHeight="1">
+    <row r="158" ht="39" hidden="1" customHeight="1">
       <c r="A158" s="35">
         <v>437</v>
       </c>
@@ -10919,7 +10905,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="159" ht="39" customHeight="1">
+    <row r="159" ht="39" hidden="1" customHeight="1">
       <c r="A159" s="35">
         <v>438</v>
       </c>
@@ -10960,7 +10946,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="160" ht="39" customHeight="1">
+    <row r="160" ht="39" hidden="1" customHeight="1">
       <c r="A160" s="35">
         <v>440</v>
       </c>
@@ -11001,7 +10987,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="161" ht="39" customHeight="1">
+    <row r="161" ht="39" hidden="1" customHeight="1">
       <c r="A161" s="35">
         <v>441</v>
       </c>
@@ -11042,7 +11028,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="162" ht="39" customHeight="1">
+    <row r="162" ht="39" hidden="1" customHeight="1">
       <c r="A162" s="35">
         <v>442</v>
       </c>
@@ -11083,7 +11069,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="163" ht="39" customHeight="1">
+    <row r="163" ht="39" hidden="1" customHeight="1">
       <c r="A163" s="35">
         <v>443</v>
       </c>
@@ -11198,7 +11184,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="166" ht="39" hidden="1" customHeight="1">
+    <row r="166" ht="39" customHeight="1">
       <c r="A166" s="35">
         <v>448</v>
       </c>
@@ -11214,10 +11200,10 @@
       <c r="E166" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="F166" s="38">
-        <v>45919</v>
-      </c>
-      <c r="G166" s="38" t="s">
+      <c r="F166" s="43">
+        <v>45975</v>
+      </c>
+      <c r="G166" s="49" t="s">
         <v>401</v>
       </c>
       <c r="H166" s="38" t="s">
@@ -11245,7 +11231,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="167" ht="33" hidden="1" customHeight="1">
+    <row r="167" ht="33" customHeight="1">
       <c r="A167" s="35">
         <v>449</v>
       </c>
@@ -11261,10 +11247,10 @@
       <c r="E167" s="36" t="s">
         <v>405</v>
       </c>
-      <c r="F167" s="38">
-        <v>45919</v>
-      </c>
-      <c r="G167" s="38" t="s">
+      <c r="F167" s="43">
+        <v>45975</v>
+      </c>
+      <c r="G167" s="49" t="s">
         <v>406</v>
       </c>
       <c r="H167" s="38" t="s">
@@ -11292,7 +11278,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="168" ht="33.75" hidden="1" customHeight="1">
+    <row r="168" ht="33.75" customHeight="1">
       <c r="A168" s="35">
         <v>450</v>
       </c>
@@ -11308,10 +11294,10 @@
       <c r="E168" s="36" t="s">
         <v>410</v>
       </c>
-      <c r="F168" s="38">
-        <v>45919</v>
-      </c>
-      <c r="G168" s="57" t="s">
+      <c r="F168" s="43">
+        <v>45975</v>
+      </c>
+      <c r="G168" s="49" t="s">
         <v>411</v>
       </c>
       <c r="H168" s="38" t="s">
@@ -11339,7 +11325,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="169" ht="20.25" hidden="1" customHeight="1">
+    <row r="169" ht="20.25" customHeight="1">
       <c r="A169" s="35">
         <v>451</v>
       </c>
@@ -11355,10 +11341,10 @@
       <c r="E169" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="F169" s="38">
-        <v>45919</v>
-      </c>
-      <c r="G169" s="45" t="s">
+      <c r="F169" s="43">
+        <v>45975</v>
+      </c>
+      <c r="G169" s="44" t="s">
         <v>416</v>
       </c>
       <c r="H169" s="38" t="s">
@@ -11386,7 +11372,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" ht="15">
+    <row r="170" ht="15" hidden="1">
       <c r="A170" s="35">
         <v>452</v>
       </c>
@@ -11405,7 +11391,7 @@
       <c r="F170" s="38">
         <v>45967</v>
       </c>
-      <c r="G170" s="38" t="s">
+      <c r="G170" s="47" t="s">
         <v>421</v>
       </c>
       <c r="H170" s="38" t="s">
@@ -11433,7 +11419,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="171" ht="14.25" hidden="1" customHeight="1">
+    <row r="171" ht="14.25" customHeight="1">
       <c r="A171" s="35">
         <v>454</v>
       </c>
@@ -11449,10 +11435,10 @@
       <c r="E171" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="F171" s="38">
-        <v>45919</v>
-      </c>
-      <c r="G171" s="57" t="s">
+      <c r="F171" s="43">
+        <v>45975</v>
+      </c>
+      <c r="G171" s="49" t="s">
         <v>426</v>
       </c>
       <c r="H171" s="38" t="s">
@@ -11480,7 +11466,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="172" ht="14.25" hidden="1" customHeight="1">
+    <row r="172" ht="14.25" customHeight="1">
       <c r="A172" s="35">
         <v>455</v>
       </c>
@@ -11496,10 +11482,10 @@
       <c r="E172" s="36" t="s">
         <v>430</v>
       </c>
-      <c r="F172" s="38">
-        <v>45919</v>
-      </c>
-      <c r="G172" s="38" t="s">
+      <c r="F172" s="43">
+        <v>45975</v>
+      </c>
+      <c r="G172" s="44" t="s">
         <v>431</v>
       </c>
       <c r="H172" s="38" t="s">
@@ -11675,7 +11661,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="177" ht="15">
+    <row r="177" ht="15" hidden="1">
       <c r="A177" s="35">
         <v>460</v>
       </c>
@@ -11763,7 +11749,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="179" ht="15">
+    <row r="179" ht="15" hidden="1">
       <c r="A179" s="35">
         <v>462</v>
       </c>
@@ -11919,7 +11905,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="183" ht="15">
+    <row r="183" ht="15" hidden="1">
       <c r="A183" s="35">
         <v>466</v>
       </c>
@@ -12079,7 +12065,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="187" ht="15">
+    <row r="187" ht="15" hidden="1">
       <c r="A187" s="35">
         <v>470</v>
       </c>
@@ -12120,7 +12106,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="188" ht="15">
+    <row r="188" ht="15" hidden="1">
       <c r="A188" s="35">
         <v>471</v>
       </c>
@@ -12167,7 +12153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="189" ht="15">
+    <row r="189" ht="15" hidden="1">
       <c r="A189" s="35">
         <v>472</v>
       </c>
@@ -12214,7 +12200,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="190" ht="15">
+    <row r="190" ht="15" hidden="1">
       <c r="A190" s="35">
         <v>473</v>
       </c>
@@ -12255,7 +12241,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="191" ht="15">
+    <row r="191" ht="15" hidden="1">
       <c r="A191" s="35">
         <v>474</v>
       </c>
@@ -16357,10 +16343,15 @@
   <autoFilter ref="A9:W192">
     <filterColumn colId="2">
       <filters>
-        <filter val="LAB"/>
-        <filter val="RAD"/>
-        <filter val="RAP"/>
+        <filter val="LDO"/>
+        <filter val="RSA"/>
+        <filter val="VPS"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <customFilters and="1">
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="7">
@@ -16750,170 +16741,170 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>488</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="58" t="s">
         <v>489</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="58" t="s">
         <v>490</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="59" t="s">
         <v>491</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="60" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>493</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="62" t="s">
         <v>494</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="63" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="61" t="s">
         <v>493</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="62" t="s">
         <v>496</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="63" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="61" t="s">
         <v>493</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="62" t="s">
         <v>498</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="64" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="61" t="s">
         <v>493</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="62" t="s">
         <v>500</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="63" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="61" t="s">
         <v>493</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="62" t="s">
         <v>502</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="64" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="7" ht="14.5">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="61" t="s">
         <v>493</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="62" t="s">
         <v>504</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="64" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="8" ht="14.5">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="61" t="s">
         <v>493</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="62" t="s">
         <v>506</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="64" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="9" ht="14.5">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="61" t="s">
         <v>493</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="62" t="s">
         <v>508</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="64" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="10" ht="43.5">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="61" t="s">
         <v>510</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="61" t="s">
         <v>493</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="65" t="s">
         <v>511</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="63" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="61" t="s">
         <v>493</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="62" t="s">
         <v>513</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="64" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="D12" s="67"/>
+      <c r="D12" s="66"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="D13" s="67"/>
+      <c r="D13" s="66"/>
     </row>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1"/>

--- a/GATEWAY/A1#111#PIAFONDAZIONEPANICOXX/AZ-PANICO/FSE-PANICO/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#PIAFONDAZIONEPANICOXX/AZ-PANICO/FSE-PANICO/1.0/report-checklist.xlsx
@@ -4614,7 +4614,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" ht="128.25" hidden="1">
+    <row r="10" ht="128.25">
       <c r="A10" s="33">
         <v>4</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" ht="11" hidden="1" customHeight="1">
+    <row r="11" ht="11" customHeight="1">
       <c r="A11" s="35">
         <v>28</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" ht="11" hidden="1" customHeight="1">
+    <row r="14" ht="11" customHeight="1">
       <c r="A14" s="35">
         <v>31</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" ht="39" hidden="1" customHeight="1">
+    <row r="19" ht="39" customHeight="1">
       <c r="A19" s="35">
         <v>36</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" ht="35.25" hidden="1" customHeight="1">
+    <row r="22" ht="35.25" customHeight="1">
       <c r="A22" s="35">
         <v>39</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" ht="39" hidden="1" customHeight="1">
+    <row r="27" ht="39" customHeight="1">
       <c r="A27" s="35">
         <v>44</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" s="0" customFormat="1" ht="39" hidden="1" customHeight="1">
+    <row r="28" s="0" customFormat="1" ht="39" customHeight="1">
       <c r="A28" s="35">
         <v>45</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>108</v>
       </c>
       <c r="F28" s="38">
-        <v>45915</v>
+        <v>45975</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
@@ -5646,7 +5646,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" ht="39" hidden="1" customHeight="1">
+    <row r="30" ht="39" customHeight="1">
       <c r="A30" s="35">
         <v>47</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" s="0" customFormat="1" ht="39" hidden="1" customHeight="1">
+    <row r="31" s="0" customFormat="1" ht="39" customHeight="1">
       <c r="A31" s="35">
         <v>48</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>108</v>
       </c>
       <c r="F31" s="38">
-        <v>45915</v>
+        <v>45975</v>
       </c>
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
@@ -5838,7 +5838,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" s="0" customFormat="1" ht="39" hidden="1" customHeight="1">
+    <row r="34" s="0" customFormat="1" ht="39" customHeight="1">
       <c r="A34" s="35">
         <v>51</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>108</v>
       </c>
       <c r="F34" s="38">
-        <v>45915</v>
+        <v>45975</v>
       </c>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
@@ -5895,7 +5895,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" ht="39" hidden="1" customHeight="1">
+    <row r="35" ht="39" customHeight="1">
       <c r="A35" s="35">
         <v>53</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" ht="39" hidden="1" customHeight="1">
+    <row r="36" ht="39" customHeight="1">
       <c r="A36" s="35">
         <v>55</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" ht="39" hidden="1" customHeight="1">
+    <row r="37" ht="39" customHeight="1">
       <c r="A37" s="35">
         <v>56</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" ht="39" hidden="1" customHeight="1">
+    <row r="38" ht="39" customHeight="1">
       <c r="A38" s="35">
         <v>57</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" ht="39" hidden="1" customHeight="1">
+    <row r="39" ht="39" customHeight="1">
       <c r="A39" s="35">
         <v>59</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" ht="39" hidden="1" customHeight="1">
+    <row r="40" ht="39" customHeight="1">
       <c r="A40" s="35">
         <v>60</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" ht="39" hidden="1" customHeight="1">
+    <row r="41" ht="39" customHeight="1">
       <c r="A41" s="35">
         <v>61</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" ht="39" hidden="1" customHeight="1">
+    <row r="42" ht="39" customHeight="1">
       <c r="A42" s="35">
         <v>62</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" ht="39" hidden="1" customHeight="1">
+    <row r="43" ht="39" customHeight="1">
       <c r="A43" s="35">
         <v>64</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" ht="39" hidden="1" customHeight="1">
+    <row r="44" ht="39" customHeight="1">
       <c r="A44" s="35">
         <v>66</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" ht="39" hidden="1" customHeight="1">
+    <row r="45" ht="39" customHeight="1">
       <c r="A45" s="35">
         <v>67</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" ht="39" hidden="1" customHeight="1">
+    <row r="46" ht="39" customHeight="1">
       <c r="A46" s="35">
         <v>68</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" ht="39" hidden="1" customHeight="1">
+    <row r="47" ht="39" customHeight="1">
       <c r="A47" s="35">
         <v>69</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" ht="39" hidden="1" customHeight="1">
+    <row r="48" ht="39" customHeight="1">
       <c r="A48" s="35">
         <v>70</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" ht="39" hidden="1" customHeight="1">
+    <row r="49" ht="39" customHeight="1">
       <c r="A49" s="35">
         <v>71</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" ht="39" hidden="1" customHeight="1">
+    <row r="50" ht="39" customHeight="1">
       <c r="A50" s="35">
         <v>72</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" ht="39" hidden="1" customHeight="1">
+    <row r="51" ht="39" customHeight="1">
       <c r="A51" s="35">
         <v>73</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" ht="39" hidden="1" customHeight="1">
+    <row r="52" ht="39" customHeight="1">
       <c r="A52" s="35">
         <v>74</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" ht="39" hidden="1" customHeight="1">
+    <row r="53" ht="39" customHeight="1">
       <c r="A53" s="35">
         <v>76</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" ht="39" hidden="1" customHeight="1">
+    <row r="54" ht="39" customHeight="1">
       <c r="A54" s="35">
         <v>78</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" ht="39" hidden="1" customHeight="1">
+    <row r="55" ht="39" customHeight="1">
       <c r="A55" s="35">
         <v>79</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" ht="39" hidden="1" customHeight="1">
+    <row r="56" ht="39" customHeight="1">
       <c r="A56" s="35">
         <v>80</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" ht="39" hidden="1" customHeight="1">
+    <row r="57" ht="39" customHeight="1">
       <c r="A57" s="35">
         <v>81</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" ht="39" hidden="1" customHeight="1">
+    <row r="58" ht="39" customHeight="1">
       <c r="A58" s="35">
         <v>83</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" ht="39" hidden="1" customHeight="1">
+    <row r="59" ht="39" customHeight="1">
       <c r="A59" s="35">
         <v>84</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" ht="39" hidden="1" customHeight="1">
+    <row r="60" ht="39" customHeight="1">
       <c r="A60" s="35">
         <v>85</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" ht="39" hidden="1" customHeight="1">
+    <row r="61" ht="39" customHeight="1">
       <c r="A61" s="35">
         <v>86</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" ht="39" hidden="1" customHeight="1">
+    <row r="62" ht="39" customHeight="1">
       <c r="A62" s="35">
         <v>87</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" ht="39" hidden="1" customHeight="1">
+    <row r="63" ht="39" customHeight="1">
       <c r="A63" s="35">
         <v>88</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" ht="39" hidden="1" customHeight="1">
+    <row r="64" ht="39" customHeight="1">
       <c r="A64" s="35">
         <v>89</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" ht="39" hidden="1" customHeight="1">
+    <row r="65" ht="39" customHeight="1">
       <c r="A65" s="35">
         <v>90</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" ht="39" hidden="1" customHeight="1">
+    <row r="66" ht="39" customHeight="1">
       <c r="A66" s="35">
         <v>91</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" ht="39" hidden="1" customHeight="1">
+    <row r="67" ht="39" customHeight="1">
       <c r="A67" s="35">
         <v>92</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" ht="39" hidden="1" customHeight="1">
+    <row r="68" ht="39" customHeight="1">
       <c r="A68" s="35">
         <v>93</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="93" ht="39" hidden="1" customHeight="1">
+    <row r="93" ht="39" customHeight="1">
       <c r="A93" s="35">
         <v>123</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="94" ht="39" hidden="1" customHeight="1">
+    <row r="94" ht="39" customHeight="1">
       <c r="A94" s="35">
         <v>125</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" ht="39" hidden="1" customHeight="1">
+    <row r="95" ht="39" customHeight="1">
       <c r="A95" s="35">
         <v>126</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="96" ht="39" hidden="1" customHeight="1">
+    <row r="96" ht="39" customHeight="1">
       <c r="A96" s="35">
         <v>127</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="97" ht="39" hidden="1" customHeight="1">
+    <row r="97" ht="39" customHeight="1">
       <c r="A97" s="35">
         <v>128</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="98" ht="39" hidden="1" customHeight="1">
+    <row r="98" ht="39" customHeight="1">
       <c r="A98" s="35">
         <v>129</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="99" ht="39" hidden="1" customHeight="1">
+    <row r="99" ht="39" customHeight="1">
       <c r="A99" s="35">
         <v>130</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="100" ht="39" hidden="1" customHeight="1">
+    <row r="100" ht="39" customHeight="1">
       <c r="A100" s="35">
         <v>131</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" ht="39" hidden="1" customHeight="1">
+    <row r="101" ht="39" customHeight="1">
       <c r="A101" s="35">
         <v>132</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="102" ht="39" hidden="1" customHeight="1">
+    <row r="102" ht="39" customHeight="1">
       <c r="A102" s="35">
         <v>133</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103" ht="39" hidden="1" customHeight="1">
+    <row r="103" ht="39" customHeight="1">
       <c r="A103" s="35">
         <v>134</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="104" ht="39" hidden="1" customHeight="1">
+    <row r="104" ht="39" customHeight="1">
       <c r="A104" s="35">
         <v>135</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="105" ht="39" hidden="1" customHeight="1">
+    <row r="105" ht="39" customHeight="1">
       <c r="A105" s="35">
         <v>136</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="106" ht="39" hidden="1" customHeight="1">
+    <row r="106" ht="39" customHeight="1">
       <c r="A106" s="35">
         <v>137</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="107" ht="39" hidden="1" customHeight="1">
+    <row r="107" ht="39" customHeight="1">
       <c r="A107" s="35">
         <v>138</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="108" ht="39" hidden="1" customHeight="1">
+    <row r="108" ht="39" customHeight="1">
       <c r="A108" s="35">
         <v>139</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="109" ht="39" hidden="1" customHeight="1">
+    <row r="109" ht="39" customHeight="1">
       <c r="A109" s="35">
         <v>140</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="110" ht="39" hidden="1" customHeight="1">
+    <row r="110" ht="39" customHeight="1">
       <c r="A110" s="35">
         <v>141</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="111" ht="39" hidden="1" customHeight="1">
+    <row r="111" ht="39" customHeight="1">
       <c r="A111" s="35">
         <v>142</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="112" ht="39" hidden="1" customHeight="1">
+    <row r="112" ht="39" customHeight="1">
       <c r="A112" s="35">
         <v>143</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="113" ht="39" hidden="1" customHeight="1">
+    <row r="113" ht="39" customHeight="1">
       <c r="A113" s="35">
         <v>144</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="114" ht="39" hidden="1" customHeight="1">
+    <row r="114" ht="39" customHeight="1">
       <c r="A114" s="35">
         <v>145</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="115" ht="39" hidden="1" customHeight="1">
+    <row r="115" ht="39" customHeight="1">
       <c r="A115" s="35">
         <v>146</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="116" ht="78" hidden="1" customHeight="1">
+    <row r="116" ht="78" customHeight="1">
       <c r="A116" s="35">
         <v>152</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="117" ht="39" hidden="1" customHeight="1">
+    <row r="117" ht="39" customHeight="1">
       <c r="A117" s="35">
         <v>154</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="118" ht="39" hidden="1" customHeight="1">
+    <row r="118" ht="39" customHeight="1">
       <c r="A118" s="35">
         <v>155</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="119" ht="39" hidden="1" customHeight="1">
+    <row r="119" ht="39" customHeight="1">
       <c r="A119" s="35">
         <v>156</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="120" ht="39" hidden="1" customHeight="1">
+    <row r="120" ht="39" customHeight="1">
       <c r="A120" s="35">
         <v>159</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="121" ht="39" hidden="1" customHeight="1">
+    <row r="121" ht="39" customHeight="1">
       <c r="A121" s="35">
         <v>160</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="122" ht="39" hidden="1" customHeight="1">
+    <row r="122" ht="39" customHeight="1">
       <c r="A122" s="35">
         <v>161</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="123" ht="39" hidden="1" customHeight="1">
+    <row r="123" ht="39" customHeight="1">
       <c r="A123" s="35">
         <v>162</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="124" ht="39" hidden="1" customHeight="1">
+    <row r="124" ht="39" customHeight="1">
       <c r="A124" s="35">
         <v>163</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="125" ht="39" hidden="1" customHeight="1">
+    <row r="125" ht="39" customHeight="1">
       <c r="A125" s="35">
         <v>164</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="126" ht="39" hidden="1" customHeight="1">
+    <row r="126" ht="39" customHeight="1">
       <c r="A126" s="35">
         <v>165</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="127" ht="39" hidden="1" customHeight="1">
+    <row r="127" ht="39" customHeight="1">
       <c r="A127" s="35">
         <v>166</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="128" ht="39" hidden="1" customHeight="1">
+    <row r="128" ht="39" customHeight="1">
       <c r="A128" s="35">
         <v>167</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="129" ht="39" hidden="1" customHeight="1">
+    <row r="129" ht="39" customHeight="1">
       <c r="A129" s="35">
         <v>168</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="130" ht="39" hidden="1" customHeight="1">
+    <row r="130" ht="39" customHeight="1">
       <c r="A130" s="35">
         <v>169</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="146" ht="15" hidden="1">
+    <row r="146" ht="15">
       <c r="A146" s="35">
         <v>191</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="147" ht="39" hidden="1" customHeight="1">
+    <row r="147" ht="39" customHeight="1">
       <c r="A147" s="35">
         <v>376</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="148" ht="39" hidden="1" customHeight="1">
+    <row r="148" ht="39" customHeight="1">
       <c r="A148" s="35">
         <v>417</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="149" ht="39" hidden="1" customHeight="1">
+    <row r="149" ht="39" customHeight="1">
       <c r="A149" s="35">
         <v>418</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" ht="39" hidden="1" customHeight="1">
+    <row r="150" ht="39" customHeight="1">
       <c r="A150" s="35">
         <v>419</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="151" ht="39" hidden="1" customHeight="1">
+    <row r="151" ht="39" customHeight="1">
       <c r="A151" s="35">
         <v>423</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="152" ht="39" hidden="1" customHeight="1">
+    <row r="152" ht="39" customHeight="1">
       <c r="A152" s="35">
         <v>424</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="153" ht="39" hidden="1" customHeight="1">
+    <row r="153" ht="39" customHeight="1">
       <c r="A153" s="35">
         <v>425</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="154" ht="39" hidden="1" customHeight="1">
+    <row r="154" ht="39" customHeight="1">
       <c r="A154" s="35">
         <v>432</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="155" ht="39" hidden="1" customHeight="1">
+    <row r="155" ht="39" customHeight="1">
       <c r="A155" s="35">
         <v>433</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="156" ht="39" hidden="1" customHeight="1">
+    <row r="156" ht="39" customHeight="1">
       <c r="A156" s="35">
         <v>434</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="157" ht="39" hidden="1" customHeight="1">
+    <row r="157" ht="39" customHeight="1">
       <c r="A157" s="35">
         <v>435</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="158" ht="39" hidden="1" customHeight="1">
+    <row r="158" ht="39" customHeight="1">
       <c r="A158" s="35">
         <v>437</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="159" ht="39" hidden="1" customHeight="1">
+    <row r="159" ht="39" customHeight="1">
       <c r="A159" s="35">
         <v>438</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="160" ht="39" hidden="1" customHeight="1">
+    <row r="160" ht="39" customHeight="1">
       <c r="A160" s="35">
         <v>440</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="161" ht="39" hidden="1" customHeight="1">
+    <row r="161" ht="39" customHeight="1">
       <c r="A161" s="35">
         <v>441</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="162" ht="39" hidden="1" customHeight="1">
+    <row r="162" ht="39" customHeight="1">
       <c r="A162" s="35">
         <v>442</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="163" ht="39" hidden="1" customHeight="1">
+    <row r="163" ht="39" customHeight="1">
       <c r="A163" s="35">
         <v>443</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" ht="15" hidden="1">
+    <row r="170" ht="15">
       <c r="A170" s="35">
         <v>452</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="177" ht="15" hidden="1">
+    <row r="177" ht="15">
       <c r="A177" s="35">
         <v>460</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="178" ht="14.25" hidden="1" customHeight="1">
+    <row r="178" ht="14.25" customHeight="1">
       <c r="A178" s="35">
         <v>461</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="179" ht="15" hidden="1">
+    <row r="179" ht="15">
       <c r="A179" s="35">
         <v>462</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="180" ht="14.25" hidden="1" customHeight="1">
+    <row r="180" ht="14.25" customHeight="1">
       <c r="A180" s="35">
         <v>463</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="183" ht="15" hidden="1">
+    <row r="183" ht="15">
       <c r="A183" s="35">
         <v>466</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="184" ht="14.25" hidden="1" customHeight="1">
+    <row r="184" ht="14.25" customHeight="1">
       <c r="A184" s="35">
         <v>467</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="185" ht="22.5" hidden="1" customHeight="1">
+    <row r="185" ht="22.5" customHeight="1">
       <c r="A185" s="35">
         <v>468</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="187" ht="15" hidden="1">
+    <row r="187" ht="15">
       <c r="A187" s="35">
         <v>470</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="188" ht="15" hidden="1">
+    <row r="188" ht="15">
       <c r="A188" s="35">
         <v>471</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="189" ht="15" hidden="1">
+    <row r="189" ht="15">
       <c r="A189" s="35">
         <v>472</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="190" ht="15" hidden="1">
+    <row r="190" ht="15">
       <c r="A190" s="35">
         <v>473</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="191" ht="15" hidden="1">
+    <row r="191" ht="15">
       <c r="A191" s="35">
         <v>474</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="192" ht="29.25" hidden="1" customHeight="1">
+    <row r="192" ht="29.25" customHeight="1">
       <c r="A192" s="35">
         <v>475</v>
       </c>
@@ -16343,15 +16343,13 @@
   <autoFilter ref="A9:W192">
     <filterColumn colId="2">
       <filters>
+        <filter val="LAB"/>
         <filter val="LDO"/>
+        <filter val="RAD"/>
+        <filter val="RAP"/>
         <filter val="RSA"/>
         <filter val="VPS"/>
       </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <customFilters and="1">
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="7">

--- a/GATEWAY/A1#111#PIAFONDAZIONEPANICOXX/AZ-PANICO/FSE-PANICO/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#PIAFONDAZIONEPANICOXX/AZ-PANICO/FSE-PANICO/1.0/report-checklist.xlsx
@@ -346,7 +346,7 @@
     <t xml:space="preserve">Si è verificato un errore durante la comunicazione con FSE. Dettaglio Errore: "Campo token JWT non valido. - Il campo purpose_of_use non è valorizzato". Contattare il CED.</t>
   </si>
   <si>
-    <t xml:space="preserve">Errore segnalato all'utente.</t>
+    <t xml:space="preserve">Errore segnalato all'utente/medico indicando il mancato invio del referto al FSE. Il sistema segnalerà il mancato invio al personale tecnico/backoffice che interverrà per correggere l'errore che ha portato all'errata compilazione del token JWT fino ad ottenere l'effettivo invio del documento al FSE.</t>
   </si>
   <si>
     <t>KO</t>
@@ -527,7 +527,7 @@
     <t xml:space="preserve">Il servizio FSE non è attualmente disponibile, non è possibile validare e pubblicare il referto sul Fascicolo Elettronico del paziente al momento. Verrà tentato in automatico di pubblicarlo in un momento successivo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene segnalato al medico che il servizio di FSE per validare il referto non è raggiungibile. Viene consentito di consegnare il referto al paziente. Un processo in background ritenterà l'invio in un momento successivo.</t>
+    <t xml:space="preserve">Viene segnalato al medico che il servizio di FSE per validare il referto non è raggiungibile. Viene consentito di consegnare il referto al paziente. Un processo in background ritenterà varie volte l'invio. In caso di persistenza dell'irraggiungibilità del servizio, il sistema segnalerà il mancato invio al backoffice che interverrà manualmente per effettuare l'invio quando il sistema tornerà raggiungibile.</t>
   </si>
   <si>
     <t>VALIDAZIONE_LDO_TIMEOUT</t>
@@ -2006,7 +2006,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -2383,6 +2383,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="none"/>
       <bottom style="thin">
         <color auto="1"/>
@@ -2409,7 +2422,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2542,13 +2555,16 @@
     <xf fontId="2" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf fontId="2" fillId="0" borderId="29" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2557,10 +2573,10 @@
     <xf fontId="2" fillId="0" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="7" fillId="3" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="3" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="3" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="8" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2569,17 +2585,17 @@
     <xf fontId="9" fillId="0" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
@@ -4614,7 +4630,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" ht="128.25">
+    <row r="10" ht="128.25" hidden="1">
       <c r="A10" s="33">
         <v>4</v>
       </c>
@@ -4710,7 +4726,7 @@
         <v>61</v>
       </c>
       <c r="R11" s="39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S11" s="39" t="s">
         <v>63</v>
@@ -4771,7 +4787,7 @@
         <v>61</v>
       </c>
       <c r="R12" s="39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S12" s="39" t="s">
         <v>63</v>
@@ -4869,7 +4885,7 @@
         <v>61</v>
       </c>
       <c r="R14" s="39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S14" s="39" t="s">
         <v>63</v>
@@ -4930,7 +4946,7 @@
         <v>61</v>
       </c>
       <c r="R15" s="39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S15" s="39" t="s">
         <v>63</v>
@@ -5065,7 +5081,7 @@
         <v>61</v>
       </c>
       <c r="R18" s="39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S18" s="39" t="s">
         <v>63</v>
@@ -5126,7 +5142,7 @@
         <v>61</v>
       </c>
       <c r="R19" s="39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S19" s="39" t="s">
         <v>63</v>
@@ -5187,7 +5203,7 @@
         <v>61</v>
       </c>
       <c r="R20" s="39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S20" s="39" t="s">
         <v>63</v>
@@ -5285,7 +5301,7 @@
         <v>61</v>
       </c>
       <c r="R22" s="39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S22" s="39" t="s">
         <v>63</v>
@@ -5346,7 +5362,7 @@
         <v>61</v>
       </c>
       <c r="R23" s="39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S23" s="39" t="s">
         <v>63</v>
@@ -5481,7 +5497,7 @@
         <v>61</v>
       </c>
       <c r="R26" s="39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S26" s="39" t="s">
         <v>63</v>
@@ -5529,16 +5545,16 @@
       <c r="O27" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="P27" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q27" s="51" t="s">
+      <c r="P27" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="R27" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="S27" s="52" t="s">
+      <c r="Q27" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="R27" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="S27" s="53" t="s">
         <v>110</v>
       </c>
       <c r="T27" s="39"/>
@@ -5577,25 +5593,25 @@
       </c>
       <c r="K28" s="39"/>
       <c r="L28" s="50"/>
-      <c r="M28" s="53" t="s">
+      <c r="M28" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="N28" s="53" t="s">
+      <c r="N28" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="O28" s="53" t="s">
+      <c r="O28" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="P28" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q28" s="53" t="s">
+      <c r="P28" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="R28" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="S28" s="54" t="s">
+      <c r="Q28" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="R28" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="S28" s="55" t="s">
         <v>110</v>
       </c>
       <c r="T28" s="39"/>
@@ -5630,13 +5646,13 @@
       <c r="J29" s="39"/>
       <c r="K29" s="39"/>
       <c r="L29" s="39"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
       <c r="T29" s="39"/>
       <c r="U29" s="40" t="s">
         <v>54</v>
@@ -5682,16 +5698,16 @@
       <c r="O30" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="P30" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q30" s="51" t="s">
+      <c r="P30" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="R30" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="S30" s="52" t="s">
+      <c r="Q30" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="R30" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="S30" s="53" t="s">
         <v>110</v>
       </c>
       <c r="T30" s="39"/>
@@ -5730,28 +5746,28 @@
       </c>
       <c r="K31" s="39"/>
       <c r="L31" s="50"/>
-      <c r="M31" s="53" t="s">
+      <c r="M31" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="N31" s="53" t="s">
+      <c r="N31" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="O31" s="53" t="s">
+      <c r="O31" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="P31" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q31" s="53" t="s">
+      <c r="P31" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="R31" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="S31" s="54" t="s">
+      <c r="Q31" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="R31" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="S31" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="T31" s="56"/>
+      <c r="T31" s="57"/>
       <c r="U31" s="40" t="s">
         <v>54</v>
       </c>
@@ -5783,13 +5799,13 @@
       <c r="J32" s="39"/>
       <c r="K32" s="39"/>
       <c r="L32" s="39"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
       <c r="T32" s="39"/>
       <c r="U32" s="40" t="s">
         <v>54</v>
@@ -5875,15 +5891,15 @@
         <v>109</v>
       </c>
       <c r="P34" s="51" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q34" s="51" t="s">
         <v>54</v>
       </c>
       <c r="R34" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="S34" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="S34" s="55" t="s">
         <v>110</v>
       </c>
       <c r="T34" s="39"/>
@@ -5895,7 +5911,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" ht="39" customHeight="1">
+    <row r="35" ht="39" hidden="1" customHeight="1">
       <c r="A35" s="35">
         <v>53</v>
       </c>
@@ -5922,13 +5938,13 @@
         <v>120</v>
       </c>
       <c r="L35" s="39"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="55"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
       <c r="T35" s="39"/>
       <c r="U35" s="40"/>
       <c r="V35" s="41"/>
@@ -5936,7 +5952,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" ht="39" customHeight="1">
+    <row r="36" ht="39" hidden="1" customHeight="1">
       <c r="A36" s="35">
         <v>55</v>
       </c>
@@ -5977,7 +5993,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" ht="39" customHeight="1">
+    <row r="37" ht="39" hidden="1" customHeight="1">
       <c r="A37" s="35">
         <v>56</v>
       </c>
@@ -6018,7 +6034,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" ht="39" customHeight="1">
+    <row r="38" ht="39" hidden="1" customHeight="1">
       <c r="A38" s="35">
         <v>57</v>
       </c>
@@ -6059,7 +6075,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" ht="39" customHeight="1">
+    <row r="39" ht="39" hidden="1" customHeight="1">
       <c r="A39" s="35">
         <v>59</v>
       </c>
@@ -6100,7 +6116,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" ht="39" customHeight="1">
+    <row r="40" ht="39" hidden="1" customHeight="1">
       <c r="A40" s="35">
         <v>60</v>
       </c>
@@ -6141,7 +6157,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" ht="39" customHeight="1">
+    <row r="41" ht="39" hidden="1" customHeight="1">
       <c r="A41" s="35">
         <v>61</v>
       </c>
@@ -6182,7 +6198,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" ht="39" customHeight="1">
+    <row r="42" ht="39" hidden="1" customHeight="1">
       <c r="A42" s="35">
         <v>62</v>
       </c>
@@ -6223,7 +6239,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" ht="39" customHeight="1">
+    <row r="43" ht="39" hidden="1" customHeight="1">
       <c r="A43" s="35">
         <v>64</v>
       </c>
@@ -6264,7 +6280,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" ht="39" customHeight="1">
+    <row r="44" ht="39" hidden="1" customHeight="1">
       <c r="A44" s="35">
         <v>66</v>
       </c>
@@ -6305,7 +6321,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" ht="39" customHeight="1">
+    <row r="45" ht="39" hidden="1" customHeight="1">
       <c r="A45" s="35">
         <v>67</v>
       </c>
@@ -6346,7 +6362,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" ht="39" customHeight="1">
+    <row r="46" ht="39" hidden="1" customHeight="1">
       <c r="A46" s="35">
         <v>68</v>
       </c>
@@ -6387,7 +6403,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" ht="39" customHeight="1">
+    <row r="47" ht="39" hidden="1" customHeight="1">
       <c r="A47" s="35">
         <v>69</v>
       </c>
@@ -6428,7 +6444,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" ht="39" customHeight="1">
+    <row r="48" ht="39" hidden="1" customHeight="1">
       <c r="A48" s="35">
         <v>70</v>
       </c>
@@ -6469,7 +6485,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" ht="39" customHeight="1">
+    <row r="49" ht="39" hidden="1" customHeight="1">
       <c r="A49" s="35">
         <v>71</v>
       </c>
@@ -6510,7 +6526,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" ht="39" customHeight="1">
+    <row r="50" ht="39" hidden="1" customHeight="1">
       <c r="A50" s="35">
         <v>72</v>
       </c>
@@ -6551,7 +6567,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" ht="39" customHeight="1">
+    <row r="51" ht="39" hidden="1" customHeight="1">
       <c r="A51" s="35">
         <v>73</v>
       </c>
@@ -6592,7 +6608,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" ht="39" customHeight="1">
+    <row r="52" ht="39" hidden="1" customHeight="1">
       <c r="A52" s="35">
         <v>74</v>
       </c>
@@ -6633,7 +6649,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" ht="39" customHeight="1">
+    <row r="53" ht="39" hidden="1" customHeight="1">
       <c r="A53" s="35">
         <v>76</v>
       </c>
@@ -6674,7 +6690,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" ht="39" customHeight="1">
+    <row r="54" ht="39" hidden="1" customHeight="1">
       <c r="A54" s="35">
         <v>78</v>
       </c>
@@ -6715,7 +6731,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" ht="39" customHeight="1">
+    <row r="55" ht="39" hidden="1" customHeight="1">
       <c r="A55" s="35">
         <v>79</v>
       </c>
@@ -6756,7 +6772,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" ht="39" customHeight="1">
+    <row r="56" ht="39" hidden="1" customHeight="1">
       <c r="A56" s="35">
         <v>80</v>
       </c>
@@ -6797,7 +6813,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" ht="39" customHeight="1">
+    <row r="57" ht="39" hidden="1" customHeight="1">
       <c r="A57" s="35">
         <v>81</v>
       </c>
@@ -6838,7 +6854,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" ht="39" customHeight="1">
+    <row r="58" ht="39" hidden="1" customHeight="1">
       <c r="A58" s="35">
         <v>83</v>
       </c>
@@ -6879,7 +6895,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" ht="39" customHeight="1">
+    <row r="59" ht="39" hidden="1" customHeight="1">
       <c r="A59" s="35">
         <v>84</v>
       </c>
@@ -6920,7 +6936,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" ht="39" customHeight="1">
+    <row r="60" ht="39" hidden="1" customHeight="1">
       <c r="A60" s="35">
         <v>85</v>
       </c>
@@ -6961,7 +6977,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" ht="39" customHeight="1">
+    <row r="61" ht="39" hidden="1" customHeight="1">
       <c r="A61" s="35">
         <v>86</v>
       </c>
@@ -7002,7 +7018,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" ht="39" customHeight="1">
+    <row r="62" ht="39" hidden="1" customHeight="1">
       <c r="A62" s="35">
         <v>87</v>
       </c>
@@ -7043,7 +7059,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" ht="39" customHeight="1">
+    <row r="63" ht="39" hidden="1" customHeight="1">
       <c r="A63" s="35">
         <v>88</v>
       </c>
@@ -7084,7 +7100,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" ht="39" customHeight="1">
+    <row r="64" ht="39" hidden="1" customHeight="1">
       <c r="A64" s="35">
         <v>89</v>
       </c>
@@ -7125,7 +7141,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" ht="39" customHeight="1">
+    <row r="65" ht="39" hidden="1" customHeight="1">
       <c r="A65" s="35">
         <v>90</v>
       </c>
@@ -7166,7 +7182,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" ht="39" customHeight="1">
+    <row r="66" ht="39" hidden="1" customHeight="1">
       <c r="A66" s="35">
         <v>91</v>
       </c>
@@ -7207,7 +7223,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" ht="39" customHeight="1">
+    <row r="67" ht="39" hidden="1" customHeight="1">
       <c r="A67" s="35">
         <v>92</v>
       </c>
@@ -7248,7 +7264,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" ht="39" customHeight="1">
+    <row r="68" ht="39" hidden="1" customHeight="1">
       <c r="A68" s="35">
         <v>93</v>
       </c>
@@ -8177,7 +8193,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="93" ht="39" customHeight="1">
+    <row r="93" ht="39" hidden="1" customHeight="1">
       <c r="A93" s="35">
         <v>123</v>
       </c>
@@ -8218,7 +8234,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="94" ht="39" customHeight="1">
+    <row r="94" ht="39" hidden="1" customHeight="1">
       <c r="A94" s="35">
         <v>125</v>
       </c>
@@ -8259,7 +8275,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" ht="39" customHeight="1">
+    <row r="95" ht="39" hidden="1" customHeight="1">
       <c r="A95" s="35">
         <v>126</v>
       </c>
@@ -8300,7 +8316,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="96" ht="39" customHeight="1">
+    <row r="96" ht="39" hidden="1" customHeight="1">
       <c r="A96" s="35">
         <v>127</v>
       </c>
@@ -8341,7 +8357,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="97" ht="39" customHeight="1">
+    <row r="97" ht="39" hidden="1" customHeight="1">
       <c r="A97" s="35">
         <v>128</v>
       </c>
@@ -8382,7 +8398,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="98" ht="39" customHeight="1">
+    <row r="98" ht="39" hidden="1" customHeight="1">
       <c r="A98" s="35">
         <v>129</v>
       </c>
@@ -8423,7 +8439,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="99" ht="39" customHeight="1">
+    <row r="99" ht="39" hidden="1" customHeight="1">
       <c r="A99" s="35">
         <v>130</v>
       </c>
@@ -8464,7 +8480,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="100" ht="39" customHeight="1">
+    <row r="100" ht="39" hidden="1" customHeight="1">
       <c r="A100" s="35">
         <v>131</v>
       </c>
@@ -8505,7 +8521,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" ht="39" customHeight="1">
+    <row r="101" ht="39" hidden="1" customHeight="1">
       <c r="A101" s="35">
         <v>132</v>
       </c>
@@ -8546,7 +8562,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="102" ht="39" customHeight="1">
+    <row r="102" ht="39" hidden="1" customHeight="1">
       <c r="A102" s="35">
         <v>133</v>
       </c>
@@ -8587,7 +8603,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103" ht="39" customHeight="1">
+    <row r="103" ht="39" hidden="1" customHeight="1">
       <c r="A103" s="35">
         <v>134</v>
       </c>
@@ -8628,7 +8644,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="104" ht="39" customHeight="1">
+    <row r="104" ht="39" hidden="1" customHeight="1">
       <c r="A104" s="35">
         <v>135</v>
       </c>
@@ -8669,7 +8685,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="105" ht="39" customHeight="1">
+    <row r="105" ht="39" hidden="1" customHeight="1">
       <c r="A105" s="35">
         <v>136</v>
       </c>
@@ -8710,7 +8726,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="106" ht="39" customHeight="1">
+    <row r="106" ht="39" hidden="1" customHeight="1">
       <c r="A106" s="35">
         <v>137</v>
       </c>
@@ -8751,7 +8767,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="107" ht="39" customHeight="1">
+    <row r="107" ht="39" hidden="1" customHeight="1">
       <c r="A107" s="35">
         <v>138</v>
       </c>
@@ -8792,7 +8808,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="108" ht="39" customHeight="1">
+    <row r="108" ht="39" hidden="1" customHeight="1">
       <c r="A108" s="35">
         <v>139</v>
       </c>
@@ -8833,7 +8849,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="109" ht="39" customHeight="1">
+    <row r="109" ht="39" hidden="1" customHeight="1">
       <c r="A109" s="35">
         <v>140</v>
       </c>
@@ -8874,7 +8890,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="110" ht="39" customHeight="1">
+    <row r="110" ht="39" hidden="1" customHeight="1">
       <c r="A110" s="35">
         <v>141</v>
       </c>
@@ -8915,7 +8931,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="111" ht="39" customHeight="1">
+    <row r="111" ht="39" hidden="1" customHeight="1">
       <c r="A111" s="35">
         <v>142</v>
       </c>
@@ -8956,7 +8972,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="112" ht="39" customHeight="1">
+    <row r="112" ht="39" hidden="1" customHeight="1">
       <c r="A112" s="35">
         <v>143</v>
       </c>
@@ -8997,7 +9013,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="113" ht="39" customHeight="1">
+    <row r="113" ht="39" hidden="1" customHeight="1">
       <c r="A113" s="35">
         <v>144</v>
       </c>
@@ -9038,7 +9054,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="114" ht="39" customHeight="1">
+    <row r="114" ht="39" hidden="1" customHeight="1">
       <c r="A114" s="35">
         <v>145</v>
       </c>
@@ -9079,7 +9095,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="115" ht="39" customHeight="1">
+    <row r="115" ht="39" hidden="1" customHeight="1">
       <c r="A115" s="35">
         <v>146</v>
       </c>
@@ -9120,7 +9136,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="116" ht="78" customHeight="1">
+    <row r="116" ht="78" hidden="1" customHeight="1">
       <c r="A116" s="35">
         <v>152</v>
       </c>
@@ -9161,7 +9177,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="117" ht="39" customHeight="1">
+    <row r="117" ht="39" hidden="1" customHeight="1">
       <c r="A117" s="35">
         <v>154</v>
       </c>
@@ -9202,7 +9218,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="118" ht="39" customHeight="1">
+    <row r="118" ht="39" hidden="1" customHeight="1">
       <c r="A118" s="35">
         <v>155</v>
       </c>
@@ -9243,7 +9259,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="119" ht="39" customHeight="1">
+    <row r="119" ht="39" hidden="1" customHeight="1">
       <c r="A119" s="35">
         <v>156</v>
       </c>
@@ -9284,7 +9300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="120" ht="39" customHeight="1">
+    <row r="120" ht="39" hidden="1" customHeight="1">
       <c r="A120" s="35">
         <v>159</v>
       </c>
@@ -9325,7 +9341,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="121" ht="39" customHeight="1">
+    <row r="121" ht="39" hidden="1" customHeight="1">
       <c r="A121" s="35">
         <v>160</v>
       </c>
@@ -9366,7 +9382,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="122" ht="39" customHeight="1">
+    <row r="122" ht="39" hidden="1" customHeight="1">
       <c r="A122" s="35">
         <v>161</v>
       </c>
@@ -9407,7 +9423,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="123" ht="39" customHeight="1">
+    <row r="123" ht="39" hidden="1" customHeight="1">
       <c r="A123" s="35">
         <v>162</v>
       </c>
@@ -9448,7 +9464,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="124" ht="39" customHeight="1">
+    <row r="124" ht="39" hidden="1" customHeight="1">
       <c r="A124" s="35">
         <v>163</v>
       </c>
@@ -9489,7 +9505,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="125" ht="39" customHeight="1">
+    <row r="125" ht="39" hidden="1" customHeight="1">
       <c r="A125" s="35">
         <v>164</v>
       </c>
@@ -9530,7 +9546,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="126" ht="39" customHeight="1">
+    <row r="126" ht="39" hidden="1" customHeight="1">
       <c r="A126" s="35">
         <v>165</v>
       </c>
@@ -9571,7 +9587,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="127" ht="39" customHeight="1">
+    <row r="127" ht="39" hidden="1" customHeight="1">
       <c r="A127" s="35">
         <v>166</v>
       </c>
@@ -9612,7 +9628,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="128" ht="39" customHeight="1">
+    <row r="128" ht="39" hidden="1" customHeight="1">
       <c r="A128" s="35">
         <v>167</v>
       </c>
@@ -9653,7 +9669,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="129" ht="39" customHeight="1">
+    <row r="129" ht="39" hidden="1" customHeight="1">
       <c r="A129" s="35">
         <v>168</v>
       </c>
@@ -9694,7 +9710,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="130" ht="39" customHeight="1">
+    <row r="130" ht="39" hidden="1" customHeight="1">
       <c r="A130" s="35">
         <v>169</v>
       </c>
@@ -10290,7 +10306,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="146" ht="15">
+    <row r="146" ht="15" hidden="1">
       <c r="A146" s="35">
         <v>191</v>
       </c>
@@ -10337,7 +10353,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="147" ht="39" customHeight="1">
+    <row r="147" ht="39" hidden="1" customHeight="1">
       <c r="A147" s="35">
         <v>376</v>
       </c>
@@ -10380,7 +10396,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="148" ht="39" customHeight="1">
+    <row r="148" ht="39" hidden="1" customHeight="1">
       <c r="A148" s="35">
         <v>417</v>
       </c>
@@ -10427,7 +10443,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="149" ht="39" customHeight="1">
+    <row r="149" ht="39" hidden="1" customHeight="1">
       <c r="A149" s="35">
         <v>418</v>
       </c>
@@ -10474,7 +10490,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" ht="39" customHeight="1">
+    <row r="150" ht="39" hidden="1" customHeight="1">
       <c r="A150" s="35">
         <v>419</v>
       </c>
@@ -10570,7 +10586,7 @@
         <v>61</v>
       </c>
       <c r="R151" s="39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S151" s="39" t="s">
         <v>63</v>
@@ -10631,7 +10647,7 @@
         <v>61</v>
       </c>
       <c r="R152" s="39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S152" s="39" t="s">
         <v>63</v>
@@ -10680,15 +10696,15 @@
         <v>109</v>
       </c>
       <c r="P153" s="51" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q153" s="51" t="s">
         <v>54</v>
       </c>
       <c r="R153" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="S153" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="S153" s="55" t="s">
         <v>110</v>
       </c>
       <c r="T153" s="39"/>
@@ -10700,7 +10716,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="154" ht="39" customHeight="1">
+    <row r="154" ht="39" hidden="1" customHeight="1">
       <c r="A154" s="35">
         <v>432</v>
       </c>
@@ -10727,13 +10743,13 @@
         <v>120</v>
       </c>
       <c r="L154" s="39"/>
-      <c r="M154" s="55"/>
-      <c r="N154" s="55"/>
-      <c r="O154" s="55"/>
-      <c r="P154" s="55"/>
-      <c r="Q154" s="55"/>
-      <c r="R154" s="55"/>
-      <c r="S154" s="55"/>
+      <c r="M154" s="56"/>
+      <c r="N154" s="56"/>
+      <c r="O154" s="56"/>
+      <c r="P154" s="56"/>
+      <c r="Q154" s="56"/>
+      <c r="R154" s="56"/>
+      <c r="S154" s="56"/>
       <c r="T154" s="39"/>
       <c r="U154" s="40"/>
       <c r="V154" s="41"/>
@@ -10741,7 +10757,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="155" ht="39" customHeight="1">
+    <row r="155" ht="39" hidden="1" customHeight="1">
       <c r="A155" s="35">
         <v>433</v>
       </c>
@@ -10782,7 +10798,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="156" ht="39" customHeight="1">
+    <row r="156" ht="39" hidden="1" customHeight="1">
       <c r="A156" s="35">
         <v>434</v>
       </c>
@@ -10823,7 +10839,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="157" ht="39" customHeight="1">
+    <row r="157" ht="39" hidden="1" customHeight="1">
       <c r="A157" s="35">
         <v>435</v>
       </c>
@@ -10864,7 +10880,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="158" ht="39" customHeight="1">
+    <row r="158" ht="39" hidden="1" customHeight="1">
       <c r="A158" s="35">
         <v>437</v>
       </c>
@@ -10905,7 +10921,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="159" ht="39" customHeight="1">
+    <row r="159" ht="39" hidden="1" customHeight="1">
       <c r="A159" s="35">
         <v>438</v>
       </c>
@@ -10946,7 +10962,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="160" ht="39" customHeight="1">
+    <row r="160" ht="39" hidden="1" customHeight="1">
       <c r="A160" s="35">
         <v>440</v>
       </c>
@@ -10987,7 +11003,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="161" ht="39" customHeight="1">
+    <row r="161" ht="39" hidden="1" customHeight="1">
       <c r="A161" s="35">
         <v>441</v>
       </c>
@@ -11028,7 +11044,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="162" ht="39" customHeight="1">
+    <row r="162" ht="39" hidden="1" customHeight="1">
       <c r="A162" s="35">
         <v>442</v>
       </c>
@@ -11069,7 +11085,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="163" ht="39" customHeight="1">
+    <row r="163" ht="39" hidden="1" customHeight="1">
       <c r="A163" s="35">
         <v>443</v>
       </c>
@@ -11184,7 +11200,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="166" ht="39" customHeight="1">
+    <row r="166" ht="39" hidden="1" customHeight="1">
       <c r="A166" s="35">
         <v>448</v>
       </c>
@@ -11231,7 +11247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="167" ht="33" customHeight="1">
+    <row r="167" ht="33" hidden="1" customHeight="1">
       <c r="A167" s="35">
         <v>449</v>
       </c>
@@ -11278,7 +11294,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="168" ht="33.75" customHeight="1">
+    <row r="168" ht="33.75" hidden="1" customHeight="1">
       <c r="A168" s="35">
         <v>450</v>
       </c>
@@ -11325,7 +11341,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="169" ht="20.25" customHeight="1">
+    <row r="169" ht="20.25" hidden="1" customHeight="1">
       <c r="A169" s="35">
         <v>451</v>
       </c>
@@ -11372,7 +11388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" ht="15">
+    <row r="170" ht="15" hidden="1">
       <c r="A170" s="35">
         <v>452</v>
       </c>
@@ -11419,7 +11435,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" ht="14.25" hidden="1" customHeight="1">
       <c r="A171" s="35">
         <v>454</v>
       </c>
@@ -11466,7 +11482,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" ht="14.25" hidden="1" customHeight="1">
       <c r="A172" s="35">
         <v>455</v>
       </c>
@@ -11661,7 +11677,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="177" ht="15">
+    <row r="177" ht="15" hidden="1">
       <c r="A177" s="35">
         <v>460</v>
       </c>
@@ -11708,7 +11724,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" ht="14.25" hidden="1" customHeight="1">
       <c r="A178" s="35">
         <v>461</v>
       </c>
@@ -11749,7 +11765,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="179" ht="15">
+    <row r="179" ht="15" hidden="1">
       <c r="A179" s="35">
         <v>462</v>
       </c>
@@ -11790,7 +11806,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" ht="14.25" hidden="1" customHeight="1">
       <c r="A180" s="35">
         <v>463</v>
       </c>
@@ -11905,7 +11921,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="183" ht="15">
+    <row r="183" ht="15" hidden="1">
       <c r="A183" s="35">
         <v>466</v>
       </c>
@@ -11946,7 +11962,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" ht="14.25" hidden="1" customHeight="1">
       <c r="A184" s="35">
         <v>467</v>
       </c>
@@ -11987,7 +12003,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="185" ht="22.5" customHeight="1">
+    <row r="185" ht="22.5" hidden="1" customHeight="1">
       <c r="A185" s="35">
         <v>468</v>
       </c>
@@ -12065,7 +12081,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="187" ht="15">
+    <row r="187" ht="15" hidden="1">
       <c r="A187" s="35">
         <v>470</v>
       </c>
@@ -12106,7 +12122,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="188" ht="15">
+    <row r="188" ht="15" hidden="1">
       <c r="A188" s="35">
         <v>471</v>
       </c>
@@ -12153,7 +12169,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="189" ht="15">
+    <row r="189" ht="15" hidden="1">
       <c r="A189" s="35">
         <v>472</v>
       </c>
@@ -12200,7 +12216,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="190" ht="15">
+    <row r="190" ht="15" hidden="1">
       <c r="A190" s="35">
         <v>473</v>
       </c>
@@ -12241,7 +12257,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="191" ht="15">
+    <row r="191" ht="15" hidden="1">
       <c r="A191" s="35">
         <v>474</v>
       </c>
@@ -12282,7 +12298,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="192" ht="29.25" customHeight="1">
+    <row r="192" ht="29.25" hidden="1" customHeight="1">
       <c r="A192" s="35">
         <v>475</v>
       </c>
@@ -16351,6 +16367,28 @@
         <filter val="VPS"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="28"/>
+        <filter val="29"/>
+        <filter val="31"/>
+        <filter val="32"/>
+        <filter val="35"/>
+        <filter val="36"/>
+        <filter val="37"/>
+        <filter val="39"/>
+        <filter val="40"/>
+        <filter val="43"/>
+        <filter val="44"/>
+        <filter val="45"/>
+        <filter val="47"/>
+        <filter val="48"/>
+        <filter val="51"/>
+        <filter val="423"/>
+        <filter val="424"/>
+        <filter val="425"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
@@ -16361,8 +16399,8 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <dataValidations count="97" disablePrompts="0">
-    <dataValidation sqref="P10:R10 P13:R13 P15:R17 P21:R21 P24:R25 P29:R29 P32:R33 P35:R150 P154:R192 J10:J11 J13:J17 J21:J22 J24:J25 J29 J31:J33 J69:J92 J116 J118:J121 J131:J148 J164:J165 J168 J170:J177 J180:J182 J186 J188:J189 M10:N10 M13:N17 M21:N21 M24:N25 M29:N29 M32:N33 M35:N150 M154:N192" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+  <dataValidations count="114" disablePrompts="0">
+    <dataValidation sqref="P10:R10 P13:R13 P16:R17 P21:R21 P24:R25 P29:R29 P32:R33 P35:R150 P154:R192 J10:J11 J13:J17 J21:J22 J24:J25 J29 J31:J33 J69:J92 J116 J118:J121 J131:J148 J164:J165 J168 J170:J177 J180:J182 J186 J188:J189 M10:N10 M13:N17 M21:N21 M24:N25 M29:N29 M32:N33 M35:N150 M154:N192" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
     <dataValidation sqref="T10:T152 T154:T192" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
@@ -16375,9 +16413,6 @@
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
     <dataValidation sqref="M23:N23" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
-      <formula1>Sheet1!$B$2:$B$3</formula1>
-    </dataValidation>
-    <dataValidation sqref="P23:R23" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
     <dataValidation sqref="J117" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
@@ -16425,19 +16460,10 @@
     <dataValidation sqref="M20:N20" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
-    <dataValidation sqref="P18:R18" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
-      <formula1>Sheet1!$B$2:$B$3</formula1>
-    </dataValidation>
-    <dataValidation sqref="P20:R20" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
-      <formula1>Sheet1!$B$2:$B$3</formula1>
-    </dataValidation>
     <dataValidation sqref="J12" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
     <dataValidation sqref="M12:N12" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
-      <formula1>Sheet1!$B$2:$B$3</formula1>
-    </dataValidation>
-    <dataValidation sqref="P12:R12" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
     <dataValidation sqref="J20" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
@@ -16447,9 +16473,6 @@
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
     <dataValidation sqref="M26:N26" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
-      <formula1>Sheet1!$B$2:$B$3</formula1>
-    </dataValidation>
-    <dataValidation sqref="P26:R26" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
     <dataValidation sqref="J28" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
@@ -16548,15 +16571,6 @@
     <dataValidation sqref="M19" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
-    <dataValidation sqref="P19" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
-      <formula1>Sheet1!$B$2:$B$3</formula1>
-    </dataValidation>
-    <dataValidation sqref="Q19" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
-      <formula1>Sheet1!$B$2:$B$3</formula1>
-    </dataValidation>
-    <dataValidation sqref="R19" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
-      <formula1>Sheet1!$B$2:$B$3</formula1>
-    </dataValidation>
     <dataValidation sqref="J27" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
@@ -16617,6 +16631,27 @@
     <dataValidation sqref="J153" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
+    <dataValidation sqref="N22" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="M22" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="M151:N151" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="M152:N152" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="P12" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="Q12" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="R12" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
     <dataValidation sqref="P14" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
@@ -16626,10 +16661,40 @@
     <dataValidation sqref="R14" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
-    <dataValidation sqref="N22" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+    <dataValidation sqref="P15" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
-    <dataValidation sqref="M22" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+    <dataValidation sqref="Q15" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="R15" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="P18" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="Q18" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="R18" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="P19" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="Q19" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="R19" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="P20" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="Q20" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="R20" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
     <dataValidation sqref="P22" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
@@ -16641,16 +16706,40 @@
     <dataValidation sqref="R22" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
-    <dataValidation sqref="M151:N151" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+    <dataValidation sqref="P23" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
-    <dataValidation sqref="P151:R151" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+    <dataValidation sqref="Q23" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
-    <dataValidation sqref="M152:N152" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+    <dataValidation sqref="R23" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
-    <dataValidation sqref="P152:R152" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+    <dataValidation sqref="P26" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="Q26" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="R26" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="P151" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="Q151" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="R151" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="P152" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="Q152" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="R152" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -16739,170 +16828,170 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>488</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>489</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>490</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="60" t="s">
         <v>491</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="61" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>493</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="63" t="s">
         <v>494</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="64" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="62" t="s">
         <v>493</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="63" t="s">
         <v>496</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="64" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="62" t="s">
         <v>493</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="63" t="s">
         <v>498</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="65" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>493</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="63" t="s">
         <v>500</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="64" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="62" t="s">
         <v>493</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="63" t="s">
         <v>502</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="65" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="7" ht="14.5">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="62" t="s">
         <v>493</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="63" t="s">
         <v>504</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="65" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="8" ht="14.5">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="62" t="s">
         <v>493</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="63" t="s">
         <v>506</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="65" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="9" ht="14.5">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="62" t="s">
         <v>493</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="63" t="s">
         <v>508</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="65" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="10" ht="43.5">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>510</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="62" t="s">
         <v>493</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="66" t="s">
         <v>511</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="64" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="62" t="s">
         <v>351</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="62" t="s">
         <v>493</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="63" t="s">
         <v>513</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="65" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="D12" s="66"/>
+      <c r="D12" s="67"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="D13" s="66"/>
+      <c r="D13" s="67"/>
     </row>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1"/>
